--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Festjens.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Festjens.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Felien\SEAwise\papers\SEAwise_WP4_Fulltexts_Festjens\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66171705-B85D-47EE-9B17-9D66E1A33916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1B3740-771B-4766-B640-7B53B20EE1BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Drop-down overview" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AY$81</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -4630,8 +4631,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{DD519172-856C-47FB-AD40-E80DA2F3541A}"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4917,31 +4918,31 @@
   <dimension ref="A1:AY81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AG69" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AJ31" sqref="AJ31"/>
+      <selection pane="bottomRight" activeCell="AY64" sqref="AY64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.453125" customWidth="1"/>
-    <col min="20" max="20" width="18.1796875" customWidth="1"/>
-    <col min="25" max="26" width="32.7265625" customWidth="1"/>
-    <col min="35" max="36" width="17.7265625" customWidth="1"/>
-    <col min="37" max="37" width="18.7265625" customWidth="1"/>
-    <col min="38" max="38" width="19.1796875" customWidth="1"/>
-    <col min="39" max="39" width="17.7265625" customWidth="1"/>
-    <col min="40" max="40" width="14.26953125" customWidth="1"/>
-    <col min="41" max="42" width="15.81640625" customWidth="1"/>
-    <col min="43" max="43" width="15.453125" customWidth="1"/>
-    <col min="47" max="47" width="15.1796875" customWidth="1"/>
-    <col min="48" max="48" width="18.7265625" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" customWidth="1"/>
+    <col min="20" max="20" width="18.21875" customWidth="1"/>
+    <col min="25" max="26" width="32.77734375" customWidth="1"/>
+    <col min="35" max="36" width="17.77734375" customWidth="1"/>
+    <col min="37" max="37" width="18.77734375" customWidth="1"/>
+    <col min="38" max="38" width="19.21875" customWidth="1"/>
+    <col min="39" max="39" width="17.77734375" customWidth="1"/>
+    <col min="40" max="40" width="14.21875" customWidth="1"/>
+    <col min="41" max="42" width="15.77734375" customWidth="1"/>
+    <col min="43" max="43" width="15.44140625" customWidth="1"/>
+    <col min="47" max="47" width="15.21875" customWidth="1"/>
+    <col min="48" max="48" width="18.77734375" customWidth="1"/>
     <col min="49" max="49" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>476</v>
       </c>
@@ -5010,7 +5011,7 @@
       <c r="AX1" s="17"/>
       <c r="AY1" s="17"/>
     </row>
-    <row r="2" spans="1:51" s="2" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:51" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>68</v>
       </c>
@@ -5162,7 +5163,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>477</v>
       </c>
@@ -5293,7 +5294,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="4" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>477</v>
       </c>
@@ -5424,7 +5425,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="5" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>477</v>
       </c>
@@ -5546,7 +5547,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="6" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>477</v>
       </c>
@@ -5665,7 +5666,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="7" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>477</v>
       </c>
@@ -5778,7 +5779,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="8" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>477</v>
       </c>
@@ -5891,7 +5892,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="9" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>477</v>
       </c>
@@ -6022,7 +6023,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="10" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>477</v>
       </c>
@@ -6153,7 +6154,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="11" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>477</v>
       </c>
@@ -6284,7 +6285,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="12" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>477</v>
       </c>
@@ -6406,7 +6407,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="13" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>477</v>
       </c>
@@ -6528,7 +6529,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="14" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>477</v>
       </c>
@@ -6650,7 +6651,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="15" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>477</v>
       </c>
@@ -6781,7 +6782,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="16" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>477</v>
       </c>
@@ -6916,7 +6917,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="17" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>477</v>
       </c>
@@ -7056,7 +7057,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="18" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>477</v>
       </c>
@@ -7190,7 +7191,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="19" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>477</v>
       </c>
@@ -7324,7 +7325,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="20" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>477</v>
       </c>
@@ -7416,7 +7417,7 @@
         <v>117</v>
       </c>
       <c r="AN20" s="12" t="s">
-        <v>159</v>
+        <v>232</v>
       </c>
       <c r="AP20" s="12" t="s">
         <v>569</v>
@@ -7446,7 +7447,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="21" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>477</v>
       </c>
@@ -7538,7 +7539,7 @@
         <v>117</v>
       </c>
       <c r="AN21" s="12" t="s">
-        <v>159</v>
+        <v>232</v>
       </c>
       <c r="AP21" s="12" t="s">
         <v>569</v>
@@ -7568,7 +7569,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="22" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>477</v>
       </c>
@@ -7684,7 +7685,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="23" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>477</v>
       </c>
@@ -7800,7 +7801,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="24" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>477</v>
       </c>
@@ -7919,7 +7920,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="25" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>477</v>
       </c>
@@ -8032,7 +8033,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="26" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>477</v>
       </c>
@@ -8160,7 +8161,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="27" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>477</v>
       </c>
@@ -8288,7 +8289,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="28" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>477</v>
       </c>
@@ -8416,7 +8417,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="29" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>477</v>
       </c>
@@ -8544,7 +8545,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="30" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>477</v>
       </c>
@@ -8672,7 +8673,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="31" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>477</v>
       </c>
@@ -8800,7 +8801,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="32" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
         <v>477</v>
       </c>
@@ -8928,7 +8929,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="33" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>477</v>
       </c>
@@ -9056,7 +9057,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="34" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>477</v>
       </c>
@@ -9182,7 +9183,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="35" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
         <v>477</v>
       </c>
@@ -9307,7 +9308,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="36" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>477</v>
       </c>
@@ -9432,7 +9433,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="37" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>477</v>
       </c>
@@ -9557,7 +9558,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="38" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
         <v>477</v>
       </c>
@@ -9683,7 +9684,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="39" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
         <v>477</v>
       </c>
@@ -9808,7 +9809,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="40" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
         <v>477</v>
       </c>
@@ -9933,7 +9934,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="41" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
         <v>477</v>
       </c>
@@ -10058,7 +10059,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="42" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
         <v>477</v>
       </c>
@@ -10198,7 +10199,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="43" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
         <v>477</v>
       </c>
@@ -10338,7 +10339,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="44" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>477</v>
       </c>
@@ -10475,7 +10476,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="45" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="12" t="s">
         <v>477</v>
       </c>
@@ -10615,7 +10616,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="46" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="12" t="s">
         <v>477</v>
       </c>
@@ -10755,7 +10756,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="47" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">
         <v>477</v>
       </c>
@@ -10895,7 +10896,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="48" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="12" t="s">
         <v>477</v>
       </c>
@@ -11032,7 +11033,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="49" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="12" t="s">
         <v>477</v>
       </c>
@@ -11172,7 +11173,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="50" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
         <v>477</v>
       </c>
@@ -11312,7 +11313,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="51" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="12" t="s">
         <v>477</v>
       </c>
@@ -11452,7 +11453,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="52" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="12" t="s">
         <v>477</v>
       </c>
@@ -11589,7 +11590,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="53" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="12" t="s">
         <v>477</v>
       </c>
@@ -11729,7 +11730,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="54" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
         <v>477</v>
       </c>
@@ -11854,7 +11855,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="55" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="s">
         <v>477</v>
       </c>
@@ -11979,7 +11980,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="56" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="12" t="s">
         <v>477</v>
       </c>
@@ -12092,7 +12093,7 @@
         <v>591</v>
       </c>
       <c r="AW56" s="12" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
       <c r="AX56" s="12" t="s">
         <v>207</v>
@@ -12101,7 +12102,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="57" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="12" t="s">
         <v>477</v>
       </c>
@@ -12217,7 +12218,7 @@
         <v>591</v>
       </c>
       <c r="AW57" s="12" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
       <c r="AX57" s="12" t="s">
         <v>207</v>
@@ -12226,7 +12227,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="58" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="12" t="s">
         <v>477</v>
       </c>
@@ -12360,7 +12361,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="59" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="12" t="s">
         <v>477</v>
       </c>
@@ -12485,7 +12486,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="60" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="12" t="s">
         <v>477</v>
       </c>
@@ -12607,7 +12608,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="61" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="12" t="s">
         <v>477</v>
       </c>
@@ -12729,7 +12730,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="62" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="12" t="s">
         <v>477</v>
       </c>
@@ -12857,7 +12858,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="63" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="12" t="s">
         <v>477</v>
       </c>
@@ -12982,7 +12983,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="64" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="12" t="s">
         <v>477</v>
       </c>
@@ -13095,7 +13096,7 @@
         <v>591</v>
       </c>
       <c r="AW64" s="12" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
       <c r="AX64" s="12" t="s">
         <v>207</v>
@@ -13104,7 +13105,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="65" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="12" t="s">
         <v>477</v>
       </c>
@@ -13217,7 +13218,7 @@
         <v>591</v>
       </c>
       <c r="AW65" s="12" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
       <c r="AX65" s="12" t="s">
         <v>207</v>
@@ -13226,7 +13227,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="66" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="12" t="s">
         <v>477</v>
       </c>
@@ -13351,7 +13352,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="67" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="12" t="s">
         <v>477</v>
       </c>
@@ -13479,7 +13480,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="68" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="12" t="s">
         <v>477</v>
       </c>
@@ -13607,7 +13608,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="69" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="12" t="s">
         <v>477</v>
       </c>
@@ -13732,7 +13733,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="70" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="12" t="s">
         <v>477</v>
       </c>
@@ -13857,7 +13858,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="71" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="12" t="s">
         <v>477</v>
       </c>
@@ -13982,7 +13983,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="72" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="12" t="s">
         <v>477</v>
       </c>
@@ -14110,7 +14111,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="73" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="12" t="s">
         <v>477</v>
       </c>
@@ -14235,7 +14236,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="74" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="12" t="s">
         <v>477</v>
       </c>
@@ -14351,7 +14352,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="75" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="12" t="s">
         <v>477</v>
       </c>
@@ -14467,7 +14468,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="76" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="12" t="s">
         <v>477</v>
       </c>
@@ -14583,7 +14584,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="77" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="12" t="s">
         <v>477</v>
       </c>
@@ -14702,7 +14703,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="78" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="12" t="s">
         <v>477</v>
       </c>
@@ -14821,7 +14822,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="79" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="12" t="s">
         <v>477</v>
       </c>
@@ -14940,7 +14941,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="80" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="12" t="s">
         <v>477</v>
       </c>
@@ -15067,7 +15068,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="81" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="12" t="s">
         <v>477</v>
       </c>
@@ -15324,17 +15325,17 @@
       <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="19" max="19" width="32.1796875" customWidth="1"/>
-    <col min="23" max="23" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.21875" customWidth="1"/>
+    <col min="23" max="23" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="25" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="25" customWidth="1"/>
-    <col min="32" max="32" width="14.7265625" customWidth="1"/>
-    <col min="33" max="33" width="26.26953125" customWidth="1"/>
+    <col min="32" max="32" width="14.77734375" customWidth="1"/>
+    <col min="33" max="33" width="26.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>11</v>
       </c>
@@ -15400,7 +15401,7 @@
       <c r="AW1" s="9"/>
       <c r="AX1" s="9"/>
     </row>
-    <row r="2" spans="1:50" ht="87" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:50" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -15552,7 +15553,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
       <c r="Q3" t="s">
         <v>21</v>
       </c>
@@ -15609,7 +15610,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
       <c r="Q4" t="s">
         <v>22</v>
       </c>
@@ -15666,7 +15667,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
       <c r="R5" t="s">
         <v>83</v>
       </c>
@@ -15722,7 +15723,7 @@
       </c>
       <c r="AX5" s="8"/>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
       <c r="R6" t="s">
         <v>84</v>
       </c>
@@ -15767,7 +15768,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
       <c r="R7" t="s">
         <v>85</v>
       </c>
@@ -15809,7 +15810,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
       <c r="R8" t="s">
         <v>86</v>
       </c>
@@ -15847,7 +15848,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
       <c r="R9" t="s">
         <v>87</v>
       </c>
@@ -15882,7 +15883,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
       <c r="S10" t="s">
         <v>33</v>
       </c>
@@ -15914,7 +15915,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
       <c r="S11" t="s">
         <v>32</v>
       </c>
@@ -15949,7 +15950,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
       <c r="S12" t="s">
         <v>30</v>
       </c>
@@ -15981,7 +15982,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
       <c r="S13" t="s">
         <v>79</v>
       </c>
@@ -16016,7 +16017,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
       <c r="S14" t="s">
         <v>31</v>
       </c>
@@ -16045,7 +16046,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
       <c r="S15" t="s">
         <v>35</v>
       </c>
@@ -16074,7 +16075,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
       <c r="S16" t="s">
         <v>34</v>
       </c>
@@ -16094,7 +16095,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="17" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AM17" t="s">
         <v>162</v>
       </c>
@@ -16102,22 +16103,22 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="18" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AQ18" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="19" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AQ19" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="22" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AH22" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="23" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AH23" s="6" t="s">
         <v>115</v>
       </c>
@@ -16152,7 +16153,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="24" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AH24" t="s">
         <v>129</v>
       </c>
@@ -16178,7 +16179,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="25" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AH25" t="s">
         <v>137</v>
       </c>
@@ -16201,7 +16202,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="26" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="26" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AJ26" t="s">
         <v>144</v>
       </c>
@@ -16212,7 +16213,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="27" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AJ27" t="s">
         <v>147</v>
       </c>
@@ -16223,7 +16224,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="28" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AJ28" t="s">
         <v>149</v>
       </c>
@@ -16231,12 +16232,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="29" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AQ29" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="30" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AH30" s="5" t="s">
         <v>151</v>
       </c>
@@ -16259,7 +16260,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="31" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="31" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AH31" s="6" t="s">
         <v>129</v>
       </c>
@@ -16285,7 +16286,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="32" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="32" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AH32" t="s">
         <v>153</v>
       </c>
@@ -16311,7 +16312,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="34:51" x14ac:dyDescent="0.35">
+    <row r="33" spans="34:51" x14ac:dyDescent="0.3">
       <c r="AH33" t="s">
         <v>155</v>
       </c>
@@ -16331,7 +16332,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="34:51" x14ac:dyDescent="0.35">
+    <row r="34" spans="34:51" x14ac:dyDescent="0.3">
       <c r="AI34" t="s">
         <v>157</v>
       </c>
@@ -16346,7 +16347,7 @@
       </c>
       <c r="AY34" s="7"/>
     </row>
-    <row r="35" spans="34:51" x14ac:dyDescent="0.35">
+    <row r="35" spans="34:51" x14ac:dyDescent="0.3">
       <c r="AI35" t="s">
         <v>113</v>
       </c>
@@ -16360,7 +16361,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="34:51" x14ac:dyDescent="0.35">
+    <row r="36" spans="34:51" x14ac:dyDescent="0.3">
       <c r="AU36" t="s">
         <v>211</v>
       </c>
@@ -16368,10 +16369,10 @@
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="34:51" x14ac:dyDescent="0.35">
+    <row r="37" spans="34:51" x14ac:dyDescent="0.3">
       <c r="AL37" s="5"/>
     </row>
-    <row r="38" spans="34:51" x14ac:dyDescent="0.35">
+    <row r="38" spans="34:51" x14ac:dyDescent="0.3">
       <c r="AL38" s="6"/>
       <c r="AM38" s="6"/>
       <c r="AN38" s="6"/>
@@ -16399,38 +16400,38 @@
       <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.54296875" customWidth="1"/>
-    <col min="9" max="9" width="17.26953125" customWidth="1"/>
-    <col min="10" max="10" width="14.7265625" customWidth="1"/>
-    <col min="13" max="13" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" customWidth="1"/>
+    <col min="9" max="9" width="17.21875" customWidth="1"/>
+    <col min="10" max="10" width="14.77734375" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" customWidth="1"/>
     <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.54296875" customWidth="1"/>
-    <col min="17" max="17" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.81640625" customWidth="1"/>
-    <col min="19" max="19" width="17.7265625" customWidth="1"/>
-    <col min="20" max="20" width="19.26953125" customWidth="1"/>
-    <col min="21" max="21" width="17.7265625" customWidth="1"/>
-    <col min="22" max="22" width="18.7265625" customWidth="1"/>
-    <col min="26" max="26" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.5546875" customWidth="1"/>
+    <col min="17" max="17" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.77734375" customWidth="1"/>
+    <col min="19" max="19" width="17.77734375" customWidth="1"/>
+    <col min="20" max="20" width="19.21875" customWidth="1"/>
+    <col min="21" max="21" width="17.77734375" customWidth="1"/>
+    <col min="22" max="22" width="18.77734375" customWidth="1"/>
+    <col min="26" max="26" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="28.54296875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.453125" customWidth="1"/>
-    <col min="30" max="30" width="15.26953125" customWidth="1"/>
-    <col min="31" max="31" width="26.26953125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.7265625" customWidth="1"/>
-    <col min="33" max="33" width="12.54296875" customWidth="1"/>
+    <col min="28" max="28" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.44140625" customWidth="1"/>
+    <col min="30" max="30" width="15.21875" customWidth="1"/>
+    <col min="31" max="31" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.77734375" customWidth="1"/>
+    <col min="33" max="33" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>12</v>
       </c>
@@ -16477,7 +16478,7 @@
       <c r="AF1" s="17"/>
       <c r="AG1" s="17"/>
     </row>
-    <row r="2" spans="1:33" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
@@ -16578,7 +16579,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -16644,7 +16645,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -16695,7 +16696,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -16749,7 +16750,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -16791,7 +16792,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -16836,7 +16837,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -16874,7 +16875,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -16912,7 +16913,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>33</v>
       </c>
@@ -16947,7 +16948,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>32</v>
       </c>
@@ -16979,7 +16980,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>30</v>
       </c>
@@ -17011,7 +17012,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>79</v>
       </c>
@@ -17040,7 +17041,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>31</v>
       </c>
@@ -17063,7 +17064,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>35</v>
       </c>
@@ -17089,7 +17090,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>34</v>
       </c>
@@ -17106,7 +17107,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="17" spans="17:28" x14ac:dyDescent="0.3">
       <c r="Q17" t="s">
         <v>119</v>
       </c>
@@ -17117,7 +17118,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="18" spans="17:28" x14ac:dyDescent="0.3">
       <c r="Q18" t="s">
         <v>120</v>
       </c>
@@ -17131,7 +17132,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="19" spans="17:28" x14ac:dyDescent="0.3">
       <c r="R19" t="s">
         <v>152</v>
       </c>
@@ -17145,7 +17146,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="20" spans="17:28" x14ac:dyDescent="0.3">
       <c r="S20" t="s">
         <v>156</v>
       </c>
@@ -17156,7 +17157,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="21" spans="17:28" x14ac:dyDescent="0.3">
       <c r="S21" t="s">
         <v>228</v>
       </c>
@@ -17170,7 +17171,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="22" spans="17:28" x14ac:dyDescent="0.3">
       <c r="S22" t="s">
         <v>113</v>
       </c>
@@ -17181,7 +17182,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="23" spans="17:28" x14ac:dyDescent="0.3">
       <c r="Q23" t="s">
         <v>127</v>
       </c>
@@ -17195,7 +17196,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="24" spans="17:28" x14ac:dyDescent="0.3">
       <c r="R24" t="s">
         <v>141</v>
       </c>
@@ -17203,7 +17204,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="25" spans="17:28" x14ac:dyDescent="0.3">
       <c r="R25" t="s">
         <v>146</v>
       </c>
@@ -17211,7 +17212,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="26" spans="17:28" x14ac:dyDescent="0.3">
       <c r="R26" t="s">
         <v>148</v>
       </c>
@@ -17219,7 +17220,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="27" spans="17:28" x14ac:dyDescent="0.3">
       <c r="R27" t="s">
         <v>150</v>
       </c>
@@ -17233,7 +17234,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="28" spans="17:28" x14ac:dyDescent="0.3">
       <c r="Q28" t="s">
         <v>122</v>
       </c>
@@ -17244,7 +17245,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="29" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="29" spans="17:28" x14ac:dyDescent="0.3">
       <c r="R29" t="s">
         <v>142</v>
       </c>
@@ -17255,7 +17256,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="30" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="30" spans="17:28" x14ac:dyDescent="0.3">
       <c r="Q30" t="s">
         <v>123</v>
       </c>
@@ -17266,7 +17267,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="31" spans="17:28" x14ac:dyDescent="0.3">
       <c r="R31" t="s">
         <v>143</v>
       </c>
@@ -17274,7 +17275,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="32" spans="17:28" x14ac:dyDescent="0.3">
       <c r="Q32" t="s">
         <v>128</v>
       </c>
@@ -17282,12 +17283,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="26:26" x14ac:dyDescent="0.35">
+    <row r="33" spans="26:26" x14ac:dyDescent="0.3">
       <c r="Z33" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="34" spans="26:26" x14ac:dyDescent="0.35">
+    <row r="34" spans="26:26" x14ac:dyDescent="0.3">
       <c r="Z34" t="s">
         <v>150</v>
       </c>
@@ -17307,12 +17308,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17430,15 +17428,25 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -17460,16 +17468,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Festjens.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Festjens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1B3740-771B-4766-B640-7B53B20EE1BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4615361-F962-4652-9EF4-D443B09D118D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4918,10 +4918,10 @@
   <dimension ref="A1:AY81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AY64" sqref="AY64"/>
+      <selection pane="bottomRight" activeCell="AK48" sqref="AK48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10574,7 +10574,7 @@
         <v>120</v>
       </c>
       <c r="AJ45" s="12" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="AK45" s="12" t="s">
         <v>156</v>
@@ -11131,7 +11131,7 @@
         <v>120</v>
       </c>
       <c r="AJ49" s="12" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="AK49" s="12" t="s">
         <v>156</v>
@@ -11688,7 +11688,7 @@
         <v>120</v>
       </c>
       <c r="AJ53" s="12" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="AK53" s="12" t="s">
         <v>156</v>
@@ -15211,7 +15211,7 @@
       <formula1>Fishery_type</formula1>
     </dataValidation>
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="Q3:Q1048576" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ3:AK1048576 AO3:AO1048576 AS3:AT1048576" xr:uid="{E3465DE4-B915-4C62-9316-EABEC40DC1E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS3:AT1048576 AO3:AO1048576 AJ3:AK1048576" xr:uid="{E3465DE4-B915-4C62-9316-EABEC40DC1E6}">
       <formula1>INDIRECT(AI3)</formula1>
     </dataValidation>
   </dataValidations>
@@ -17308,9 +17308,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17428,25 +17431,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -17468,9 +17461,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Festjens.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Festjens.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4615361-F962-4652-9EF4-D443B09D118D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210715B7-48FB-4E96-8AA0-DF38459364A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Drop-down overview" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AY$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AY$82</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -2388,7 +2388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3570" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3609" uniqueCount="625">
   <si>
     <t>SearchID</t>
   </si>
@@ -3950,9 +3950,6 @@
   </si>
   <si>
     <t>direct mortality of benthic organisms</t>
-  </si>
-  <si>
-    <t>comparison of mean community metrics</t>
   </si>
   <si>
     <t>PCA _ cumulative sums _ correlation analysis</t>
@@ -4024,9 +4021,6 @@
     <t>The major difference between the sites appears to be the intensity of fishing effort. This suggests that these species are sensitive to trawling pressure and is strengthened by the occurrence of many of these ‘‘sensitive’’ species at the offshore wreck site.</t>
   </si>
   <si>
-    <t>survival rates</t>
-  </si>
-  <si>
     <t xml:space="preserve">The short-term analyses of mortality rates highlighted the presence of a strong seasonal effect. Obtained results reaveal a pronounced sensitivity of this species to mechanical stress of trawling action and to emersion during the sorting process. The integration of the survival tests with the physiological evaluation of the stress, occurring during trawling and sorting operations, suggests that a decline of L. depurator populations should be expected. However, data from surveys show a rather stable situation for the Northern Adriatic Sea.
 </t>
   </si>
@@ -4411,6 +4405,18 @@
   </si>
   <si>
     <t>benthic production</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Mixed Trophic Impact</t>
+  </si>
+  <si>
+    <t>Total abundance _ biomass</t>
+  </si>
+  <si>
+    <t>Total species _ species richness _ Shannon's diversity _ evenness</t>
   </si>
 </sst>
 </file>
@@ -4915,34 +4921,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY81"/>
+  <dimension ref="A1:AY82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AK3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AK48" sqref="AK48"/>
+      <selection pane="bottomRight" activeCell="AW85" sqref="AW85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" customWidth="1"/>
-    <col min="20" max="20" width="18.21875" customWidth="1"/>
-    <col min="25" max="26" width="32.77734375" customWidth="1"/>
-    <col min="35" max="36" width="17.77734375" customWidth="1"/>
-    <col min="37" max="37" width="18.77734375" customWidth="1"/>
-    <col min="38" max="38" width="19.21875" customWidth="1"/>
-    <col min="39" max="39" width="17.77734375" customWidth="1"/>
-    <col min="40" max="40" width="14.21875" customWidth="1"/>
-    <col min="41" max="42" width="15.77734375" customWidth="1"/>
-    <col min="43" max="43" width="15.44140625" customWidth="1"/>
-    <col min="47" max="47" width="15.21875" customWidth="1"/>
-    <col min="48" max="48" width="18.77734375" customWidth="1"/>
+    <col min="1" max="1" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.453125" customWidth="1"/>
+    <col min="20" max="20" width="18.1796875" customWidth="1"/>
+    <col min="25" max="26" width="32.81640625" customWidth="1"/>
+    <col min="35" max="36" width="17.81640625" customWidth="1"/>
+    <col min="37" max="37" width="18.81640625" customWidth="1"/>
+    <col min="38" max="38" width="19.1796875" customWidth="1"/>
+    <col min="39" max="39" width="17.81640625" customWidth="1"/>
+    <col min="40" max="40" width="14.1796875" customWidth="1"/>
+    <col min="41" max="42" width="15.81640625" customWidth="1"/>
+    <col min="43" max="43" width="15.453125" customWidth="1"/>
+    <col min="47" max="47" width="15.1796875" customWidth="1"/>
+    <col min="48" max="48" width="18.81640625" customWidth="1"/>
     <col min="49" max="49" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>476</v>
       </c>
@@ -5011,7 +5017,7 @@
       <c r="AX1" s="17"/>
       <c r="AY1" s="17"/>
     </row>
-    <row r="2" spans="1:51" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:51" s="2" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>68</v>
       </c>
@@ -5163,7 +5169,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>477</v>
       </c>
@@ -5279,7 +5285,7 @@
         <v>175</v>
       </c>
       <c r="AU3" s="14" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AV3" s="12" t="s">
         <v>481</v>
@@ -5294,7 +5300,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="4" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>477</v>
       </c>
@@ -5410,7 +5416,7 @@
         <v>175</v>
       </c>
       <c r="AU4" s="14" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AV4" s="12" t="s">
         <v>481</v>
@@ -5425,7 +5431,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="5" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>477</v>
       </c>
@@ -5493,10 +5499,10 @@
         <v>113</v>
       </c>
       <c r="Z5" s="12" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="AA5" s="12" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AB5" s="12">
         <v>2</v>
@@ -5547,7 +5553,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="6" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>477</v>
       </c>
@@ -5615,10 +5621,10 @@
         <v>113</v>
       </c>
       <c r="Z6" s="12" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="AA6" s="12" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AB6" s="12">
         <v>2</v>
@@ -5642,7 +5648,7 @@
         <v>138</v>
       </c>
       <c r="AM6" s="14" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AN6" s="12" t="s">
         <v>232</v>
@@ -5666,7 +5672,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="7" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>477</v>
       </c>
@@ -5734,10 +5740,10 @@
         <v>113</v>
       </c>
       <c r="Z7" s="12" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="AA7" s="12" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AB7" s="12">
         <v>2</v>
@@ -5779,7 +5785,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="8" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>477</v>
       </c>
@@ -5847,10 +5853,10 @@
         <v>113</v>
       </c>
       <c r="Z8" s="12" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="AA8" s="12" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AB8" s="12">
         <v>2</v>
@@ -5892,7 +5898,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="9" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>477</v>
       </c>
@@ -5963,7 +5969,7 @@
         <v>216</v>
       </c>
       <c r="AA9" s="12" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AB9" s="12">
         <v>2</v>
@@ -5990,7 +5996,7 @@
         <v>134</v>
       </c>
       <c r="AM9" s="12" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="AN9" s="12" t="s">
         <v>232</v>
@@ -6023,7 +6029,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="10" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>477</v>
       </c>
@@ -6094,7 +6100,7 @@
         <v>216</v>
       </c>
       <c r="AA10" s="12" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AB10" s="12">
         <v>2</v>
@@ -6121,7 +6127,7 @@
         <v>134</v>
       </c>
       <c r="AM10" s="12" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="AN10" s="12" t="s">
         <v>232</v>
@@ -6154,7 +6160,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="11" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>477</v>
       </c>
@@ -6225,7 +6231,7 @@
         <v>216</v>
       </c>
       <c r="AA11" s="12" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AB11" s="12">
         <v>2</v>
@@ -6252,7 +6258,7 @@
         <v>134</v>
       </c>
       <c r="AM11" s="12" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="AN11" s="12" t="s">
         <v>232</v>
@@ -6285,7 +6291,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="12" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>477</v>
       </c>
@@ -6356,7 +6362,7 @@
         <v>216</v>
       </c>
       <c r="AA12" s="12" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AB12" s="12">
         <v>2</v>
@@ -6407,7 +6413,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="13" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>477</v>
       </c>
@@ -6478,7 +6484,7 @@
         <v>216</v>
       </c>
       <c r="AA13" s="12" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AB13" s="12">
         <v>2</v>
@@ -6529,7 +6535,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="14" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
         <v>477</v>
       </c>
@@ -6600,7 +6606,7 @@
         <v>216</v>
       </c>
       <c r="AA14" s="12" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AB14" s="12">
         <v>2</v>
@@ -6651,7 +6657,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="15" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
         <v>477</v>
       </c>
@@ -6725,7 +6731,7 @@
         <v>216</v>
       </c>
       <c r="AA15" s="12" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AB15" s="12">
         <v>2</v>
@@ -6767,7 +6773,7 @@
         <v>176</v>
       </c>
       <c r="AU15" s="14" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AV15" s="12" t="s">
         <v>493</v>
@@ -6782,7 +6788,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="16" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
         <v>477</v>
       </c>
@@ -6856,7 +6862,7 @@
         <v>216</v>
       </c>
       <c r="AA16" s="12" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="AB16" s="12">
         <v>2</v>
@@ -6883,7 +6889,7 @@
         <v>150</v>
       </c>
       <c r="AM16" s="14" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="AN16" s="12" t="s">
         <v>232</v>
@@ -6894,6 +6900,9 @@
       <c r="AP16" s="12" t="s">
         <v>480</v>
       </c>
+      <c r="AQ16" s="12" t="s">
+        <v>621</v>
+      </c>
       <c r="AR16" s="12" t="s">
         <v>164</v>
       </c>
@@ -6905,7 +6914,7 @@
       </c>
       <c r="AU16" s="14"/>
       <c r="AV16" s="12" t="s">
-        <v>536</v>
+        <v>584</v>
       </c>
       <c r="AW16" s="12" t="s">
         <v>238</v>
@@ -6914,10 +6923,10 @@
         <v>209</v>
       </c>
       <c r="AY16" s="12" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
-    <row r="17" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
         <v>477</v>
       </c>
@@ -6991,7 +7000,7 @@
         <v>215</v>
       </c>
       <c r="AA17" s="12" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="AB17" s="12">
         <v>2</v>
@@ -7021,7 +7030,7 @@
         <v>150</v>
       </c>
       <c r="AM17" s="14" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="AN17" s="12" t="s">
         <v>232</v>
@@ -7030,7 +7039,7 @@
         <v>160</v>
       </c>
       <c r="AP17" s="12" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AR17" s="12" t="s">
         <v>164</v>
@@ -7042,10 +7051,10 @@
         <v>175</v>
       </c>
       <c r="AU17" s="14" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="AV17" s="12" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="AW17" s="12" t="s">
         <v>199</v>
@@ -7054,10 +7063,10 @@
         <v>210</v>
       </c>
       <c r="AY17" s="12" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
-    <row r="18" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>477</v>
       </c>
@@ -7131,7 +7140,7 @@
         <v>215</v>
       </c>
       <c r="AA18" s="12" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="AB18" s="12">
         <v>2</v>
@@ -7155,7 +7164,7 @@
         <v>145</v>
       </c>
       <c r="AM18" s="14" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="AN18" s="12" t="s">
         <v>232</v>
@@ -7164,7 +7173,7 @@
         <v>160</v>
       </c>
       <c r="AP18" s="12" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AR18" s="12" t="s">
         <v>164</v>
@@ -7176,10 +7185,10 @@
         <v>175</v>
       </c>
       <c r="AU18" s="14" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="AV18" s="12" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="AW18" s="12" t="s">
         <v>199</v>
@@ -7188,10 +7197,10 @@
         <v>208</v>
       </c>
       <c r="AY18" s="12" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
-    <row r="19" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>477</v>
       </c>
@@ -7265,7 +7274,7 @@
         <v>215</v>
       </c>
       <c r="AA19" s="12" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="AB19" s="12">
         <v>2</v>
@@ -7289,7 +7298,7 @@
         <v>144</v>
       </c>
       <c r="AM19" s="14" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="AN19" s="12" t="s">
         <v>232</v>
@@ -7298,7 +7307,7 @@
         <v>160</v>
       </c>
       <c r="AP19" s="12" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AR19" s="12" t="s">
         <v>164</v>
@@ -7310,10 +7319,10 @@
         <v>175</v>
       </c>
       <c r="AU19" s="14" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="AV19" s="12" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="AW19" s="12" t="s">
         <v>199</v>
@@ -7322,10 +7331,10 @@
         <v>208</v>
       </c>
       <c r="AY19" s="12" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
-    <row r="20" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
         <v>477</v>
       </c>
@@ -7396,7 +7405,7 @@
         <v>69</v>
       </c>
       <c r="AA20" s="12" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="AB20" s="12">
         <v>2</v>
@@ -7420,7 +7429,7 @@
         <v>232</v>
       </c>
       <c r="AP20" s="12" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AR20" s="12" t="s">
         <v>164</v>
@@ -7432,10 +7441,10 @@
         <v>175</v>
       </c>
       <c r="AU20" s="15" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="AV20" s="12" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="AW20" s="12" t="s">
         <v>205</v>
@@ -7444,10 +7453,10 @@
         <v>208</v>
       </c>
       <c r="AY20" s="12" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
-    <row r="21" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
         <v>477</v>
       </c>
@@ -7518,7 +7527,7 @@
         <v>69</v>
       </c>
       <c r="AA21" s="12" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="AB21" s="12">
         <v>2</v>
@@ -7542,7 +7551,7 @@
         <v>232</v>
       </c>
       <c r="AP21" s="12" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AR21" s="12" t="s">
         <v>164</v>
@@ -7554,10 +7563,10 @@
         <v>175</v>
       </c>
       <c r="AU21" s="15" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="AV21" s="12" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="AW21" s="12" t="s">
         <v>205</v>
@@ -7566,10 +7575,10 @@
         <v>207</v>
       </c>
       <c r="AY21" s="12" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
-    <row r="22" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
         <v>477</v>
       </c>
@@ -7637,10 +7646,10 @@
         <v>113</v>
       </c>
       <c r="Z22" s="12" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="AA22" s="12" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="AB22" s="12">
         <v>2</v>
@@ -7664,7 +7673,7 @@
         <v>232</v>
       </c>
       <c r="AP22" s="12" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="AR22" s="12" t="s">
         <v>164</v>
@@ -7673,19 +7682,19 @@
         <v>239</v>
       </c>
       <c r="AV22" s="12" t="s">
-        <v>586</v>
+        <v>622</v>
       </c>
       <c r="AW22" s="12" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="AX22" s="12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AY22" s="12" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
-    <row r="23" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
         <v>477</v>
       </c>
@@ -7753,10 +7762,10 @@
         <v>113</v>
       </c>
       <c r="Z23" s="12" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="AA23" s="12" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="AB23" s="12">
         <v>2</v>
@@ -7780,7 +7789,7 @@
         <v>232</v>
       </c>
       <c r="AP23" s="12" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="AR23" s="12" t="s">
         <v>164</v>
@@ -7789,19 +7798,19 @@
         <v>240</v>
       </c>
       <c r="AV23" s="12" t="s">
-        <v>586</v>
+        <v>622</v>
       </c>
       <c r="AW23" s="12" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="AX23" s="12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AY23" s="12" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
-    <row r="24" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
         <v>477</v>
       </c>
@@ -7869,10 +7878,10 @@
         <v>113</v>
       </c>
       <c r="Z24" s="12" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="AA24" s="12" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="AB24" s="12">
         <v>2</v>
@@ -7896,7 +7905,7 @@
         <v>232</v>
       </c>
       <c r="AP24" s="12" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="AR24" s="12" t="s">
         <v>164</v>
@@ -7908,19 +7917,19 @@
         <v>181</v>
       </c>
       <c r="AV24" s="12" t="s">
-        <v>586</v>
+        <v>622</v>
       </c>
       <c r="AW24" s="12" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="AX24" s="12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AY24" s="12" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
-    <row r="25" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
         <v>477</v>
       </c>
@@ -7988,7 +7997,7 @@
         <v>80</v>
       </c>
       <c r="AA25" s="12" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="AB25" s="12">
         <v>2</v>
@@ -8021,7 +8030,7 @@
         <v>239</v>
       </c>
       <c r="AV25" s="12" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="AW25" s="12" t="s">
         <v>199</v>
@@ -8030,10 +8039,10 @@
         <v>209</v>
       </c>
       <c r="AY25" s="12" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="26" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
         <v>477</v>
       </c>
@@ -8107,7 +8116,7 @@
         <v>216</v>
       </c>
       <c r="AA26" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AB26" s="12">
         <v>2</v>
@@ -8128,7 +8137,7 @@
         <v>117</v>
       </c>
       <c r="AM26" s="14" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="AN26" s="12" t="s">
         <v>232</v>
@@ -8137,7 +8146,7 @@
         <v>160</v>
       </c>
       <c r="AP26" s="12" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="AR26" s="12" t="s">
         <v>165</v>
@@ -8149,7 +8158,7 @@
         <v>196</v>
       </c>
       <c r="AV26" s="12" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="AW26" s="12" t="s">
         <v>199</v>
@@ -8158,10 +8167,10 @@
         <v>208</v>
       </c>
       <c r="AY26" s="12" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
-    <row r="27" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
         <v>477</v>
       </c>
@@ -8235,7 +8244,7 @@
         <v>216</v>
       </c>
       <c r="AA27" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AB27" s="12">
         <v>2</v>
@@ -8256,7 +8265,7 @@
         <v>117</v>
       </c>
       <c r="AM27" s="14" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="AN27" s="12" t="s">
         <v>232</v>
@@ -8265,7 +8274,7 @@
         <v>160</v>
       </c>
       <c r="AP27" s="12" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="AR27" s="12" t="s">
         <v>165</v>
@@ -8277,7 +8286,7 @@
         <v>196</v>
       </c>
       <c r="AV27" s="12" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AW27" s="12" t="s">
         <v>200</v>
@@ -8286,10 +8295,10 @@
         <v>210</v>
       </c>
       <c r="AY27" s="12" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
-    <row r="28" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
         <v>477</v>
       </c>
@@ -8363,7 +8372,7 @@
         <v>216</v>
       </c>
       <c r="AA28" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AB28" s="12">
         <v>2</v>
@@ -8384,7 +8393,7 @@
         <v>117</v>
       </c>
       <c r="AM28" s="14" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="AN28" s="12" t="s">
         <v>232</v>
@@ -8393,7 +8402,7 @@
         <v>160</v>
       </c>
       <c r="AP28" s="12" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="AR28" s="12" t="s">
         <v>165</v>
@@ -8405,7 +8414,7 @@
         <v>196</v>
       </c>
       <c r="AV28" s="12" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="AW28" s="12" t="s">
         <v>199</v>
@@ -8414,10 +8423,10 @@
         <v>208</v>
       </c>
       <c r="AY28" s="12" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
-    <row r="29" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
         <v>477</v>
       </c>
@@ -8491,7 +8500,7 @@
         <v>216</v>
       </c>
       <c r="AA29" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AB29" s="12">
         <v>2</v>
@@ -8512,7 +8521,7 @@
         <v>117</v>
       </c>
       <c r="AM29" s="14" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="AN29" s="12" t="s">
         <v>232</v>
@@ -8521,7 +8530,7 @@
         <v>160</v>
       </c>
       <c r="AP29" s="12" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="AR29" s="12" t="s">
         <v>165</v>
@@ -8533,7 +8542,7 @@
         <v>196</v>
       </c>
       <c r="AV29" s="12" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="AW29" s="12" t="s">
         <v>113</v>
@@ -8542,10 +8551,10 @@
         <v>208</v>
       </c>
       <c r="AY29" s="12" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
-    <row r="30" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="12" t="s">
         <v>477</v>
       </c>
@@ -8619,7 +8628,7 @@
         <v>216</v>
       </c>
       <c r="AA30" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AB30" s="12">
         <v>2</v>
@@ -8640,7 +8649,7 @@
         <v>117</v>
       </c>
       <c r="AM30" s="14" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="AN30" s="12" t="s">
         <v>232</v>
@@ -8649,7 +8658,7 @@
         <v>160</v>
       </c>
       <c r="AP30" s="12" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="AR30" s="12" t="s">
         <v>165</v>
@@ -8661,7 +8670,7 @@
         <v>196</v>
       </c>
       <c r="AV30" s="12" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AW30" s="12" t="s">
         <v>200</v>
@@ -8670,10 +8679,10 @@
         <v>208</v>
       </c>
       <c r="AY30" s="12" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
-    <row r="31" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
         <v>477</v>
       </c>
@@ -8747,7 +8756,7 @@
         <v>216</v>
       </c>
       <c r="AA31" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AB31" s="12">
         <v>2</v>
@@ -8768,7 +8777,7 @@
         <v>117</v>
       </c>
       <c r="AM31" s="14" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="AN31" s="12" t="s">
         <v>232</v>
@@ -8777,7 +8786,7 @@
         <v>160</v>
       </c>
       <c r="AP31" s="12" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="AR31" s="12" t="s">
         <v>165</v>
@@ -8789,7 +8798,7 @@
         <v>196</v>
       </c>
       <c r="AV31" s="12" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="AW31" s="12" t="s">
         <v>199</v>
@@ -8798,10 +8807,10 @@
         <v>210</v>
       </c>
       <c r="AY31" s="12" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
-    <row r="32" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
         <v>477</v>
       </c>
@@ -8875,7 +8884,7 @@
         <v>216</v>
       </c>
       <c r="AA32" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AB32" s="12">
         <v>2</v>
@@ -8896,7 +8905,7 @@
         <v>117</v>
       </c>
       <c r="AM32" s="14" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="AN32" s="12" t="s">
         <v>232</v>
@@ -8905,7 +8914,7 @@
         <v>160</v>
       </c>
       <c r="AP32" s="12" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="AR32" s="12" t="s">
         <v>165</v>
@@ -8917,7 +8926,7 @@
         <v>196</v>
       </c>
       <c r="AV32" s="12" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="AW32" s="12" t="s">
         <v>113</v>
@@ -8926,10 +8935,10 @@
         <v>210</v>
       </c>
       <c r="AY32" s="12" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
-    <row r="33" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
         <v>477</v>
       </c>
@@ -9003,7 +9012,7 @@
         <v>216</v>
       </c>
       <c r="AA33" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AB33" s="12">
         <v>2</v>
@@ -9024,7 +9033,7 @@
         <v>117</v>
       </c>
       <c r="AM33" s="14" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="AN33" s="12" t="s">
         <v>232</v>
@@ -9033,7 +9042,7 @@
         <v>160</v>
       </c>
       <c r="AP33" s="12" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="AR33" s="12" t="s">
         <v>165</v>
@@ -9045,7 +9054,7 @@
         <v>196</v>
       </c>
       <c r="AV33" s="12" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AW33" s="12" t="s">
         <v>200</v>
@@ -9054,10 +9063,10 @@
         <v>210</v>
       </c>
       <c r="AY33" s="12" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
-    <row r="34" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="12" t="s">
         <v>477</v>
       </c>
@@ -9131,7 +9140,7 @@
         <v>80</v>
       </c>
       <c r="AA34" s="12" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AB34" s="12">
         <v>2</v>
@@ -9171,7 +9180,7 @@
       </c>
       <c r="AU34" s="14"/>
       <c r="AV34" s="12" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="AW34" s="12" t="s">
         <v>204</v>
@@ -9180,10 +9189,10 @@
         <v>209</v>
       </c>
       <c r="AY34" s="12" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
-    <row r="35" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="12" t="s">
         <v>477</v>
       </c>
@@ -9257,7 +9266,7 @@
         <v>80</v>
       </c>
       <c r="AA35" s="12" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AB35" s="12">
         <v>2</v>
@@ -9296,7 +9305,7 @@
         <v>176</v>
       </c>
       <c r="AV35" s="12" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="AW35" s="12" t="s">
         <v>204</v>
@@ -9305,10 +9314,10 @@
         <v>209</v>
       </c>
       <c r="AY35" s="12" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
-    <row r="36" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
         <v>477</v>
       </c>
@@ -9382,7 +9391,7 @@
         <v>80</v>
       </c>
       <c r="AA36" s="12" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AB36" s="12">
         <v>2</v>
@@ -9421,7 +9430,7 @@
         <v>176</v>
       </c>
       <c r="AV36" s="12" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="AW36" s="12" t="s">
         <v>204</v>
@@ -9430,10 +9439,10 @@
         <v>209</v>
       </c>
       <c r="AY36" s="12" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
-    <row r="37" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
         <v>477</v>
       </c>
@@ -9507,7 +9516,7 @@
         <v>80</v>
       </c>
       <c r="AA37" s="12" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AB37" s="12">
         <v>2</v>
@@ -9546,7 +9555,7 @@
         <v>176</v>
       </c>
       <c r="AV37" s="12" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="AW37" s="12" t="s">
         <v>204</v>
@@ -9555,10 +9564,10 @@
         <v>209</v>
       </c>
       <c r="AY37" s="12" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
-    <row r="38" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
         <v>477</v>
       </c>
@@ -9632,7 +9641,7 @@
         <v>80</v>
       </c>
       <c r="AA38" s="12" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AB38" s="12">
         <v>2</v>
@@ -9672,7 +9681,7 @@
       </c>
       <c r="AU38" s="14"/>
       <c r="AV38" s="12" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AW38" s="12" t="s">
         <v>199</v>
@@ -9681,10 +9690,10 @@
         <v>209</v>
       </c>
       <c r="AY38" s="12" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
-    <row r="39" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
         <v>477</v>
       </c>
@@ -9758,7 +9767,7 @@
         <v>80</v>
       </c>
       <c r="AA39" s="12" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AB39" s="12">
         <v>2</v>
@@ -9797,7 +9806,7 @@
         <v>176</v>
       </c>
       <c r="AV39" s="12" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AW39" s="12" t="s">
         <v>199</v>
@@ -9806,10 +9815,10 @@
         <v>209</v>
       </c>
       <c r="AY39" s="12" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
-    <row r="40" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
         <v>477</v>
       </c>
@@ -9883,7 +9892,7 @@
         <v>80</v>
       </c>
       <c r="AA40" s="12" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AB40" s="12">
         <v>2</v>
@@ -9922,7 +9931,7 @@
         <v>176</v>
       </c>
       <c r="AV40" s="12" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AW40" s="12" t="s">
         <v>199</v>
@@ -9931,10 +9940,10 @@
         <v>209</v>
       </c>
       <c r="AY40" s="12" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
-    <row r="41" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
         <v>477</v>
       </c>
@@ -10008,7 +10017,7 @@
         <v>80</v>
       </c>
       <c r="AA41" s="12" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AB41" s="12">
         <v>2</v>
@@ -10047,7 +10056,7 @@
         <v>176</v>
       </c>
       <c r="AV41" s="12" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AW41" s="12" t="s">
         <v>199</v>
@@ -10056,10 +10065,10 @@
         <v>209</v>
       </c>
       <c r="AY41" s="12" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
-    <row r="42" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
         <v>477</v>
       </c>
@@ -10133,10 +10142,10 @@
         <v>216</v>
       </c>
       <c r="Z42" s="12" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AA42" s="12" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AB42" s="12">
         <v>2</v>
@@ -10166,13 +10175,13 @@
         <v>134</v>
       </c>
       <c r="AM42" s="14" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AN42" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AP42" s="12" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AR42" s="12" t="s">
         <v>164</v>
@@ -10184,10 +10193,10 @@
         <v>176</v>
       </c>
       <c r="AU42" s="12" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AV42" s="12" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="AW42" s="12" t="s">
         <v>199</v>
@@ -10196,10 +10205,10 @@
         <v>208</v>
       </c>
       <c r="AY42" s="12" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
-    <row r="43" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
         <v>477</v>
       </c>
@@ -10273,10 +10282,10 @@
         <v>216</v>
       </c>
       <c r="Z43" s="12" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AA43" s="12" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AB43" s="12">
         <v>2</v>
@@ -10306,13 +10315,13 @@
         <v>134</v>
       </c>
       <c r="AM43" s="14" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="AN43" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AP43" s="12" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AR43" s="12" t="s">
         <v>164</v>
@@ -10324,10 +10333,10 @@
         <v>176</v>
       </c>
       <c r="AU43" s="12" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AV43" s="12" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="AW43" s="12" t="s">
         <v>199</v>
@@ -10336,10 +10345,10 @@
         <v>207</v>
       </c>
       <c r="AY43" s="12" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
-    <row r="44" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
         <v>477</v>
       </c>
@@ -10413,10 +10422,10 @@
         <v>216</v>
       </c>
       <c r="Z44" s="12" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AA44" s="12" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AB44" s="12">
         <v>2</v>
@@ -10449,7 +10458,7 @@
         <v>233</v>
       </c>
       <c r="AP44" s="12" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AR44" s="12" t="s">
         <v>164</v>
@@ -10461,10 +10470,10 @@
         <v>176</v>
       </c>
       <c r="AU44" s="12" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AV44" s="12" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="AW44" s="12" t="s">
         <v>205</v>
@@ -10473,10 +10482,10 @@
         <v>208</v>
       </c>
       <c r="AY44" s="12" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
-    <row r="45" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="12" t="s">
         <v>477</v>
       </c>
@@ -10550,10 +10559,10 @@
         <v>216</v>
       </c>
       <c r="Z45" s="12" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AA45" s="12" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AB45" s="12">
         <v>2</v>
@@ -10583,13 +10592,13 @@
         <v>134</v>
       </c>
       <c r="AM45" s="14" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="AN45" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AP45" s="12" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AR45" s="12" t="s">
         <v>164</v>
@@ -10601,10 +10610,10 @@
         <v>176</v>
       </c>
       <c r="AU45" s="12" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AV45" s="12" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="AW45" s="12" t="s">
         <v>199</v>
@@ -10613,10 +10622,10 @@
         <v>208</v>
       </c>
       <c r="AY45" s="12" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
-    <row r="46" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="12" t="s">
         <v>477</v>
       </c>
@@ -10690,10 +10699,10 @@
         <v>216</v>
       </c>
       <c r="Z46" s="12" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AA46" s="12" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AB46" s="12">
         <v>2</v>
@@ -10723,13 +10732,13 @@
         <v>141</v>
       </c>
       <c r="AM46" s="14" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AN46" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AP46" s="12" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AR46" s="12" t="s">
         <v>164</v>
@@ -10741,10 +10750,10 @@
         <v>176</v>
       </c>
       <c r="AU46" s="12" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AV46" s="12" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="AW46" s="12" t="s">
         <v>199</v>
@@ -10753,10 +10762,10 @@
         <v>208</v>
       </c>
       <c r="AY46" s="12" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
-    <row r="47" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="12" t="s">
         <v>477</v>
       </c>
@@ -10830,10 +10839,10 @@
         <v>216</v>
       </c>
       <c r="Z47" s="12" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AA47" s="12" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AB47" s="12">
         <v>2</v>
@@ -10863,13 +10872,13 @@
         <v>141</v>
       </c>
       <c r="AM47" s="14" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="AN47" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AP47" s="12" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AR47" s="12" t="s">
         <v>164</v>
@@ -10881,10 +10890,10 @@
         <v>176</v>
       </c>
       <c r="AU47" s="12" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AV47" s="12" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="AW47" s="12" t="s">
         <v>199</v>
@@ -10893,10 +10902,10 @@
         <v>207</v>
       </c>
       <c r="AY47" s="12" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
-    <row r="48" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="12" t="s">
         <v>477</v>
       </c>
@@ -10970,10 +10979,10 @@
         <v>216</v>
       </c>
       <c r="Z48" s="12" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AA48" s="12" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AB48" s="12">
         <v>2</v>
@@ -11006,7 +11015,7 @@
         <v>233</v>
       </c>
       <c r="AP48" s="12" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AR48" s="12" t="s">
         <v>164</v>
@@ -11018,10 +11027,10 @@
         <v>176</v>
       </c>
       <c r="AU48" s="12" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AV48" s="12" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="AW48" s="12" t="s">
         <v>205</v>
@@ -11030,10 +11039,10 @@
         <v>208</v>
       </c>
       <c r="AY48" s="12" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
-    <row r="49" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="12" t="s">
         <v>477</v>
       </c>
@@ -11107,10 +11116,10 @@
         <v>216</v>
       </c>
       <c r="Z49" s="12" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AA49" s="12" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AB49" s="12">
         <v>2</v>
@@ -11140,13 +11149,13 @@
         <v>141</v>
       </c>
       <c r="AM49" s="14" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="AN49" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AP49" s="12" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AR49" s="12" t="s">
         <v>164</v>
@@ -11158,10 +11167,10 @@
         <v>176</v>
       </c>
       <c r="AU49" s="12" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AV49" s="12" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="AW49" s="12" t="s">
         <v>199</v>
@@ -11170,10 +11179,10 @@
         <v>208</v>
       </c>
       <c r="AY49" s="12" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
-    <row r="50" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="12" t="s">
         <v>477</v>
       </c>
@@ -11247,10 +11256,10 @@
         <v>216</v>
       </c>
       <c r="Z50" s="12" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AA50" s="12" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AB50" s="12">
         <v>2</v>
@@ -11280,13 +11289,13 @@
         <v>146</v>
       </c>
       <c r="AM50" s="14" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AN50" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AP50" s="12" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AR50" s="12" t="s">
         <v>164</v>
@@ -11298,10 +11307,10 @@
         <v>176</v>
       </c>
       <c r="AU50" s="12" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AV50" s="12" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="AW50" s="12" t="s">
         <v>199</v>
@@ -11310,10 +11319,10 @@
         <v>208</v>
       </c>
       <c r="AY50" s="12" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
-    <row r="51" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="12" t="s">
         <v>477</v>
       </c>
@@ -11387,10 +11396,10 @@
         <v>216</v>
       </c>
       <c r="Z51" s="12" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AA51" s="12" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AB51" s="12">
         <v>2</v>
@@ -11420,13 +11429,13 @@
         <v>146</v>
       </c>
       <c r="AM51" s="14" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="AN51" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AP51" s="12" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AR51" s="12" t="s">
         <v>164</v>
@@ -11438,10 +11447,10 @@
         <v>176</v>
       </c>
       <c r="AU51" s="12" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AV51" s="12" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="AW51" s="12" t="s">
         <v>199</v>
@@ -11450,10 +11459,10 @@
         <v>207</v>
       </c>
       <c r="AY51" s="12" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
-    <row r="52" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="12" t="s">
         <v>477</v>
       </c>
@@ -11527,10 +11536,10 @@
         <v>216</v>
       </c>
       <c r="Z52" s="12" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AA52" s="12" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AB52" s="12">
         <v>2</v>
@@ -11563,7 +11572,7 @@
         <v>233</v>
       </c>
       <c r="AP52" s="12" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AR52" s="12" t="s">
         <v>164</v>
@@ -11575,10 +11584,10 @@
         <v>176</v>
       </c>
       <c r="AU52" s="12" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AV52" s="12" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="AW52" s="12" t="s">
         <v>205</v>
@@ -11587,10 +11596,10 @@
         <v>208</v>
       </c>
       <c r="AY52" s="12" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
-    <row r="53" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="12" t="s">
         <v>477</v>
       </c>
@@ -11664,10 +11673,10 @@
         <v>216</v>
       </c>
       <c r="Z53" s="12" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AA53" s="12" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AB53" s="12">
         <v>2</v>
@@ -11697,13 +11706,13 @@
         <v>146</v>
       </c>
       <c r="AM53" s="14" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="AN53" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AP53" s="12" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AR53" s="12" t="s">
         <v>164</v>
@@ -11715,10 +11724,10 @@
         <v>176</v>
       </c>
       <c r="AU53" s="12" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AV53" s="12" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="AW53" s="12" t="s">
         <v>199</v>
@@ -11727,10 +11736,10 @@
         <v>208</v>
       </c>
       <c r="AY53" s="12" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
-    <row r="54" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="12" t="s">
         <v>477</v>
       </c>
@@ -11804,7 +11813,7 @@
         <v>216</v>
       </c>
       <c r="AA54" s="12" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AB54" s="12">
         <v>2</v>
@@ -11855,7 +11864,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="55" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="12" t="s">
         <v>477</v>
       </c>
@@ -11929,7 +11938,7 @@
         <v>80</v>
       </c>
       <c r="AA55" s="12" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AB55" s="12">
         <v>2</v>
@@ -11980,7 +11989,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="56" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="12" t="s">
         <v>477</v>
       </c>
@@ -12054,7 +12063,7 @@
         <v>216</v>
       </c>
       <c r="AA56" s="12" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="AB56" s="12">
         <v>2</v>
@@ -12075,13 +12084,13 @@
         <v>116</v>
       </c>
       <c r="AM56" s="14" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="AN56" s="12" t="s">
         <v>159</v>
       </c>
       <c r="AP56" s="12" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="AR56" s="12" t="s">
         <v>164</v>
@@ -12090,7 +12099,7 @@
         <v>239</v>
       </c>
       <c r="AV56" s="12" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="AW56" s="12" t="s">
         <v>203</v>
@@ -12099,10 +12108,10 @@
         <v>207</v>
       </c>
       <c r="AY56" s="12" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
-    <row r="57" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="12" t="s">
         <v>477</v>
       </c>
@@ -12176,7 +12185,7 @@
         <v>216</v>
       </c>
       <c r="AA57" s="12" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="AB57" s="12">
         <v>2</v>
@@ -12197,13 +12206,13 @@
         <v>116</v>
       </c>
       <c r="AM57" s="14" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="AN57" s="12" t="s">
         <v>159</v>
       </c>
       <c r="AP57" s="12" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="AR57" s="12" t="s">
         <v>164</v>
@@ -12215,7 +12224,7 @@
         <v>181</v>
       </c>
       <c r="AV57" s="12" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="AW57" s="12" t="s">
         <v>203</v>
@@ -12224,10 +12233,10 @@
         <v>207</v>
       </c>
       <c r="AY57" s="12" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
-    <row r="58" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="12" t="s">
         <v>477</v>
       </c>
@@ -12355,13 +12364,13 @@
         <v>238</v>
       </c>
       <c r="AX58" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AY58" s="12" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="59" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="12" t="s">
         <v>477</v>
       </c>
@@ -12480,13 +12489,13 @@
         <v>238</v>
       </c>
       <c r="AX59" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AY59" s="12" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="60" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="12" t="s">
         <v>477</v>
       </c>
@@ -12599,7 +12608,7 @@
         <v>197</v>
       </c>
       <c r="AV60" s="12" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="AW60" s="12" t="s">
         <v>199</v>
@@ -12608,7 +12617,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="61" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="12" t="s">
         <v>477</v>
       </c>
@@ -12721,7 +12730,7 @@
         <v>170</v>
       </c>
       <c r="AV61" s="12" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="AW61" s="12" t="s">
         <v>199</v>
@@ -12730,7 +12739,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="62" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="12" t="s">
         <v>477</v>
       </c>
@@ -12858,7 +12867,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="63" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="12" t="s">
         <v>477</v>
       </c>
@@ -12983,7 +12992,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="64" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="12" t="s">
         <v>477</v>
       </c>
@@ -13054,7 +13063,7 @@
         <v>69</v>
       </c>
       <c r="AA64" s="12" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="AB64" s="12">
         <v>2</v>
@@ -13075,13 +13084,13 @@
         <v>116</v>
       </c>
       <c r="AM64" s="14" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="AN64" s="12" t="s">
         <v>159</v>
       </c>
       <c r="AP64" s="12" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="AR64" s="12" t="s">
         <v>164</v>
@@ -13093,7 +13102,7 @@
         <v>176</v>
       </c>
       <c r="AV64" s="12" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="AW64" s="12" t="s">
         <v>203</v>
@@ -13102,10 +13111,10 @@
         <v>207</v>
       </c>
       <c r="AY64" s="12" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
-    <row r="65" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="12" t="s">
         <v>477</v>
       </c>
@@ -13176,7 +13185,7 @@
         <v>69</v>
       </c>
       <c r="AA65" s="12" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="AB65" s="12">
         <v>2</v>
@@ -13197,13 +13206,13 @@
         <v>116</v>
       </c>
       <c r="AM65" s="14" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="AN65" s="12" t="s">
         <v>159</v>
       </c>
       <c r="AP65" s="12" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="AR65" s="12" t="s">
         <v>164</v>
@@ -13215,7 +13224,7 @@
         <v>181</v>
       </c>
       <c r="AV65" s="12" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="AW65" s="12" t="s">
         <v>203</v>
@@ -13224,10 +13233,10 @@
         <v>207</v>
       </c>
       <c r="AY65" s="12" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
-    <row r="66" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="12" t="s">
         <v>477</v>
       </c>
@@ -13301,7 +13310,7 @@
         <v>216</v>
       </c>
       <c r="AA66" s="12" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="AB66" s="12">
         <v>2</v>
@@ -13328,7 +13337,7 @@
         <v>233</v>
       </c>
       <c r="AP66" s="12" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="AR66" s="12" t="s">
         <v>164</v>
@@ -13340,19 +13349,19 @@
         <v>176</v>
       </c>
       <c r="AV66" s="12" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AW66" s="12" t="s">
         <v>238</v>
       </c>
       <c r="AX66" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AY66" s="12" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
-    <row r="67" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="12" t="s">
         <v>477</v>
       </c>
@@ -13426,7 +13435,7 @@
         <v>215</v>
       </c>
       <c r="AA67" s="12" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AB67" s="12">
         <v>2</v>
@@ -13474,13 +13483,13 @@
         <v>238</v>
       </c>
       <c r="AX67" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AY67" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
-    <row r="68" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="12" t="s">
         <v>477</v>
       </c>
@@ -13554,7 +13563,7 @@
         <v>215</v>
       </c>
       <c r="AA68" s="12" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AB68" s="12">
         <v>2</v>
@@ -13596,93 +13605,93 @@
         <v>518</v>
       </c>
       <c r="AV68" s="12" t="s">
-        <v>520</v>
+        <v>623</v>
       </c>
       <c r="AW68" s="12" t="s">
         <v>199</v>
       </c>
       <c r="AX68" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AY68" s="12" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
-    <row r="69" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="12" t="s">
         <v>477</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="C69" s="13" t="s">
         <v>242</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="F69" s="13">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>443</v>
+        <v>256</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>311</v>
+        <v>273</v>
       </c>
       <c r="I69" s="13" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="J69" s="13" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="K69" s="13" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="L69" s="13" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="M69" s="13" t="s">
         <v>244</v>
       </c>
       <c r="N69" s="13" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="O69" s="13" t="s">
         <v>245</v>
       </c>
       <c r="P69" s="13" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="Q69" s="13" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="R69" s="13" t="s">
         <v>21</v>
       </c>
       <c r="T69" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U69" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V69" s="12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="W69" s="12" t="s">
         <v>43</v>
       </c>
       <c r="X69" s="12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Y69" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AA69" s="12" t="s">
-        <v>501</v>
+        <v>528</v>
       </c>
       <c r="AB69" s="12">
         <v>2</v>
@@ -13694,25 +13703,22 @@
         <v>3</v>
       </c>
       <c r="AG69" s="13" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="AH69" s="12" t="s">
         <v>110</v>
       </c>
       <c r="AI69" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="AJ69" s="12" t="s">
-        <v>139</v>
+        <v>120</v>
+      </c>
+      <c r="AL69" s="12" t="s">
+        <v>141</v>
       </c>
       <c r="AN69" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="AO69" s="12" t="s">
-        <v>162</v>
+        <v>233</v>
       </c>
       <c r="AP69" s="12" t="s">
-        <v>480</v>
+        <v>514</v>
       </c>
       <c r="AR69" s="12" t="s">
         <v>164</v>
@@ -13720,20 +13726,26 @@
       <c r="AS69" s="12" t="s">
         <v>239</v>
       </c>
+      <c r="AT69" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="AU69" s="14" t="s">
+        <v>518</v>
+      </c>
       <c r="AV69" s="12" t="s">
-        <v>530</v>
+        <v>624</v>
       </c>
       <c r="AW69" s="12" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AX69" s="12" t="s">
         <v>208</v>
       </c>
       <c r="AY69" s="12" t="s">
-        <v>510</v>
+        <v>533</v>
       </c>
     </row>
-    <row r="70" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="12" t="s">
         <v>477</v>
       </c>
@@ -13828,7 +13840,7 @@
         <v>220</v>
       </c>
       <c r="AJ70" s="12" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="AN70" s="12" t="s">
         <v>232</v>
@@ -13846,7 +13858,7 @@
         <v>239</v>
       </c>
       <c r="AV70" s="12" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AW70" s="12" t="s">
         <v>199</v>
@@ -13858,7 +13870,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="71" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="12" t="s">
         <v>477</v>
       </c>
@@ -13953,7 +13965,7 @@
         <v>220</v>
       </c>
       <c r="AJ71" s="12" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="AN71" s="12" t="s">
         <v>232</v>
@@ -13971,7 +13983,7 @@
         <v>239</v>
       </c>
       <c r="AV71" s="12" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AW71" s="12" t="s">
         <v>199</v>
@@ -13983,48 +13995,48 @@
         <v>510</v>
       </c>
     </row>
-    <row r="72" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="12" t="s">
         <v>477</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="C72" s="13" t="s">
         <v>242</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="F72" s="13">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>256</v>
+        <v>443</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>451</v>
+        <v>311</v>
       </c>
       <c r="I72" s="13" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="J72" s="13" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="K72" s="13" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="L72" s="13" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="M72" s="13" t="s">
         <v>244</v>
       </c>
       <c r="N72" s="13" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="O72" s="13" t="s">
         <v>245</v>
@@ -14039,16 +14051,19 @@
         <v>21</v>
       </c>
       <c r="T72" s="12" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="U72" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="V72" s="12" t="s">
-        <v>54</v>
+        <v>59</v>
+      </c>
+      <c r="W72" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="X72" s="12" t="s">
-        <v>214</v>
+        <v>55</v>
       </c>
       <c r="Y72" s="12" t="s">
         <v>216</v>
@@ -14066,28 +14081,25 @@
         <v>3</v>
       </c>
       <c r="AG72" s="13" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="AH72" s="12" t="s">
         <v>110</v>
       </c>
       <c r="AI72" s="12" t="s">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="AJ72" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="AL72" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="AM72" s="14" t="s">
-        <v>511</v>
+        <v>145</v>
       </c>
       <c r="AN72" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AO72" s="12" t="s">
+        <v>162</v>
       </c>
       <c r="AP72" s="12" t="s">
-        <v>514</v>
+        <v>480</v>
       </c>
       <c r="AR72" s="12" t="s">
         <v>164</v>
@@ -14095,64 +14107,61 @@
       <c r="AS72" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="AT72" s="12" t="s">
-        <v>176</v>
-      </c>
       <c r="AV72" s="12" t="s">
-        <v>512</v>
+        <v>529</v>
       </c>
       <c r="AW72" s="12" t="s">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="AX72" s="12" t="s">
         <v>208</v>
       </c>
       <c r="AY72" s="12" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
-    <row r="73" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="12" t="s">
         <v>477</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="C73" s="13" t="s">
         <v>242</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="F73" s="13">
-        <v>1976</v>
+        <v>1994</v>
       </c>
       <c r="G73" s="13" t="s">
         <v>256</v>
       </c>
       <c r="H73" s="13" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="I73" s="13" t="s">
         <v>251</v>
       </c>
       <c r="J73" s="13" t="s">
-        <v>372</v>
+        <v>452</v>
       </c>
       <c r="K73" s="13" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="L73" s="13" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="M73" s="13" t="s">
         <v>244</v>
       </c>
       <c r="N73" s="13" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="O73" s="13" t="s">
         <v>245</v>
@@ -14173,16 +14182,16 @@
         <v>46</v>
       </c>
       <c r="V73" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
+      </c>
+      <c r="X73" s="12" t="s">
+        <v>214</v>
       </c>
       <c r="Y73" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z73" s="12" t="s">
-        <v>609</v>
+        <v>216</v>
       </c>
       <c r="AA73" s="12" t="s">
-        <v>611</v>
+        <v>501</v>
       </c>
       <c r="AB73" s="12">
         <v>2</v>
@@ -14191,28 +14200,31 @@
         <v>2</v>
       </c>
       <c r="AD73" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG73" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AH73" s="12" t="s">
         <v>110</v>
       </c>
       <c r="AI73" s="12" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AJ73" s="12" t="s">
-        <v>130</v>
+        <v>140</v>
+      </c>
+      <c r="AL73" s="12" t="s">
+        <v>150</v>
       </c>
       <c r="AM73" s="14" t="s">
-        <v>602</v>
+        <v>511</v>
       </c>
       <c r="AN73" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AP73" s="12" t="s">
-        <v>612</v>
+        <v>514</v>
       </c>
       <c r="AR73" s="12" t="s">
         <v>164</v>
@@ -14224,42 +14236,42 @@
         <v>176</v>
       </c>
       <c r="AV73" s="12" t="s">
-        <v>610</v>
+        <v>512</v>
       </c>
       <c r="AW73" s="12" t="s">
-        <v>200</v>
+        <v>113</v>
       </c>
       <c r="AX73" s="12" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AY73" s="12" t="s">
-        <v>613</v>
+        <v>513</v>
       </c>
     </row>
-    <row r="74" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="12" t="s">
         <v>477</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="C74" s="13" t="s">
         <v>242</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="F74" s="13">
-        <v>2006</v>
+        <v>1976</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="I74" s="13" t="s">
         <v>251</v>
@@ -14268,16 +14280,16 @@
         <v>372</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>328</v>
+        <v>460</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="M74" s="13" t="s">
         <v>244</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="O74" s="13" t="s">
         <v>245</v>
@@ -14292,22 +14304,22 @@
         <v>21</v>
       </c>
       <c r="T74" s="12" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="U74" s="12" t="s">
         <v>46</v>
       </c>
       <c r="V74" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="X74" s="12" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Y74" s="12" t="s">
-        <v>215</v>
+        <v>113</v>
+      </c>
+      <c r="Z74" s="12" t="s">
+        <v>607</v>
       </c>
       <c r="AA74" s="12" t="s">
-        <v>594</v>
+        <v>609</v>
       </c>
       <c r="AB74" s="12">
         <v>2</v>
@@ -14316,22 +14328,28 @@
         <v>2</v>
       </c>
       <c r="AD74" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG74" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AH74" s="12" t="s">
         <v>110</v>
       </c>
       <c r="AI74" s="12" t="s">
-        <v>220</v>
+        <v>117</v>
+      </c>
+      <c r="AJ74" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM74" s="14" t="s">
+        <v>600</v>
       </c>
       <c r="AN74" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AP74" s="12" t="s">
-        <v>595</v>
+        <v>610</v>
       </c>
       <c r="AR74" s="12" t="s">
         <v>164</v>
@@ -14339,20 +14357,23 @@
       <c r="AS74" s="12" t="s">
         <v>239</v>
       </c>
+      <c r="AT74" s="12" t="s">
+        <v>176</v>
+      </c>
       <c r="AV74" s="12" t="s">
-        <v>598</v>
+        <v>608</v>
       </c>
       <c r="AW74" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AX74" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AY74" s="12" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
     </row>
-    <row r="75" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="12" t="s">
         <v>477</v>
       </c>
@@ -14423,7 +14444,7 @@
         <v>215</v>
       </c>
       <c r="AA75" s="12" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="AB75" s="12">
         <v>2</v>
@@ -14447,7 +14468,7 @@
         <v>232</v>
       </c>
       <c r="AP75" s="12" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="AR75" s="12" t="s">
         <v>164</v>
@@ -14456,19 +14477,19 @@
         <v>239</v>
       </c>
       <c r="AV75" s="12" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="AW75" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AX75" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AY75" s="12" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
-    <row r="76" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="12" t="s">
         <v>477</v>
       </c>
@@ -14539,7 +14560,7 @@
         <v>215</v>
       </c>
       <c r="AA76" s="12" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="AB76" s="12">
         <v>2</v>
@@ -14563,7 +14584,7 @@
         <v>232</v>
       </c>
       <c r="AP76" s="12" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="AR76" s="12" t="s">
         <v>164</v>
@@ -14572,19 +14593,19 @@
         <v>239</v>
       </c>
       <c r="AV76" s="12" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AW76" s="12" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="AX76" s="12" t="s">
         <v>209</v>
       </c>
       <c r="AY76" s="12" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
-    <row r="77" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="12" t="s">
         <v>477</v>
       </c>
@@ -14655,7 +14676,7 @@
         <v>215</v>
       </c>
       <c r="AA77" s="12" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="AB77" s="12">
         <v>2</v>
@@ -14673,16 +14694,13 @@
         <v>110</v>
       </c>
       <c r="AI77" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ77" s="12" t="s">
-        <v>144</v>
+        <v>220</v>
       </c>
       <c r="AN77" s="12" t="s">
         <v>232</v>
       </c>
       <c r="AP77" s="12" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="AR77" s="12" t="s">
         <v>164</v>
@@ -14691,19 +14709,19 @@
         <v>239</v>
       </c>
       <c r="AV77" s="12" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="AW77" s="12" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="AX77" s="12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AY77" s="12" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
     </row>
-    <row r="78" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="12" t="s">
         <v>477</v>
       </c>
@@ -14774,7 +14792,7 @@
         <v>215</v>
       </c>
       <c r="AA78" s="12" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="AB78" s="12">
         <v>2</v>
@@ -14801,7 +14819,7 @@
         <v>232</v>
       </c>
       <c r="AP78" s="12" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="AR78" s="12" t="s">
         <v>164</v>
@@ -14810,19 +14828,19 @@
         <v>239</v>
       </c>
       <c r="AV78" s="12" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="AW78" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AX78" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AY78" s="12" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
-    <row r="79" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="12" t="s">
         <v>477</v>
       </c>
@@ -14893,7 +14911,7 @@
         <v>215</v>
       </c>
       <c r="AA79" s="12" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="AB79" s="12">
         <v>2</v>
@@ -14920,7 +14938,7 @@
         <v>232</v>
       </c>
       <c r="AP79" s="12" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="AR79" s="12" t="s">
         <v>164</v>
@@ -14929,58 +14947,60 @@
         <v>239</v>
       </c>
       <c r="AV79" s="12" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AW79" s="12" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="AX79" s="12" t="s">
         <v>209</v>
       </c>
       <c r="AY79" s="12" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
-    <row r="80" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="12" t="s">
         <v>477</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="C80" s="13" t="s">
         <v>242</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="E80" s="13" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="F80" s="13">
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="G80" s="13" t="s">
-        <v>466</v>
+        <v>243</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="I80" s="13"/>
+        <v>472</v>
+      </c>
+      <c r="I80" s="13" t="s">
+        <v>251</v>
+      </c>
       <c r="J80" s="13" t="s">
-        <v>251</v>
+        <v>372</v>
       </c>
       <c r="K80" s="13" t="s">
-        <v>257</v>
+        <v>328</v>
       </c>
       <c r="L80" s="13" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="M80" s="13" t="s">
         <v>244</v>
       </c>
       <c r="N80" s="13" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="O80" s="13" t="s">
         <v>245</v>
@@ -14988,21 +15008,20 @@
       <c r="P80" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="Q80" s="13"/>
+      <c r="Q80" s="13" t="s">
+        <v>244</v>
+      </c>
       <c r="R80" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T80" s="12" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="U80" s="12" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="V80" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="W80" s="12" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="X80" s="12" t="s">
         <v>55</v>
@@ -15011,7 +15030,7 @@
         <v>215</v>
       </c>
       <c r="AA80" s="12" t="s">
-        <v>527</v>
+        <v>592</v>
       </c>
       <c r="AB80" s="12">
         <v>2</v>
@@ -15023,28 +15042,22 @@
         <v>3</v>
       </c>
       <c r="AG80" s="13" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AH80" s="12" t="s">
         <v>110</v>
       </c>
       <c r="AI80" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AJ80" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="AL80" s="12" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AN80" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="AO80" s="12" t="s">
-        <v>160</v>
-      </c>
       <c r="AP80" s="12" t="s">
-        <v>480</v>
+        <v>593</v>
       </c>
       <c r="AR80" s="12" t="s">
         <v>164</v>
@@ -15052,23 +15065,20 @@
       <c r="AS80" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="AT80" s="12" t="s">
-        <v>176</v>
-      </c>
       <c r="AV80" s="12" t="s">
-        <v>499</v>
+        <v>595</v>
       </c>
       <c r="AW80" s="12" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="AX80" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AY80" s="12" t="s">
-        <v>500</v>
+        <v>594</v>
       </c>
     </row>
-    <row r="81" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="12" t="s">
         <v>477</v>
       </c>
@@ -15138,7 +15148,7 @@
         <v>215</v>
       </c>
       <c r="AA81" s="12" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AB81" s="12">
         <v>2</v>
@@ -15150,13 +15160,19 @@
         <v>3</v>
       </c>
       <c r="AG81" s="13" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="AH81" s="12" t="s">
         <v>110</v>
       </c>
       <c r="AI81" s="12" t="s">
-        <v>117</v>
+        <v>120</v>
+      </c>
+      <c r="AJ81" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL81" s="12" t="s">
+        <v>141</v>
       </c>
       <c r="AN81" s="12" t="s">
         <v>232</v>
@@ -15189,9 +15205,130 @@
         <v>500</v>
       </c>
     </row>
+    <row r="82" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>463</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="D82" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="F82" s="13">
+        <v>2012</v>
+      </c>
+      <c r="G82" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="H82" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="I82" s="13"/>
+      <c r="J82" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="K82" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="L82" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="M82" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="N82" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="O82" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="P82" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q82" s="13"/>
+      <c r="R82" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="T82" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="U82" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="V82" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="W82" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="X82" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y82" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA82" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="AB82" s="12">
+        <v>2</v>
+      </c>
+      <c r="AC82" s="12">
+        <v>2</v>
+      </c>
+      <c r="AD82" s="12">
+        <v>3</v>
+      </c>
+      <c r="AG82" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="AH82" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI82" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="AN82" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="AO82" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="AP82" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="AR82" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="AS82" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="AT82" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="AV82" s="12" t="s">
+        <v>499</v>
+      </c>
+      <c r="AW82" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="AX82" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="AY82" s="12" t="s">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AY81">
-    <sortCondition ref="B2:B81"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AY82">
+    <sortCondition ref="B2:B82"/>
   </sortState>
   <mergeCells count="7">
     <mergeCell ref="AR1:AU1"/>
@@ -15225,13 +15362,13 @@
           <x14:formula1>
             <xm:f>Validation!$R$3:$R$9</xm:f>
           </x14:formula1>
-          <xm:sqref>S82:S1048576 AG3:AG81</xm:sqref>
+          <xm:sqref>S83:S1048576 AG3:AG82</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FD092EEC-9635-4A23-B39A-38C3C681ED3E}">
           <x14:formula1>
             <xm:f>Validation!$AK$3:$AK$7</xm:f>
           </x14:formula1>
-          <xm:sqref>AM59 AL63:AL1048576 AL3:AL58</xm:sqref>
+          <xm:sqref>AM59 AL3:AL58 AL63:AL1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{16FDFCD7-4CD9-4F70-9E07-7559EBA53348}">
           <x14:formula1>
@@ -15325,17 +15462,17 @@
       <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="19" max="19" width="32.21875" customWidth="1"/>
-    <col min="23" max="23" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.1796875" customWidth="1"/>
+    <col min="23" max="23" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="25" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="25" customWidth="1"/>
-    <col min="32" max="32" width="14.77734375" customWidth="1"/>
-    <col min="33" max="33" width="26.21875" customWidth="1"/>
+    <col min="32" max="32" width="14.81640625" customWidth="1"/>
+    <col min="33" max="33" width="26.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
         <v>11</v>
       </c>
@@ -15401,7 +15538,7 @@
       <c r="AW1" s="9"/>
       <c r="AX1" s="9"/>
     </row>
-    <row r="2" spans="1:50" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:50" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -15553,7 +15690,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
       <c r="Q3" t="s">
         <v>21</v>
       </c>
@@ -15610,7 +15747,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
       <c r="Q4" t="s">
         <v>22</v>
       </c>
@@ -15667,7 +15804,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R5" t="s">
         <v>83</v>
       </c>
@@ -15723,7 +15860,7 @@
       </c>
       <c r="AX5" s="8"/>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R6" t="s">
         <v>84</v>
       </c>
@@ -15768,7 +15905,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R7" t="s">
         <v>85</v>
       </c>
@@ -15810,7 +15947,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R8" t="s">
         <v>86</v>
       </c>
@@ -15848,7 +15985,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R9" t="s">
         <v>87</v>
       </c>
@@ -15883,7 +16020,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S10" t="s">
         <v>33</v>
       </c>
@@ -15915,7 +16052,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S11" t="s">
         <v>32</v>
       </c>
@@ -15950,7 +16087,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S12" t="s">
         <v>30</v>
       </c>
@@ -15982,7 +16119,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S13" t="s">
         <v>79</v>
       </c>
@@ -16017,7 +16154,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S14" t="s">
         <v>31</v>
       </c>
@@ -16046,7 +16183,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S15" t="s">
         <v>35</v>
       </c>
@@ -16075,7 +16212,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S16" t="s">
         <v>34</v>
       </c>
@@ -16095,7 +16232,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="17" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AM17" t="s">
         <v>162</v>
       </c>
@@ -16103,22 +16240,22 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="18" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AQ18" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="19" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AQ19" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="22" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH22" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="23" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH23" s="6" t="s">
         <v>115</v>
       </c>
@@ -16153,7 +16290,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="24" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH24" t="s">
         <v>129</v>
       </c>
@@ -16179,7 +16316,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="25" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH25" t="s">
         <v>137</v>
       </c>
@@ -16202,7 +16339,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="26" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="26" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AJ26" t="s">
         <v>144</v>
       </c>
@@ -16213,7 +16350,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="27" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AJ27" t="s">
         <v>147</v>
       </c>
@@ -16224,7 +16361,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="28" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AJ28" t="s">
         <v>149</v>
       </c>
@@ -16232,12 +16369,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="29" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AQ29" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="30" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH30" s="5" t="s">
         <v>151</v>
       </c>
@@ -16260,7 +16397,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="31" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="31" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH31" s="6" t="s">
         <v>129</v>
       </c>
@@ -16286,7 +16423,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="32" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="32" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH32" t="s">
         <v>153</v>
       </c>
@@ -16312,7 +16449,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="34:51" x14ac:dyDescent="0.3">
+    <row r="33" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AH33" t="s">
         <v>155</v>
       </c>
@@ -16332,7 +16469,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="34:51" x14ac:dyDescent="0.3">
+    <row r="34" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AI34" t="s">
         <v>157</v>
       </c>
@@ -16347,7 +16484,7 @@
       </c>
       <c r="AY34" s="7"/>
     </row>
-    <row r="35" spans="34:51" x14ac:dyDescent="0.3">
+    <row r="35" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AI35" t="s">
         <v>113</v>
       </c>
@@ -16361,7 +16498,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="34:51" x14ac:dyDescent="0.3">
+    <row r="36" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AU36" t="s">
         <v>211</v>
       </c>
@@ -16369,10 +16506,10 @@
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="34:51" x14ac:dyDescent="0.3">
+    <row r="37" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AL37" s="5"/>
     </row>
-    <row r="38" spans="34:51" x14ac:dyDescent="0.3">
+    <row r="38" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AL38" s="6"/>
       <c r="AM38" s="6"/>
       <c r="AN38" s="6"/>
@@ -16400,38 +16537,38 @@
       <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" customWidth="1"/>
-    <col min="9" max="9" width="17.21875" customWidth="1"/>
-    <col min="10" max="10" width="14.77734375" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.54296875" customWidth="1"/>
+    <col min="9" max="9" width="17.1796875" customWidth="1"/>
+    <col min="10" max="10" width="14.81640625" customWidth="1"/>
+    <col min="13" max="13" width="14.453125" customWidth="1"/>
     <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.5546875" customWidth="1"/>
-    <col min="17" max="17" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.77734375" customWidth="1"/>
-    <col min="19" max="19" width="17.77734375" customWidth="1"/>
-    <col min="20" max="20" width="19.21875" customWidth="1"/>
-    <col min="21" max="21" width="17.77734375" customWidth="1"/>
-    <col min="22" max="22" width="18.77734375" customWidth="1"/>
-    <col min="26" max="26" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.54296875" customWidth="1"/>
+    <col min="17" max="17" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.81640625" customWidth="1"/>
+    <col min="19" max="19" width="17.81640625" customWidth="1"/>
+    <col min="20" max="20" width="19.1796875" customWidth="1"/>
+    <col min="21" max="21" width="17.81640625" customWidth="1"/>
+    <col min="22" max="22" width="18.81640625" customWidth="1"/>
+    <col min="26" max="26" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.44140625" customWidth="1"/>
-    <col min="30" max="30" width="15.21875" customWidth="1"/>
-    <col min="31" max="31" width="26.21875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.77734375" customWidth="1"/>
-    <col min="33" max="33" width="12.5546875" customWidth="1"/>
+    <col min="28" max="28" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.453125" customWidth="1"/>
+    <col min="30" max="30" width="15.1796875" customWidth="1"/>
+    <col min="31" max="31" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.81640625" customWidth="1"/>
+    <col min="33" max="33" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" s="21" t="s">
         <v>12</v>
       </c>
@@ -16478,7 +16615,7 @@
       <c r="AF1" s="17"/>
       <c r="AG1" s="17"/>
     </row>
-    <row r="2" spans="1:33" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
@@ -16579,7 +16716,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -16645,7 +16782,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -16696,7 +16833,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -16750,7 +16887,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -16792,7 +16929,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -16837,7 +16974,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -16875,7 +17012,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -16913,7 +17050,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>33</v>
       </c>
@@ -16948,7 +17085,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>32</v>
       </c>
@@ -16980,7 +17117,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>30</v>
       </c>
@@ -17012,7 +17149,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>79</v>
       </c>
@@ -17041,7 +17178,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>31</v>
       </c>
@@ -17064,7 +17201,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>35</v>
       </c>
@@ -17090,7 +17227,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>34</v>
       </c>
@@ -17107,7 +17244,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q17" t="s">
         <v>119</v>
       </c>
@@ -17118,7 +17255,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q18" t="s">
         <v>120</v>
       </c>
@@ -17132,7 +17269,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R19" t="s">
         <v>152</v>
       </c>
@@ -17146,7 +17283,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="17:28" x14ac:dyDescent="0.35">
       <c r="S20" t="s">
         <v>156</v>
       </c>
@@ -17157,7 +17294,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="17:28" x14ac:dyDescent="0.35">
       <c r="S21" t="s">
         <v>228</v>
       </c>
@@ -17171,7 +17308,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="17:28" x14ac:dyDescent="0.35">
       <c r="S22" t="s">
         <v>113</v>
       </c>
@@ -17182,7 +17319,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q23" t="s">
         <v>127</v>
       </c>
@@ -17196,7 +17333,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R24" t="s">
         <v>141</v>
       </c>
@@ -17204,7 +17341,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R25" t="s">
         <v>146</v>
       </c>
@@ -17212,7 +17349,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R26" t="s">
         <v>148</v>
       </c>
@@ -17220,7 +17357,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R27" t="s">
         <v>150</v>
       </c>
@@ -17234,7 +17371,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q28" t="s">
         <v>122</v>
       </c>
@@ -17245,7 +17382,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="29" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R29" t="s">
         <v>142</v>
       </c>
@@ -17256,7 +17393,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="30" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q30" t="s">
         <v>123</v>
       </c>
@@ -17267,7 +17404,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="31" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R31" t="s">
         <v>143</v>
       </c>
@@ -17275,7 +17412,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="32" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q32" t="s">
         <v>128</v>
       </c>
@@ -17283,12 +17420,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="26:26" x14ac:dyDescent="0.3">
+    <row r="33" spans="26:26" x14ac:dyDescent="0.35">
       <c r="Z33" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="34" spans="26:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="26:26" x14ac:dyDescent="0.35">
       <c r="Z34" t="s">
         <v>150</v>
       </c>
@@ -17463,14 +17600,14 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Festjens.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Festjens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210715B7-48FB-4E96-8AA0-DF38459364A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585B0784-F37C-454B-882C-106DF2642AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4291,12 +4291,6 @@
     <t xml:space="preserve">mean number of fishing days per year </t>
   </si>
   <si>
-    <t>Results indicate that abundance, species composition and size-structure of the fish community in th heaviest trawled area are different from the other two areas. Results show how fishing can substantially shape the fish communities in the three areas.</t>
-  </si>
-  <si>
-    <t>abundance _ species composition _ size-s</t>
-  </si>
-  <si>
     <t xml:space="preserve">abundance </t>
   </si>
   <si>
@@ -4417,6 +4411,12 @@
   </si>
   <si>
     <t>Total species _ species richness _ Shannon's diversity _ evenness</t>
+  </si>
+  <si>
+    <t>Results indicate that abundance, species composition and size-structure of the fish community in the heaviest trawled area are different from the other two areas. Results show how fishing can substantially shape the fish communities in the three areas.</t>
+  </si>
+  <si>
+    <t>abundance _ species composition _ size-structure</t>
   </si>
 </sst>
 </file>
@@ -4924,10 +4924,10 @@
   <dimension ref="A1:AY82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AK3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AL3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AW85" sqref="AW85"/>
+      <selection pane="bottomRight" activeCell="AQ77" sqref="AQ77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5499,7 +5499,7 @@
         <v>113</v>
       </c>
       <c r="Z5" s="12" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="AA5" s="12" t="s">
         <v>520</v>
@@ -5621,7 +5621,7 @@
         <v>113</v>
       </c>
       <c r="Z6" s="12" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="AA6" s="12" t="s">
         <v>520</v>
@@ -5740,7 +5740,7 @@
         <v>113</v>
       </c>
       <c r="Z7" s="12" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="AA7" s="12" t="s">
         <v>520</v>
@@ -5853,7 +5853,7 @@
         <v>113</v>
       </c>
       <c r="Z8" s="12" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="AA8" s="12" t="s">
         <v>520</v>
@@ -5996,7 +5996,7 @@
         <v>134</v>
       </c>
       <c r="AM9" s="12" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="AN9" s="12" t="s">
         <v>232</v>
@@ -6127,7 +6127,7 @@
         <v>134</v>
       </c>
       <c r="AM10" s="12" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="AN10" s="12" t="s">
         <v>232</v>
@@ -6258,7 +6258,7 @@
         <v>134</v>
       </c>
       <c r="AM11" s="12" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="AN11" s="12" t="s">
         <v>232</v>
@@ -6901,7 +6901,7 @@
         <v>480</v>
       </c>
       <c r="AQ16" s="12" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AR16" s="12" t="s">
         <v>164</v>
@@ -7682,7 +7682,7 @@
         <v>239</v>
       </c>
       <c r="AV22" s="12" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="AW22" s="12" t="s">
         <v>199</v>
@@ -7798,7 +7798,7 @@
         <v>240</v>
       </c>
       <c r="AV23" s="12" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="AW23" s="12" t="s">
         <v>199</v>
@@ -7917,7 +7917,7 @@
         <v>181</v>
       </c>
       <c r="AV24" s="12" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="AW24" s="12" t="s">
         <v>199</v>
@@ -7997,7 +7997,7 @@
         <v>80</v>
       </c>
       <c r="AA25" s="12" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="AB25" s="12">
         <v>2</v>
@@ -8030,7 +8030,7 @@
         <v>239</v>
       </c>
       <c r="AV25" s="12" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="AW25" s="12" t="s">
         <v>199</v>
@@ -8039,7 +8039,7 @@
         <v>209</v>
       </c>
       <c r="AY25" s="12" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="26" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -9180,7 +9180,7 @@
       </c>
       <c r="AU34" s="14"/>
       <c r="AV34" s="12" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="AW34" s="12" t="s">
         <v>204</v>
@@ -9189,7 +9189,7 @@
         <v>209</v>
       </c>
       <c r="AY34" s="12" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="35" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -9305,7 +9305,7 @@
         <v>176</v>
       </c>
       <c r="AV35" s="12" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="AW35" s="12" t="s">
         <v>204</v>
@@ -9314,7 +9314,7 @@
         <v>209</v>
       </c>
       <c r="AY35" s="12" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="36" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -9430,7 +9430,7 @@
         <v>176</v>
       </c>
       <c r="AV36" s="12" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="AW36" s="12" t="s">
         <v>204</v>
@@ -9439,7 +9439,7 @@
         <v>209</v>
       </c>
       <c r="AY36" s="12" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="37" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -9555,7 +9555,7 @@
         <v>176</v>
       </c>
       <c r="AV37" s="12" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="AW37" s="12" t="s">
         <v>204</v>
@@ -9564,7 +9564,7 @@
         <v>209</v>
       </c>
       <c r="AY37" s="12" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="38" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -9681,7 +9681,7 @@
       </c>
       <c r="AU38" s="14"/>
       <c r="AV38" s="12" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="AW38" s="12" t="s">
         <v>199</v>
@@ -9690,7 +9690,7 @@
         <v>209</v>
       </c>
       <c r="AY38" s="12" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="39" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -9806,7 +9806,7 @@
         <v>176</v>
       </c>
       <c r="AV39" s="12" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="AW39" s="12" t="s">
         <v>199</v>
@@ -9815,7 +9815,7 @@
         <v>209</v>
       </c>
       <c r="AY39" s="12" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="40" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -9931,7 +9931,7 @@
         <v>176</v>
       </c>
       <c r="AV40" s="12" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="AW40" s="12" t="s">
         <v>199</v>
@@ -9940,7 +9940,7 @@
         <v>209</v>
       </c>
       <c r="AY40" s="12" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="41" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -10056,7 +10056,7 @@
         <v>176</v>
       </c>
       <c r="AV41" s="12" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="AW41" s="12" t="s">
         <v>199</v>
@@ -10065,7 +10065,7 @@
         <v>209</v>
       </c>
       <c r="AY41" s="12" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="42" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -12608,7 +12608,7 @@
         <v>197</v>
       </c>
       <c r="AV60" s="12" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="AW60" s="12" t="s">
         <v>199</v>
@@ -12730,7 +12730,7 @@
         <v>170</v>
       </c>
       <c r="AV61" s="12" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="AW61" s="12" t="s">
         <v>199</v>
@@ -13063,7 +13063,7 @@
         <v>69</v>
       </c>
       <c r="AA64" s="12" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="AB64" s="12">
         <v>2</v>
@@ -13111,7 +13111,7 @@
         <v>207</v>
       </c>
       <c r="AY64" s="12" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="65" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -13185,7 +13185,7 @@
         <v>69</v>
       </c>
       <c r="AA65" s="12" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="AB65" s="12">
         <v>2</v>
@@ -13233,7 +13233,7 @@
         <v>207</v>
       </c>
       <c r="AY65" s="12" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="66" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -13310,7 +13310,7 @@
         <v>216</v>
       </c>
       <c r="AA66" s="12" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="AB66" s="12">
         <v>2</v>
@@ -13337,7 +13337,7 @@
         <v>233</v>
       </c>
       <c r="AP66" s="12" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="AR66" s="12" t="s">
         <v>164</v>
@@ -13349,7 +13349,7 @@
         <v>176</v>
       </c>
       <c r="AV66" s="12" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="AW66" s="12" t="s">
         <v>238</v>
@@ -13358,7 +13358,7 @@
         <v>207</v>
       </c>
       <c r="AY66" s="12" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="67" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -13605,7 +13605,7 @@
         <v>518</v>
       </c>
       <c r="AV68" s="12" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="AW68" s="12" t="s">
         <v>199</v>
@@ -13733,7 +13733,7 @@
         <v>518</v>
       </c>
       <c r="AV69" s="12" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="AW69" s="12" t="s">
         <v>205</v>
@@ -14316,10 +14316,10 @@
         <v>113</v>
       </c>
       <c r="Z74" s="12" t="s">
+        <v>605</v>
+      </c>
+      <c r="AA74" s="12" t="s">
         <v>607</v>
-      </c>
-      <c r="AA74" s="12" t="s">
-        <v>609</v>
       </c>
       <c r="AB74" s="12">
         <v>2</v>
@@ -14343,13 +14343,13 @@
         <v>130</v>
       </c>
       <c r="AM74" s="14" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="AN74" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AP74" s="12" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="AR74" s="12" t="s">
         <v>164</v>
@@ -14361,7 +14361,7 @@
         <v>176</v>
       </c>
       <c r="AV74" s="12" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="AW74" s="12" t="s">
         <v>200</v>
@@ -14370,7 +14370,7 @@
         <v>207</v>
       </c>
       <c r="AY74" s="12" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="75" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -14477,7 +14477,7 @@
         <v>239</v>
       </c>
       <c r="AV75" s="12" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="AW75" s="12" t="s">
         <v>199</v>
@@ -14486,7 +14486,7 @@
         <v>208</v>
       </c>
       <c r="AY75" s="12" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="76" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -14593,7 +14593,7 @@
         <v>239</v>
       </c>
       <c r="AV76" s="12" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="AW76" s="12" t="s">
         <v>200</v>
@@ -14602,7 +14602,7 @@
         <v>209</v>
       </c>
       <c r="AY76" s="12" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="77" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -14709,7 +14709,7 @@
         <v>239</v>
       </c>
       <c r="AV77" s="12" t="s">
-        <v>595</v>
+        <v>624</v>
       </c>
       <c r="AW77" s="12" t="s">
         <v>206</v>
@@ -14718,7 +14718,7 @@
         <v>209</v>
       </c>
       <c r="AY77" s="12" t="s">
-        <v>594</v>
+        <v>623</v>
       </c>
     </row>
     <row r="78" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -14828,7 +14828,7 @@
         <v>239</v>
       </c>
       <c r="AV78" s="12" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="AW78" s="12" t="s">
         <v>199</v>
@@ -14837,7 +14837,7 @@
         <v>208</v>
       </c>
       <c r="AY78" s="12" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="79" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -14947,7 +14947,7 @@
         <v>239</v>
       </c>
       <c r="AV79" s="12" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="AW79" s="12" t="s">
         <v>200</v>
@@ -14956,7 +14956,7 @@
         <v>209</v>
       </c>
       <c r="AY79" s="12" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="80" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -15066,7 +15066,7 @@
         <v>239</v>
       </c>
       <c r="AV80" s="12" t="s">
-        <v>595</v>
+        <v>624</v>
       </c>
       <c r="AW80" s="12" t="s">
         <v>206</v>
@@ -15075,7 +15075,7 @@
         <v>209</v>
       </c>
       <c r="AY80" s="12" t="s">
-        <v>594</v>
+        <v>623</v>
       </c>
     </row>
     <row r="81" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -17454,6 +17454,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abe771af6212f3f785694fa6f4ad1686">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -17567,12 +17573,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>
@@ -17582,6 +17582,21 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296C6747-B437-4BFD-90D3-AF1F913D3FA0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17595,19 +17610,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Festjens.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Festjens.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585B0784-F37C-454B-882C-106DF2642AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB8CDF6-529F-4184-8880-3EC90196F132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -4927,7 +4927,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="AL3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AQ77" sqref="AQ77"/>
+      <selection pane="bottomRight" activeCell="AX86" sqref="AX86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12861,7 +12861,7 @@
         <v>213</v>
       </c>
       <c r="AX62" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AY62" s="12" t="s">
         <v>515</v>
@@ -12986,7 +12986,7 @@
         <v>213</v>
       </c>
       <c r="AX63" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AY63" s="12" t="s">
         <v>515</v>
@@ -14242,7 +14242,7 @@
         <v>113</v>
       </c>
       <c r="AX73" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AY73" s="12" t="s">
         <v>513</v>
@@ -17445,21 +17445,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abe771af6212f3f785694fa6f4ad1686">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -17573,30 +17558,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296C6747-B437-4BFD-90D3-AF1F913D3FA0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17610,4 +17587,27 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Festjens.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Festjens.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB8CDF6-529F-4184-8880-3EC90196F132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FDE82F-ECFF-4276-B6E1-02A2616CF411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -2388,7 +2388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3609" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3611" uniqueCount="625">
   <si>
     <t>SearchID</t>
   </si>
@@ -4252,9 +4252,6 @@
     <t>discarded/marketed ratios _ size spectra plots _ diversity indices _ mean trophic level</t>
   </si>
   <si>
-    <t>A declining trend with time was observed for the examined time-series for species richness (S), Margalef’s d, and average taxonomic distinctness (D+), whereas the variation in taxonomic distinctness (L+) increased. These changes could be attributed to alternative discarding strategies for certain species in response to increased cumulative fishing mortality towards the end of the period.</t>
-  </si>
-  <si>
     <t>Ecopath and Ecosim (EwE) _ Automatic Mass Balance Procedure</t>
   </si>
   <si>
@@ -4417,6 +4414,9 @@
   </si>
   <si>
     <t>abundance _ species composition _ size-structure</t>
+  </si>
+  <si>
+    <t>The composition and/or trophic level of discards in relation to the marketed catch seemed to be indicative of the exploitation state of the demersal community. A declining trend with time was observed for the examined time-series for species richness (S), Margalef’s d, and average taxonomic distinctness (D+), whereas the variation in taxonomic distinctness (L+) increased. These changes could be attributed to alternative discarding strategies for certain species in response to increased cumulative fishing mortality towards the end of the period.</t>
   </si>
 </sst>
 </file>
@@ -4924,10 +4924,10 @@
   <dimension ref="A1:AY82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AL3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AX86" sqref="AX86"/>
+      <selection pane="bottomRight" activeCell="AU87" sqref="AU87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5499,7 +5499,7 @@
         <v>113</v>
       </c>
       <c r="Z5" s="12" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AA5" s="12" t="s">
         <v>520</v>
@@ -5621,7 +5621,7 @@
         <v>113</v>
       </c>
       <c r="Z6" s="12" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AA6" s="12" t="s">
         <v>520</v>
@@ -5740,7 +5740,7 @@
         <v>113</v>
       </c>
       <c r="Z7" s="12" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AA7" s="12" t="s">
         <v>520</v>
@@ -5853,7 +5853,7 @@
         <v>113</v>
       </c>
       <c r="Z8" s="12" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AA8" s="12" t="s">
         <v>520</v>
@@ -5996,7 +5996,7 @@
         <v>134</v>
       </c>
       <c r="AM9" s="12" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AN9" s="12" t="s">
         <v>232</v>
@@ -6127,7 +6127,7 @@
         <v>134</v>
       </c>
       <c r="AM10" s="12" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AN10" s="12" t="s">
         <v>232</v>
@@ -6258,7 +6258,7 @@
         <v>134</v>
       </c>
       <c r="AM11" s="12" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AN11" s="12" t="s">
         <v>232</v>
@@ -6901,7 +6901,7 @@
         <v>480</v>
       </c>
       <c r="AQ16" s="12" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AR16" s="12" t="s">
         <v>164</v>
@@ -6914,7 +6914,7 @@
       </c>
       <c r="AU16" s="14"/>
       <c r="AV16" s="12" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AW16" s="12" t="s">
         <v>238</v>
@@ -7428,6 +7428,9 @@
       <c r="AN20" s="12" t="s">
         <v>232</v>
       </c>
+      <c r="AO20" s="12" t="s">
+        <v>161</v>
+      </c>
       <c r="AP20" s="12" t="s">
         <v>567</v>
       </c>
@@ -7453,7 +7456,7 @@
         <v>208</v>
       </c>
       <c r="AY20" s="12" t="s">
-        <v>581</v>
+        <v>624</v>
       </c>
     </row>
     <row r="21" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -7550,6 +7553,9 @@
       <c r="AN21" s="12" t="s">
         <v>232</v>
       </c>
+      <c r="AO21" s="12" t="s">
+        <v>161</v>
+      </c>
       <c r="AP21" s="12" t="s">
         <v>567</v>
       </c>
@@ -7575,7 +7581,7 @@
         <v>207</v>
       </c>
       <c r="AY21" s="12" t="s">
-        <v>581</v>
+        <v>624</v>
       </c>
     </row>
     <row r="22" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -7646,10 +7652,10 @@
         <v>113</v>
       </c>
       <c r="Z22" s="12" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AA22" s="12" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AB22" s="12">
         <v>2</v>
@@ -7673,7 +7679,7 @@
         <v>232</v>
       </c>
       <c r="AP22" s="12" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AR22" s="12" t="s">
         <v>164</v>
@@ -7682,7 +7688,7 @@
         <v>239</v>
       </c>
       <c r="AV22" s="12" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AW22" s="12" t="s">
         <v>199</v>
@@ -7762,10 +7768,10 @@
         <v>113</v>
       </c>
       <c r="Z23" s="12" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AA23" s="12" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AB23" s="12">
         <v>2</v>
@@ -7789,7 +7795,7 @@
         <v>232</v>
       </c>
       <c r="AP23" s="12" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AR23" s="12" t="s">
         <v>164</v>
@@ -7798,7 +7804,7 @@
         <v>240</v>
       </c>
       <c r="AV23" s="12" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AW23" s="12" t="s">
         <v>199</v>
@@ -7878,10 +7884,10 @@
         <v>113</v>
       </c>
       <c r="Z24" s="12" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AA24" s="12" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AB24" s="12">
         <v>2</v>
@@ -7905,7 +7911,7 @@
         <v>232</v>
       </c>
       <c r="AP24" s="12" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AR24" s="12" t="s">
         <v>164</v>
@@ -7917,7 +7923,7 @@
         <v>181</v>
       </c>
       <c r="AV24" s="12" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AW24" s="12" t="s">
         <v>199</v>
@@ -7997,7 +8003,7 @@
         <v>80</v>
       </c>
       <c r="AA25" s="12" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AB25" s="12">
         <v>2</v>
@@ -8030,7 +8036,7 @@
         <v>239</v>
       </c>
       <c r="AV25" s="12" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AW25" s="12" t="s">
         <v>199</v>
@@ -8039,7 +8045,7 @@
         <v>209</v>
       </c>
       <c r="AY25" s="12" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="26" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -9180,7 +9186,7 @@
       </c>
       <c r="AU34" s="14"/>
       <c r="AV34" s="12" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AW34" s="12" t="s">
         <v>204</v>
@@ -9189,7 +9195,7 @@
         <v>209</v>
       </c>
       <c r="AY34" s="12" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="35" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -9305,7 +9311,7 @@
         <v>176</v>
       </c>
       <c r="AV35" s="12" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AW35" s="12" t="s">
         <v>204</v>
@@ -9314,7 +9320,7 @@
         <v>209</v>
       </c>
       <c r="AY35" s="12" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="36" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -9430,7 +9436,7 @@
         <v>176</v>
       </c>
       <c r="AV36" s="12" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AW36" s="12" t="s">
         <v>204</v>
@@ -9439,7 +9445,7 @@
         <v>209</v>
       </c>
       <c r="AY36" s="12" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="37" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -9555,7 +9561,7 @@
         <v>176</v>
       </c>
       <c r="AV37" s="12" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AW37" s="12" t="s">
         <v>204</v>
@@ -9564,7 +9570,7 @@
         <v>209</v>
       </c>
       <c r="AY37" s="12" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="38" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -9681,7 +9687,7 @@
       </c>
       <c r="AU38" s="14"/>
       <c r="AV38" s="12" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AW38" s="12" t="s">
         <v>199</v>
@@ -9690,7 +9696,7 @@
         <v>209</v>
       </c>
       <c r="AY38" s="12" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="39" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -9806,7 +9812,7 @@
         <v>176</v>
       </c>
       <c r="AV39" s="12" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AW39" s="12" t="s">
         <v>199</v>
@@ -9815,7 +9821,7 @@
         <v>209</v>
       </c>
       <c r="AY39" s="12" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="40" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -9931,7 +9937,7 @@
         <v>176</v>
       </c>
       <c r="AV40" s="12" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AW40" s="12" t="s">
         <v>199</v>
@@ -9940,7 +9946,7 @@
         <v>209</v>
       </c>
       <c r="AY40" s="12" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="41" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -10056,7 +10062,7 @@
         <v>176</v>
       </c>
       <c r="AV41" s="12" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AW41" s="12" t="s">
         <v>199</v>
@@ -10065,7 +10071,7 @@
         <v>209</v>
       </c>
       <c r="AY41" s="12" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="42" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -12063,7 +12069,7 @@
         <v>216</v>
       </c>
       <c r="AA56" s="12" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AB56" s="12">
         <v>2</v>
@@ -12084,13 +12090,13 @@
         <v>116</v>
       </c>
       <c r="AM56" s="14" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AN56" s="12" t="s">
         <v>159</v>
       </c>
       <c r="AP56" s="12" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AR56" s="12" t="s">
         <v>164</v>
@@ -12099,7 +12105,7 @@
         <v>239</v>
       </c>
       <c r="AV56" s="12" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AW56" s="12" t="s">
         <v>203</v>
@@ -12108,7 +12114,7 @@
         <v>207</v>
       </c>
       <c r="AY56" s="12" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="57" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -12185,7 +12191,7 @@
         <v>216</v>
       </c>
       <c r="AA57" s="12" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AB57" s="12">
         <v>2</v>
@@ -12206,13 +12212,13 @@
         <v>116</v>
       </c>
       <c r="AM57" s="14" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AN57" s="12" t="s">
         <v>159</v>
       </c>
       <c r="AP57" s="12" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AR57" s="12" t="s">
         <v>164</v>
@@ -12224,7 +12230,7 @@
         <v>181</v>
       </c>
       <c r="AV57" s="12" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AW57" s="12" t="s">
         <v>203</v>
@@ -12233,7 +12239,7 @@
         <v>207</v>
       </c>
       <c r="AY57" s="12" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="58" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -12608,7 +12614,7 @@
         <v>197</v>
       </c>
       <c r="AV60" s="12" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AW60" s="12" t="s">
         <v>199</v>
@@ -12730,7 +12736,7 @@
         <v>170</v>
       </c>
       <c r="AV61" s="12" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AW61" s="12" t="s">
         <v>199</v>
@@ -13063,7 +13069,7 @@
         <v>69</v>
       </c>
       <c r="AA64" s="12" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AB64" s="12">
         <v>2</v>
@@ -13084,13 +13090,13 @@
         <v>116</v>
       </c>
       <c r="AM64" s="14" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AN64" s="12" t="s">
         <v>159</v>
       </c>
       <c r="AP64" s="12" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AR64" s="12" t="s">
         <v>164</v>
@@ -13102,7 +13108,7 @@
         <v>176</v>
       </c>
       <c r="AV64" s="12" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AW64" s="12" t="s">
         <v>203</v>
@@ -13111,7 +13117,7 @@
         <v>207</v>
       </c>
       <c r="AY64" s="12" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="65" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -13185,7 +13191,7 @@
         <v>69</v>
       </c>
       <c r="AA65" s="12" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AB65" s="12">
         <v>2</v>
@@ -13206,13 +13212,13 @@
         <v>116</v>
       </c>
       <c r="AM65" s="14" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AN65" s="12" t="s">
         <v>159</v>
       </c>
       <c r="AP65" s="12" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AR65" s="12" t="s">
         <v>164</v>
@@ -13224,7 +13230,7 @@
         <v>181</v>
       </c>
       <c r="AV65" s="12" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AW65" s="12" t="s">
         <v>203</v>
@@ -13233,7 +13239,7 @@
         <v>207</v>
       </c>
       <c r="AY65" s="12" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="66" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -13310,7 +13316,7 @@
         <v>216</v>
       </c>
       <c r="AA66" s="12" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AB66" s="12">
         <v>2</v>
@@ -13337,7 +13343,7 @@
         <v>233</v>
       </c>
       <c r="AP66" s="12" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AR66" s="12" t="s">
         <v>164</v>
@@ -13349,7 +13355,7 @@
         <v>176</v>
       </c>
       <c r="AV66" s="12" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AW66" s="12" t="s">
         <v>238</v>
@@ -13358,7 +13364,7 @@
         <v>207</v>
       </c>
       <c r="AY66" s="12" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="67" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -13605,7 +13611,7 @@
         <v>518</v>
       </c>
       <c r="AV68" s="12" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AW68" s="12" t="s">
         <v>199</v>
@@ -13733,7 +13739,7 @@
         <v>518</v>
       </c>
       <c r="AV69" s="12" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AW69" s="12" t="s">
         <v>205</v>
@@ -14316,10 +14322,10 @@
         <v>113</v>
       </c>
       <c r="Z74" s="12" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AA74" s="12" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AB74" s="12">
         <v>2</v>
@@ -14343,13 +14349,13 @@
         <v>130</v>
       </c>
       <c r="AM74" s="14" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AN74" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AP74" s="12" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AR74" s="12" t="s">
         <v>164</v>
@@ -14361,7 +14367,7 @@
         <v>176</v>
       </c>
       <c r="AV74" s="12" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AW74" s="12" t="s">
         <v>200</v>
@@ -14370,7 +14376,7 @@
         <v>207</v>
       </c>
       <c r="AY74" s="12" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="75" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -14444,7 +14450,7 @@
         <v>215</v>
       </c>
       <c r="AA75" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AB75" s="12">
         <v>2</v>
@@ -14468,7 +14474,7 @@
         <v>232</v>
       </c>
       <c r="AP75" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AR75" s="12" t="s">
         <v>164</v>
@@ -14477,7 +14483,7 @@
         <v>239</v>
       </c>
       <c r="AV75" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AW75" s="12" t="s">
         <v>199</v>
@@ -14486,7 +14492,7 @@
         <v>208</v>
       </c>
       <c r="AY75" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="76" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -14560,7 +14566,7 @@
         <v>215</v>
       </c>
       <c r="AA76" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AB76" s="12">
         <v>2</v>
@@ -14584,7 +14590,7 @@
         <v>232</v>
       </c>
       <c r="AP76" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AR76" s="12" t="s">
         <v>164</v>
@@ -14593,7 +14599,7 @@
         <v>239</v>
       </c>
       <c r="AV76" s="12" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AW76" s="12" t="s">
         <v>200</v>
@@ -14602,7 +14608,7 @@
         <v>209</v>
       </c>
       <c r="AY76" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="77" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -14676,7 +14682,7 @@
         <v>215</v>
       </c>
       <c r="AA77" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AB77" s="12">
         <v>2</v>
@@ -14700,7 +14706,7 @@
         <v>232</v>
       </c>
       <c r="AP77" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AR77" s="12" t="s">
         <v>164</v>
@@ -14709,7 +14715,7 @@
         <v>239</v>
       </c>
       <c r="AV77" s="12" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AW77" s="12" t="s">
         <v>206</v>
@@ -14718,7 +14724,7 @@
         <v>209</v>
       </c>
       <c r="AY77" s="12" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="78" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -14792,7 +14798,7 @@
         <v>215</v>
       </c>
       <c r="AA78" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AB78" s="12">
         <v>2</v>
@@ -14819,7 +14825,7 @@
         <v>232</v>
       </c>
       <c r="AP78" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AR78" s="12" t="s">
         <v>164</v>
@@ -14828,7 +14834,7 @@
         <v>239</v>
       </c>
       <c r="AV78" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AW78" s="12" t="s">
         <v>199</v>
@@ -14837,7 +14843,7 @@
         <v>208</v>
       </c>
       <c r="AY78" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="79" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -14911,7 +14917,7 @@
         <v>215</v>
       </c>
       <c r="AA79" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AB79" s="12">
         <v>2</v>
@@ -14938,7 +14944,7 @@
         <v>232</v>
       </c>
       <c r="AP79" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AR79" s="12" t="s">
         <v>164</v>
@@ -14947,7 +14953,7 @@
         <v>239</v>
       </c>
       <c r="AV79" s="12" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AW79" s="12" t="s">
         <v>200</v>
@@ -14956,7 +14962,7 @@
         <v>209</v>
       </c>
       <c r="AY79" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="80" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -15030,7 +15036,7 @@
         <v>215</v>
       </c>
       <c r="AA80" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AB80" s="12">
         <v>2</v>
@@ -15057,7 +15063,7 @@
         <v>232</v>
       </c>
       <c r="AP80" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AR80" s="12" t="s">
         <v>164</v>
@@ -15066,7 +15072,7 @@
         <v>239</v>
       </c>
       <c r="AV80" s="12" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AW80" s="12" t="s">
         <v>206</v>
@@ -15075,7 +15081,7 @@
         <v>209</v>
       </c>
       <c r="AY80" s="12" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="81" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -17445,8 +17451,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abe771af6212f3f785694fa6f4ad1686">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="125e2131eddd38cce17ebc9527d7a9d7">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="553f2d8843fd2aa64b81f9e8c63a6619">
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -17558,23 +17573,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296C6747-B437-4BFD-90D3-AF1F913D3FA0}">
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDF5CC58-C8DC-4B0B-B85F-BEEEE1EBC9AF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -17589,25 +17603,17 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Festjens.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Festjens.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FDE82F-ECFF-4276-B6E1-02A2616CF411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70F9300-9B3C-40EA-B98A-8A05FEF3470A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -4261,9 +4261,6 @@
     <t>mortality rates</t>
   </si>
   <si>
-    <t>gross efficiency of the fishery</t>
-  </si>
-  <si>
     <t>Puffinus mauretanicus</t>
   </si>
   <si>
@@ -4417,6 +4414,9 @@
   </si>
   <si>
     <t>The composition and/or trophic level of discards in relation to the marketed catch seemed to be indicative of the exploitation state of the demersal community. A declining trend with time was observed for the examined time-series for species richness (S), Margalef’s d, and average taxonomic distinctness (D+), whereas the variation in taxonomic distinctness (L+) increased. These changes could be attributed to alternative discarding strategies for certain species in response to increased cumulative fishing mortality towards the end of the period.</t>
+  </si>
+  <si>
+    <t>fishing mortality</t>
   </si>
 </sst>
 </file>
@@ -4924,10 +4924,10 @@
   <dimension ref="A1:AY82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AL20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AU87" sqref="AU87"/>
+      <selection pane="bottomRight" activeCell="AR87" sqref="AR87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5499,7 +5499,7 @@
         <v>113</v>
       </c>
       <c r="Z5" s="12" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AA5" s="12" t="s">
         <v>520</v>
@@ -5621,7 +5621,7 @@
         <v>113</v>
       </c>
       <c r="Z6" s="12" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AA6" s="12" t="s">
         <v>520</v>
@@ -5740,7 +5740,7 @@
         <v>113</v>
       </c>
       <c r="Z7" s="12" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AA7" s="12" t="s">
         <v>520</v>
@@ -5853,7 +5853,7 @@
         <v>113</v>
       </c>
       <c r="Z8" s="12" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AA8" s="12" t="s">
         <v>520</v>
@@ -5996,7 +5996,7 @@
         <v>134</v>
       </c>
       <c r="AM9" s="12" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AN9" s="12" t="s">
         <v>232</v>
@@ -6127,7 +6127,7 @@
         <v>134</v>
       </c>
       <c r="AM10" s="12" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AN10" s="12" t="s">
         <v>232</v>
@@ -6258,7 +6258,7 @@
         <v>134</v>
       </c>
       <c r="AM11" s="12" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AN11" s="12" t="s">
         <v>232</v>
@@ -6901,7 +6901,7 @@
         <v>480</v>
       </c>
       <c r="AQ16" s="12" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AR16" s="12" t="s">
         <v>164</v>
@@ -7456,7 +7456,7 @@
         <v>208</v>
       </c>
       <c r="AY20" s="12" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="21" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -7581,7 +7581,7 @@
         <v>207</v>
       </c>
       <c r="AY21" s="12" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="22" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -7679,7 +7679,7 @@
         <v>232</v>
       </c>
       <c r="AP22" s="12" t="s">
-        <v>584</v>
+        <v>624</v>
       </c>
       <c r="AR22" s="12" t="s">
         <v>164</v>
@@ -7688,7 +7688,7 @@
         <v>239</v>
       </c>
       <c r="AV22" s="12" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AW22" s="12" t="s">
         <v>199</v>
@@ -7795,7 +7795,7 @@
         <v>232</v>
       </c>
       <c r="AP23" s="12" t="s">
-        <v>584</v>
+        <v>624</v>
       </c>
       <c r="AR23" s="12" t="s">
         <v>164</v>
@@ -7804,7 +7804,7 @@
         <v>240</v>
       </c>
       <c r="AV23" s="12" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AW23" s="12" t="s">
         <v>199</v>
@@ -7911,7 +7911,7 @@
         <v>232</v>
       </c>
       <c r="AP24" s="12" t="s">
-        <v>584</v>
+        <v>624</v>
       </c>
       <c r="AR24" s="12" t="s">
         <v>164</v>
@@ -7923,7 +7923,7 @@
         <v>181</v>
       </c>
       <c r="AV24" s="12" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AW24" s="12" t="s">
         <v>199</v>
@@ -8003,7 +8003,7 @@
         <v>80</v>
       </c>
       <c r="AA25" s="12" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AB25" s="12">
         <v>2</v>
@@ -8036,7 +8036,7 @@
         <v>239</v>
       </c>
       <c r="AV25" s="12" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AW25" s="12" t="s">
         <v>199</v>
@@ -8045,7 +8045,7 @@
         <v>209</v>
       </c>
       <c r="AY25" s="12" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="26" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -9186,7 +9186,7 @@
       </c>
       <c r="AU34" s="14"/>
       <c r="AV34" s="12" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AW34" s="12" t="s">
         <v>204</v>
@@ -9195,7 +9195,7 @@
         <v>209</v>
       </c>
       <c r="AY34" s="12" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="35" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -9311,7 +9311,7 @@
         <v>176</v>
       </c>
       <c r="AV35" s="12" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AW35" s="12" t="s">
         <v>204</v>
@@ -9320,7 +9320,7 @@
         <v>209</v>
       </c>
       <c r="AY35" s="12" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="36" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -9436,7 +9436,7 @@
         <v>176</v>
       </c>
       <c r="AV36" s="12" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AW36" s="12" t="s">
         <v>204</v>
@@ -9445,7 +9445,7 @@
         <v>209</v>
       </c>
       <c r="AY36" s="12" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="37" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -9561,7 +9561,7 @@
         <v>176</v>
       </c>
       <c r="AV37" s="12" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AW37" s="12" t="s">
         <v>204</v>
@@ -9570,7 +9570,7 @@
         <v>209</v>
       </c>
       <c r="AY37" s="12" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="38" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -9687,7 +9687,7 @@
       </c>
       <c r="AU38" s="14"/>
       <c r="AV38" s="12" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AW38" s="12" t="s">
         <v>199</v>
@@ -9696,7 +9696,7 @@
         <v>209</v>
       </c>
       <c r="AY38" s="12" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="39" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -9812,7 +9812,7 @@
         <v>176</v>
       </c>
       <c r="AV39" s="12" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AW39" s="12" t="s">
         <v>199</v>
@@ -9821,7 +9821,7 @@
         <v>209</v>
       </c>
       <c r="AY39" s="12" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="40" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -9937,7 +9937,7 @@
         <v>176</v>
       </c>
       <c r="AV40" s="12" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AW40" s="12" t="s">
         <v>199</v>
@@ -9946,7 +9946,7 @@
         <v>209</v>
       </c>
       <c r="AY40" s="12" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="41" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -10062,7 +10062,7 @@
         <v>176</v>
       </c>
       <c r="AV41" s="12" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AW41" s="12" t="s">
         <v>199</v>
@@ -10071,7 +10071,7 @@
         <v>209</v>
       </c>
       <c r="AY41" s="12" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="42" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -12069,7 +12069,7 @@
         <v>216</v>
       </c>
       <c r="AA56" s="12" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AB56" s="12">
         <v>2</v>
@@ -12090,13 +12090,13 @@
         <v>116</v>
       </c>
       <c r="AM56" s="14" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AN56" s="12" t="s">
         <v>159</v>
       </c>
       <c r="AP56" s="12" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AR56" s="12" t="s">
         <v>164</v>
@@ -12105,7 +12105,7 @@
         <v>239</v>
       </c>
       <c r="AV56" s="12" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AW56" s="12" t="s">
         <v>203</v>
@@ -12114,7 +12114,7 @@
         <v>207</v>
       </c>
       <c r="AY56" s="12" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="57" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -12191,7 +12191,7 @@
         <v>216</v>
       </c>
       <c r="AA57" s="12" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AB57" s="12">
         <v>2</v>
@@ -12212,13 +12212,13 @@
         <v>116</v>
       </c>
       <c r="AM57" s="14" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AN57" s="12" t="s">
         <v>159</v>
       </c>
       <c r="AP57" s="12" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AR57" s="12" t="s">
         <v>164</v>
@@ -12230,7 +12230,7 @@
         <v>181</v>
       </c>
       <c r="AV57" s="12" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AW57" s="12" t="s">
         <v>203</v>
@@ -12239,7 +12239,7 @@
         <v>207</v>
       </c>
       <c r="AY57" s="12" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="58" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -12614,7 +12614,7 @@
         <v>197</v>
       </c>
       <c r="AV60" s="12" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AW60" s="12" t="s">
         <v>199</v>
@@ -12736,7 +12736,7 @@
         <v>170</v>
       </c>
       <c r="AV61" s="12" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AW61" s="12" t="s">
         <v>199</v>
@@ -13069,7 +13069,7 @@
         <v>69</v>
       </c>
       <c r="AA64" s="12" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AB64" s="12">
         <v>2</v>
@@ -13090,13 +13090,13 @@
         <v>116</v>
       </c>
       <c r="AM64" s="14" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AN64" s="12" t="s">
         <v>159</v>
       </c>
       <c r="AP64" s="12" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AR64" s="12" t="s">
         <v>164</v>
@@ -13108,7 +13108,7 @@
         <v>176</v>
       </c>
       <c r="AV64" s="12" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AW64" s="12" t="s">
         <v>203</v>
@@ -13117,7 +13117,7 @@
         <v>207</v>
       </c>
       <c r="AY64" s="12" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="65" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -13191,7 +13191,7 @@
         <v>69</v>
       </c>
       <c r="AA65" s="12" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AB65" s="12">
         <v>2</v>
@@ -13212,13 +13212,13 @@
         <v>116</v>
       </c>
       <c r="AM65" s="14" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AN65" s="12" t="s">
         <v>159</v>
       </c>
       <c r="AP65" s="12" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AR65" s="12" t="s">
         <v>164</v>
@@ -13230,7 +13230,7 @@
         <v>181</v>
       </c>
       <c r="AV65" s="12" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AW65" s="12" t="s">
         <v>203</v>
@@ -13239,7 +13239,7 @@
         <v>207</v>
       </c>
       <c r="AY65" s="12" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="66" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -13316,7 +13316,7 @@
         <v>216</v>
       </c>
       <c r="AA66" s="12" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AB66" s="12">
         <v>2</v>
@@ -13343,7 +13343,7 @@
         <v>233</v>
       </c>
       <c r="AP66" s="12" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AR66" s="12" t="s">
         <v>164</v>
@@ -13355,7 +13355,7 @@
         <v>176</v>
       </c>
       <c r="AV66" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AW66" s="12" t="s">
         <v>238</v>
@@ -13364,7 +13364,7 @@
         <v>207</v>
       </c>
       <c r="AY66" s="12" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="67" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -13611,7 +13611,7 @@
         <v>518</v>
       </c>
       <c r="AV68" s="12" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AW68" s="12" t="s">
         <v>199</v>
@@ -13739,7 +13739,7 @@
         <v>518</v>
       </c>
       <c r="AV69" s="12" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AW69" s="12" t="s">
         <v>205</v>
@@ -14322,10 +14322,10 @@
         <v>113</v>
       </c>
       <c r="Z74" s="12" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AA74" s="12" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AB74" s="12">
         <v>2</v>
@@ -14349,13 +14349,13 @@
         <v>130</v>
       </c>
       <c r="AM74" s="14" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AN74" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AP74" s="12" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AR74" s="12" t="s">
         <v>164</v>
@@ -14367,7 +14367,7 @@
         <v>176</v>
       </c>
       <c r="AV74" s="12" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AW74" s="12" t="s">
         <v>200</v>
@@ -14376,7 +14376,7 @@
         <v>207</v>
       </c>
       <c r="AY74" s="12" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="75" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -14450,7 +14450,7 @@
         <v>215</v>
       </c>
       <c r="AA75" s="12" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AB75" s="12">
         <v>2</v>
@@ -14474,7 +14474,7 @@
         <v>232</v>
       </c>
       <c r="AP75" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AR75" s="12" t="s">
         <v>164</v>
@@ -14483,7 +14483,7 @@
         <v>239</v>
       </c>
       <c r="AV75" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AW75" s="12" t="s">
         <v>199</v>
@@ -14492,7 +14492,7 @@
         <v>208</v>
       </c>
       <c r="AY75" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="76" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -14566,7 +14566,7 @@
         <v>215</v>
       </c>
       <c r="AA76" s="12" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AB76" s="12">
         <v>2</v>
@@ -14590,7 +14590,7 @@
         <v>232</v>
       </c>
       <c r="AP76" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AR76" s="12" t="s">
         <v>164</v>
@@ -14599,7 +14599,7 @@
         <v>239</v>
       </c>
       <c r="AV76" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AW76" s="12" t="s">
         <v>200</v>
@@ -14608,7 +14608,7 @@
         <v>209</v>
       </c>
       <c r="AY76" s="12" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="77" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -14682,7 +14682,7 @@
         <v>215</v>
       </c>
       <c r="AA77" s="12" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AB77" s="12">
         <v>2</v>
@@ -14706,7 +14706,7 @@
         <v>232</v>
       </c>
       <c r="AP77" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AR77" s="12" t="s">
         <v>164</v>
@@ -14715,7 +14715,7 @@
         <v>239</v>
       </c>
       <c r="AV77" s="12" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AW77" s="12" t="s">
         <v>206</v>
@@ -14724,7 +14724,7 @@
         <v>209</v>
       </c>
       <c r="AY77" s="12" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="78" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -14798,7 +14798,7 @@
         <v>215</v>
       </c>
       <c r="AA78" s="12" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AB78" s="12">
         <v>2</v>
@@ -14825,7 +14825,7 @@
         <v>232</v>
       </c>
       <c r="AP78" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AR78" s="12" t="s">
         <v>164</v>
@@ -14834,7 +14834,7 @@
         <v>239</v>
       </c>
       <c r="AV78" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AW78" s="12" t="s">
         <v>199</v>
@@ -14843,7 +14843,7 @@
         <v>208</v>
       </c>
       <c r="AY78" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="79" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -14917,7 +14917,7 @@
         <v>215</v>
       </c>
       <c r="AA79" s="12" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AB79" s="12">
         <v>2</v>
@@ -14944,7 +14944,7 @@
         <v>232</v>
       </c>
       <c r="AP79" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AR79" s="12" t="s">
         <v>164</v>
@@ -14953,7 +14953,7 @@
         <v>239</v>
       </c>
       <c r="AV79" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AW79" s="12" t="s">
         <v>200</v>
@@ -14962,7 +14962,7 @@
         <v>209</v>
       </c>
       <c r="AY79" s="12" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="80" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -15036,7 +15036,7 @@
         <v>215</v>
       </c>
       <c r="AA80" s="12" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AB80" s="12">
         <v>2</v>
@@ -15063,7 +15063,7 @@
         <v>232</v>
       </c>
       <c r="AP80" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AR80" s="12" t="s">
         <v>164</v>
@@ -15072,7 +15072,7 @@
         <v>239</v>
       </c>
       <c r="AV80" s="12" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AW80" s="12" t="s">
         <v>206</v>
@@ -15081,7 +15081,7 @@
         <v>209</v>
       </c>
       <c r="AY80" s="12" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="81" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -17460,6 +17460,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="125e2131eddd38cce17ebc9527d7a9d7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="553f2d8843fd2aa64b81f9e8c63a6619">
     <xsd:element name="properties">
@@ -17573,12 +17579,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>
@@ -17588,6 +17588,21 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDF5CC58-C8DC-4B0B-B85F-BEEEE1EBC9AF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17601,19 +17616,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Festjens.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Festjens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3279EB6-C215-4F50-A494-622CD447BC5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8820F3C-1A05-4B5E-B763-856A6379D15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4925,10 +4925,10 @@
   <dimension ref="A1:AY82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AK58" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AU26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AO85" sqref="AO85"/>
+      <selection pane="bottomRight" activeCell="AW29" sqref="AW29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8552,7 +8552,7 @@
         <v>538</v>
       </c>
       <c r="AW29" s="11" t="s">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="AX29" s="11" t="s">
         <v>208</v>
@@ -8936,7 +8936,7 @@
         <v>538</v>
       </c>
       <c r="AW32" s="11" t="s">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="AX32" s="11" t="s">
         <v>210</v>
@@ -17463,6 +17463,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="125e2131eddd38cce17ebc9527d7a9d7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="553f2d8843fd2aa64b81f9e8c63a6619">
     <xsd:element name="properties">
@@ -17576,12 +17582,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>
@@ -17591,6 +17591,21 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDF5CC58-C8DC-4B0B-B85F-BEEEE1EBC9AF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17604,19 +17619,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Festjens.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Festjens.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8820F3C-1A05-4B5E-B763-856A6379D15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D1D2E4-42F0-46FE-B82A-2EF4B5B4609F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4650" yWindow="-21720" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Drop-down overview" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AY$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AY$83</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -2388,7 +2388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3612" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3651" uniqueCount="627">
   <si>
     <t>SearchID</t>
   </si>
@@ -3870,9 +3870,6 @@
 </t>
   </si>
   <si>
-    <t>bentic production</t>
-  </si>
-  <si>
     <t>trawling frequency</t>
   </si>
   <si>
@@ -3913,13 +3910,7 @@
     <t>Asterias rubens</t>
   </si>
   <si>
-    <t>litter ingestion</t>
-  </si>
-  <si>
     <t>least-square regresssion analysis</t>
-  </si>
-  <si>
-    <t>the volume of debris increased proportionally to the size of the turtles</t>
   </si>
   <si>
     <t>Overfishing with most fishing gears, but especially bottom trawls is responsible for their reduction</t>
@@ -4309,9 +4300,6 @@
     <t>Competition exists between the two gulls when exploiting fishing vessels, this varies in intensity according to the fishing fleet (diurnal trawlers vs nocturnal purse seiners). Trawling discards here are enough to meet the energy requirements of the local breeding community, which is probably exceptional. Also, these trawlers have  a very restricted timetable and well-established fishing grounds, discards being predictable in both time and space.</t>
   </si>
   <si>
-    <t>annual fishing mortality</t>
-  </si>
-  <si>
     <t>paired t-test on log transformed data</t>
   </si>
   <si>
@@ -4363,9 +4351,6 @@
     <t xml:space="preserve">biomass </t>
   </si>
   <si>
-    <t>presence of debris</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">decapods _ </t>
     </r>
@@ -4389,9 +4374,6 @@
 for the biomass state indicator were similar to those for the production indicator, but recovery generally took twice as long.</t>
   </si>
   <si>
-    <t>bentic biomass</t>
-  </si>
-  <si>
     <t>benthic production</t>
   </si>
   <si>
@@ -4420,6 +4402,27 @@
   </si>
   <si>
     <t>trawling</t>
+  </si>
+  <si>
+    <t>benthic biomass</t>
+  </si>
+  <si>
+    <t>Trawling</t>
+  </si>
+  <si>
+    <t>Otter trawl vs. beam trawl</t>
+  </si>
+  <si>
+    <t>Otter trawls and beam trawls were compared in one sandy location only, where mortalities of the same order of magnitude were obtained for most species. However, otter trawling clearly caused less mortality than beam trawling with several species (e.g., C. gallina, Dosinia lupinus, juvenile C. cassivelaunus) in silty areas (three test locations)</t>
+  </si>
+  <si>
+    <t>volume of ingested debris</t>
+  </si>
+  <si>
+    <t>Our analysis showed no lethal effect caused by the debris.</t>
+  </si>
+  <si>
+    <t>litter ingestion</t>
   </si>
 </sst>
 </file>
@@ -4922,13 +4925,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY82"/>
+  <dimension ref="A1:AY83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AU26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AH3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AW29" sqref="AW29"/>
+      <selection pane="bottomRight" activeCell="AP84" sqref="AP84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5286,7 +5289,7 @@
         <v>175</v>
       </c>
       <c r="AU3" s="13" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="AV3" s="11" t="s">
         <v>481</v>
@@ -5417,7 +5420,7 @@
         <v>175</v>
       </c>
       <c r="AU4" s="13" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="AV4" s="11" t="s">
         <v>481</v>
@@ -5500,10 +5503,10 @@
         <v>113</v>
       </c>
       <c r="Z5" s="11" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="AA5" s="11" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="AB5" s="11">
         <v>2</v>
@@ -5622,10 +5625,10 @@
         <v>113</v>
       </c>
       <c r="Z6" s="11" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="AA6" s="11" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="AB6" s="11">
         <v>2</v>
@@ -5649,7 +5652,7 @@
         <v>138</v>
       </c>
       <c r="AM6" s="13" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="AN6" s="11" t="s">
         <v>232</v>
@@ -5741,10 +5744,10 @@
         <v>113</v>
       </c>
       <c r="Z7" s="11" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="AA7" s="11" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="AB7" s="11">
         <v>2</v>
@@ -5854,10 +5857,10 @@
         <v>113</v>
       </c>
       <c r="Z8" s="11" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="AA8" s="11" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="AB8" s="11">
         <v>2</v>
@@ -5970,7 +5973,7 @@
         <v>216</v>
       </c>
       <c r="AA9" s="11" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="AB9" s="11">
         <v>2</v>
@@ -5997,7 +6000,7 @@
         <v>134</v>
       </c>
       <c r="AM9" s="11" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="AN9" s="11" t="s">
         <v>232</v>
@@ -6101,7 +6104,7 @@
         <v>216</v>
       </c>
       <c r="AA10" s="11" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="AB10" s="11">
         <v>2</v>
@@ -6128,7 +6131,7 @@
         <v>134</v>
       </c>
       <c r="AM10" s="11" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="AN10" s="11" t="s">
         <v>232</v>
@@ -6232,7 +6235,7 @@
         <v>216</v>
       </c>
       <c r="AA11" s="11" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="AB11" s="11">
         <v>2</v>
@@ -6259,7 +6262,7 @@
         <v>134</v>
       </c>
       <c r="AM11" s="11" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="AN11" s="11" t="s">
         <v>232</v>
@@ -6363,7 +6366,7 @@
         <v>216</v>
       </c>
       <c r="AA12" s="11" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="AB12" s="11">
         <v>2</v>
@@ -6485,7 +6488,7 @@
         <v>216</v>
       </c>
       <c r="AA13" s="11" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="AB13" s="11">
         <v>2</v>
@@ -6607,7 +6610,7 @@
         <v>216</v>
       </c>
       <c r="AA14" s="11" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="AB14" s="11">
         <v>2</v>
@@ -6732,7 +6735,7 @@
         <v>216</v>
       </c>
       <c r="AA15" s="11" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="AB15" s="11">
         <v>2</v>
@@ -6762,7 +6765,7 @@
         <v>233</v>
       </c>
       <c r="AP15" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AR15" s="11" t="s">
         <v>164</v>
@@ -6774,10 +6777,10 @@
         <v>176</v>
       </c>
       <c r="AU15" s="13" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="AV15" s="11" t="s">
-        <v>493</v>
+        <v>610</v>
       </c>
       <c r="AW15" s="11" t="s">
         <v>199</v>
@@ -6863,7 +6866,7 @@
         <v>216</v>
       </c>
       <c r="AA16" s="11" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="AB16" s="11">
         <v>2</v>
@@ -6890,7 +6893,7 @@
         <v>150</v>
       </c>
       <c r="AM16" s="13" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="AN16" s="11" t="s">
         <v>232</v>
@@ -6902,7 +6905,7 @@
         <v>480</v>
       </c>
       <c r="AQ16" s="11" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="AR16" s="11" t="s">
         <v>164</v>
@@ -6915,7 +6918,7 @@
       </c>
       <c r="AU16" s="13"/>
       <c r="AV16" s="11" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="AW16" s="11" t="s">
         <v>238</v>
@@ -6924,7 +6927,7 @@
         <v>209</v>
       </c>
       <c r="AY16" s="11" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="17" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -7001,7 +7004,7 @@
         <v>215</v>
       </c>
       <c r="AA17" s="11" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="AB17" s="11">
         <v>2</v>
@@ -7031,7 +7034,7 @@
         <v>150</v>
       </c>
       <c r="AM17" s="13" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="AN17" s="11" t="s">
         <v>232</v>
@@ -7040,7 +7043,7 @@
         <v>160</v>
       </c>
       <c r="AP17" s="11" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="AR17" s="11" t="s">
         <v>164</v>
@@ -7052,10 +7055,10 @@
         <v>175</v>
       </c>
       <c r="AU17" s="13" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="AV17" s="11" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="AW17" s="11" t="s">
         <v>199</v>
@@ -7064,7 +7067,7 @@
         <v>210</v>
       </c>
       <c r="AY17" s="11" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="18" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -7141,7 +7144,7 @@
         <v>215</v>
       </c>
       <c r="AA18" s="11" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="AB18" s="11">
         <v>2</v>
@@ -7165,7 +7168,7 @@
         <v>145</v>
       </c>
       <c r="AM18" s="13" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="AN18" s="11" t="s">
         <v>232</v>
@@ -7174,7 +7177,7 @@
         <v>160</v>
       </c>
       <c r="AP18" s="11" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="AR18" s="11" t="s">
         <v>164</v>
@@ -7186,10 +7189,10 @@
         <v>175</v>
       </c>
       <c r="AU18" s="13" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="AV18" s="11" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="AW18" s="11" t="s">
         <v>199</v>
@@ -7198,7 +7201,7 @@
         <v>208</v>
       </c>
       <c r="AY18" s="11" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="19" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -7275,7 +7278,7 @@
         <v>215</v>
       </c>
       <c r="AA19" s="11" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="AB19" s="11">
         <v>2</v>
@@ -7299,7 +7302,7 @@
         <v>144</v>
       </c>
       <c r="AM19" s="13" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="AN19" s="11" t="s">
         <v>232</v>
@@ -7308,7 +7311,7 @@
         <v>160</v>
       </c>
       <c r="AP19" s="11" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="AR19" s="11" t="s">
         <v>164</v>
@@ -7320,10 +7323,10 @@
         <v>175</v>
       </c>
       <c r="AU19" s="13" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="AV19" s="11" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="AW19" s="11" t="s">
         <v>199</v>
@@ -7332,7 +7335,7 @@
         <v>208</v>
       </c>
       <c r="AY19" s="11" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="20" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -7406,7 +7409,7 @@
         <v>69</v>
       </c>
       <c r="AA20" s="11" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="AB20" s="11">
         <v>2</v>
@@ -7433,7 +7436,7 @@
         <v>161</v>
       </c>
       <c r="AP20" s="11" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="AR20" s="11" t="s">
         <v>164</v>
@@ -7445,10 +7448,10 @@
         <v>175</v>
       </c>
       <c r="AU20" s="11" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="AV20" s="11" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="AW20" s="11" t="s">
         <v>205</v>
@@ -7457,7 +7460,7 @@
         <v>208</v>
       </c>
       <c r="AY20" s="11" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
     </row>
     <row r="21" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -7531,7 +7534,7 @@
         <v>69</v>
       </c>
       <c r="AA21" s="11" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="AB21" s="11">
         <v>2</v>
@@ -7558,7 +7561,7 @@
         <v>161</v>
       </c>
       <c r="AP21" s="11" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="AR21" s="11" t="s">
         <v>164</v>
@@ -7570,10 +7573,10 @@
         <v>175</v>
       </c>
       <c r="AU21" s="11" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="AV21" s="11" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="AW21" s="11" t="s">
         <v>205</v>
@@ -7582,7 +7585,7 @@
         <v>207</v>
       </c>
       <c r="AY21" s="11" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
     </row>
     <row r="22" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -7653,10 +7656,10 @@
         <v>113</v>
       </c>
       <c r="Z22" s="11" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="AA22" s="11" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="AB22" s="11">
         <v>2</v>
@@ -7680,7 +7683,7 @@
         <v>232</v>
       </c>
       <c r="AP22" s="11" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="AR22" s="11" t="s">
         <v>164</v>
@@ -7689,7 +7692,7 @@
         <v>239</v>
       </c>
       <c r="AV22" s="11" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="AW22" s="11" t="s">
         <v>199</v>
@@ -7698,7 +7701,7 @@
         <v>209</v>
       </c>
       <c r="AY22" s="11" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="23" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -7769,10 +7772,10 @@
         <v>113</v>
       </c>
       <c r="Z23" s="11" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="AA23" s="11" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="AB23" s="11">
         <v>2</v>
@@ -7796,7 +7799,7 @@
         <v>232</v>
       </c>
       <c r="AP23" s="11" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="AR23" s="11" t="s">
         <v>164</v>
@@ -7805,7 +7808,7 @@
         <v>240</v>
       </c>
       <c r="AV23" s="11" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="AW23" s="11" t="s">
         <v>199</v>
@@ -7814,7 +7817,7 @@
         <v>209</v>
       </c>
       <c r="AY23" s="11" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="24" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -7885,10 +7888,10 @@
         <v>113</v>
       </c>
       <c r="Z24" s="11" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="AA24" s="11" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="AB24" s="11">
         <v>2</v>
@@ -7912,7 +7915,7 @@
         <v>232</v>
       </c>
       <c r="AP24" s="11" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="AR24" s="11" t="s">
         <v>164</v>
@@ -7924,7 +7927,7 @@
         <v>181</v>
       </c>
       <c r="AV24" s="11" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="AW24" s="11" t="s">
         <v>199</v>
@@ -7933,7 +7936,7 @@
         <v>209</v>
       </c>
       <c r="AY24" s="11" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="25" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -8004,7 +8007,7 @@
         <v>80</v>
       </c>
       <c r="AA25" s="11" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="AB25" s="11">
         <v>2</v>
@@ -8028,7 +8031,7 @@
         <v>233</v>
       </c>
       <c r="AP25" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AR25" s="11" t="s">
         <v>164</v>
@@ -8037,7 +8040,7 @@
         <v>239</v>
       </c>
       <c r="AV25" s="11" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="AW25" s="11" t="s">
         <v>199</v>
@@ -8046,7 +8049,7 @@
         <v>209</v>
       </c>
       <c r="AY25" s="11" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="26" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -8123,7 +8126,7 @@
         <v>216</v>
       </c>
       <c r="AA26" s="11" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="AB26" s="11">
         <v>2</v>
@@ -8144,7 +8147,7 @@
         <v>117</v>
       </c>
       <c r="AM26" s="13" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="AN26" s="11" t="s">
         <v>232</v>
@@ -8153,7 +8156,7 @@
         <v>160</v>
       </c>
       <c r="AP26" s="11" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="AR26" s="11" t="s">
         <v>165</v>
@@ -8165,7 +8168,7 @@
         <v>196</v>
       </c>
       <c r="AV26" s="11" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="AW26" s="11" t="s">
         <v>199</v>
@@ -8174,7 +8177,7 @@
         <v>208</v>
       </c>
       <c r="AY26" s="11" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="27" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -8251,7 +8254,7 @@
         <v>216</v>
       </c>
       <c r="AA27" s="11" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="AB27" s="11">
         <v>2</v>
@@ -8272,7 +8275,7 @@
         <v>117</v>
       </c>
       <c r="AM27" s="13" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="AN27" s="11" t="s">
         <v>232</v>
@@ -8281,7 +8284,7 @@
         <v>160</v>
       </c>
       <c r="AP27" s="11" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="AR27" s="11" t="s">
         <v>165</v>
@@ -8293,7 +8296,7 @@
         <v>196</v>
       </c>
       <c r="AV27" s="11" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="AW27" s="11" t="s">
         <v>200</v>
@@ -8302,7 +8305,7 @@
         <v>210</v>
       </c>
       <c r="AY27" s="11" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="28" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -8379,7 +8382,7 @@
         <v>216</v>
       </c>
       <c r="AA28" s="11" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="AB28" s="11">
         <v>2</v>
@@ -8400,7 +8403,7 @@
         <v>117</v>
       </c>
       <c r="AM28" s="13" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="AN28" s="11" t="s">
         <v>232</v>
@@ -8409,7 +8412,7 @@
         <v>160</v>
       </c>
       <c r="AP28" s="11" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="AR28" s="11" t="s">
         <v>165</v>
@@ -8421,7 +8424,7 @@
         <v>196</v>
       </c>
       <c r="AV28" s="11" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="AW28" s="11" t="s">
         <v>199</v>
@@ -8430,7 +8433,7 @@
         <v>208</v>
       </c>
       <c r="AY28" s="11" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="29" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -8507,7 +8510,7 @@
         <v>216</v>
       </c>
       <c r="AA29" s="11" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="AB29" s="11">
         <v>2</v>
@@ -8528,7 +8531,7 @@
         <v>117</v>
       </c>
       <c r="AM29" s="13" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="AN29" s="11" t="s">
         <v>232</v>
@@ -8537,7 +8540,7 @@
         <v>160</v>
       </c>
       <c r="AP29" s="11" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="AR29" s="11" t="s">
         <v>165</v>
@@ -8549,7 +8552,7 @@
         <v>196</v>
       </c>
       <c r="AV29" s="11" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="AW29" s="11" t="s">
         <v>199</v>
@@ -8558,7 +8561,7 @@
         <v>208</v>
       </c>
       <c r="AY29" s="11" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="30" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -8635,7 +8638,7 @@
         <v>216</v>
       </c>
       <c r="AA30" s="11" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="AB30" s="11">
         <v>2</v>
@@ -8656,7 +8659,7 @@
         <v>117</v>
       </c>
       <c r="AM30" s="13" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="AN30" s="11" t="s">
         <v>232</v>
@@ -8665,7 +8668,7 @@
         <v>160</v>
       </c>
       <c r="AP30" s="11" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="AR30" s="11" t="s">
         <v>165</v>
@@ -8677,7 +8680,7 @@
         <v>196</v>
       </c>
       <c r="AV30" s="11" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="AW30" s="11" t="s">
         <v>200</v>
@@ -8686,7 +8689,7 @@
         <v>208</v>
       </c>
       <c r="AY30" s="11" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="31" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -8763,7 +8766,7 @@
         <v>216</v>
       </c>
       <c r="AA31" s="11" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="AB31" s="11">
         <v>2</v>
@@ -8784,7 +8787,7 @@
         <v>117</v>
       </c>
       <c r="AM31" s="13" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="AN31" s="11" t="s">
         <v>232</v>
@@ -8793,7 +8796,7 @@
         <v>160</v>
       </c>
       <c r="AP31" s="11" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="AR31" s="11" t="s">
         <v>165</v>
@@ -8805,7 +8808,7 @@
         <v>196</v>
       </c>
       <c r="AV31" s="11" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="AW31" s="11" t="s">
         <v>199</v>
@@ -8814,7 +8817,7 @@
         <v>210</v>
       </c>
       <c r="AY31" s="11" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="32" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -8891,7 +8894,7 @@
         <v>216</v>
       </c>
       <c r="AA32" s="11" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="AB32" s="11">
         <v>2</v>
@@ -8912,7 +8915,7 @@
         <v>117</v>
       </c>
       <c r="AM32" s="13" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="AN32" s="11" t="s">
         <v>232</v>
@@ -8921,7 +8924,7 @@
         <v>160</v>
       </c>
       <c r="AP32" s="11" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="AR32" s="11" t="s">
         <v>165</v>
@@ -8933,7 +8936,7 @@
         <v>196</v>
       </c>
       <c r="AV32" s="11" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="AW32" s="11" t="s">
         <v>199</v>
@@ -8942,7 +8945,7 @@
         <v>210</v>
       </c>
       <c r="AY32" s="11" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="33" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -9019,7 +9022,7 @@
         <v>216</v>
       </c>
       <c r="AA33" s="11" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="AB33" s="11">
         <v>2</v>
@@ -9040,7 +9043,7 @@
         <v>117</v>
       </c>
       <c r="AM33" s="13" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="AN33" s="11" t="s">
         <v>232</v>
@@ -9049,7 +9052,7 @@
         <v>160</v>
       </c>
       <c r="AP33" s="11" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="AR33" s="11" t="s">
         <v>165</v>
@@ -9061,7 +9064,7 @@
         <v>196</v>
       </c>
       <c r="AV33" s="11" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="AW33" s="11" t="s">
         <v>200</v>
@@ -9070,7 +9073,7 @@
         <v>210</v>
       </c>
       <c r="AY33" s="11" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="34" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -9147,7 +9150,7 @@
         <v>80</v>
       </c>
       <c r="AA34" s="11" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="AB34" s="11">
         <v>2</v>
@@ -9174,7 +9177,7 @@
         <v>233</v>
       </c>
       <c r="AP34" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AR34" s="11" t="s">
         <v>164</v>
@@ -9187,7 +9190,7 @@
       </c>
       <c r="AU34" s="13"/>
       <c r="AV34" s="11" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="AW34" s="11" t="s">
         <v>204</v>
@@ -9196,7 +9199,7 @@
         <v>209</v>
       </c>
       <c r="AY34" s="11" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
     </row>
     <row r="35" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -9273,7 +9276,7 @@
         <v>80</v>
       </c>
       <c r="AA35" s="11" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="AB35" s="11">
         <v>2</v>
@@ -9300,7 +9303,7 @@
         <v>233</v>
       </c>
       <c r="AP35" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AR35" s="11" t="s">
         <v>164</v>
@@ -9312,7 +9315,7 @@
         <v>176</v>
       </c>
       <c r="AV35" s="11" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="AW35" s="11" t="s">
         <v>204</v>
@@ -9321,7 +9324,7 @@
         <v>209</v>
       </c>
       <c r="AY35" s="11" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
     </row>
     <row r="36" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -9398,7 +9401,7 @@
         <v>80</v>
       </c>
       <c r="AA36" s="11" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="AB36" s="11">
         <v>2</v>
@@ -9425,7 +9428,7 @@
         <v>233</v>
       </c>
       <c r="AP36" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AR36" s="11" t="s">
         <v>164</v>
@@ -9437,7 +9440,7 @@
         <v>176</v>
       </c>
       <c r="AV36" s="11" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="AW36" s="11" t="s">
         <v>204</v>
@@ -9446,7 +9449,7 @@
         <v>209</v>
       </c>
       <c r="AY36" s="11" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
     </row>
     <row r="37" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -9523,7 +9526,7 @@
         <v>80</v>
       </c>
       <c r="AA37" s="11" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="AB37" s="11">
         <v>2</v>
@@ -9550,7 +9553,7 @@
         <v>233</v>
       </c>
       <c r="AP37" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AR37" s="11" t="s">
         <v>164</v>
@@ -9562,7 +9565,7 @@
         <v>176</v>
       </c>
       <c r="AV37" s="11" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="AW37" s="11" t="s">
         <v>204</v>
@@ -9571,7 +9574,7 @@
         <v>209</v>
       </c>
       <c r="AY37" s="11" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
     </row>
     <row r="38" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -9648,7 +9651,7 @@
         <v>80</v>
       </c>
       <c r="AA38" s="11" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="AB38" s="11">
         <v>2</v>
@@ -9675,7 +9678,7 @@
         <v>233</v>
       </c>
       <c r="AP38" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AR38" s="11" t="s">
         <v>164</v>
@@ -9688,7 +9691,7 @@
       </c>
       <c r="AU38" s="13"/>
       <c r="AV38" s="11" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="AW38" s="11" t="s">
         <v>199</v>
@@ -9697,7 +9700,7 @@
         <v>209</v>
       </c>
       <c r="AY38" s="11" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
     </row>
     <row r="39" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -9774,7 +9777,7 @@
         <v>80</v>
       </c>
       <c r="AA39" s="11" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="AB39" s="11">
         <v>2</v>
@@ -9801,7 +9804,7 @@
         <v>233</v>
       </c>
       <c r="AP39" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AR39" s="11" t="s">
         <v>164</v>
@@ -9813,7 +9816,7 @@
         <v>176</v>
       </c>
       <c r="AV39" s="11" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="AW39" s="11" t="s">
         <v>199</v>
@@ -9822,7 +9825,7 @@
         <v>209</v>
       </c>
       <c r="AY39" s="11" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
     </row>
     <row r="40" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -9899,7 +9902,7 @@
         <v>80</v>
       </c>
       <c r="AA40" s="11" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="AB40" s="11">
         <v>2</v>
@@ -9926,7 +9929,7 @@
         <v>233</v>
       </c>
       <c r="AP40" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AR40" s="11" t="s">
         <v>164</v>
@@ -9938,7 +9941,7 @@
         <v>176</v>
       </c>
       <c r="AV40" s="11" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="AW40" s="11" t="s">
         <v>199</v>
@@ -9947,7 +9950,7 @@
         <v>209</v>
       </c>
       <c r="AY40" s="11" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
     </row>
     <row r="41" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -10024,7 +10027,7 @@
         <v>80</v>
       </c>
       <c r="AA41" s="11" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="AB41" s="11">
         <v>2</v>
@@ -10051,7 +10054,7 @@
         <v>233</v>
       </c>
       <c r="AP41" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AR41" s="11" t="s">
         <v>164</v>
@@ -10063,7 +10066,7 @@
         <v>176</v>
       </c>
       <c r="AV41" s="11" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="AW41" s="11" t="s">
         <v>199</v>
@@ -10072,7 +10075,7 @@
         <v>209</v>
       </c>
       <c r="AY41" s="11" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
     </row>
     <row r="42" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -10149,10 +10152,10 @@
         <v>216</v>
       </c>
       <c r="Z42" s="11" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="AA42" s="11" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="AB42" s="11">
         <v>2</v>
@@ -10182,13 +10185,13 @@
         <v>134</v>
       </c>
       <c r="AM42" s="13" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="AN42" s="11" t="s">
         <v>233</v>
       </c>
       <c r="AP42" s="11" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="AR42" s="11" t="s">
         <v>164</v>
@@ -10200,10 +10203,10 @@
         <v>176</v>
       </c>
       <c r="AU42" s="11" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="AV42" s="11" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="AW42" s="11" t="s">
         <v>199</v>
@@ -10212,7 +10215,7 @@
         <v>208</v>
       </c>
       <c r="AY42" s="11" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="43" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -10289,10 +10292,10 @@
         <v>216</v>
       </c>
       <c r="Z43" s="11" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="AA43" s="11" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="AB43" s="11">
         <v>2</v>
@@ -10322,13 +10325,13 @@
         <v>134</v>
       </c>
       <c r="AM43" s="13" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="AN43" s="11" t="s">
         <v>233</v>
       </c>
       <c r="AP43" s="11" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="AR43" s="11" t="s">
         <v>164</v>
@@ -10340,10 +10343,10 @@
         <v>176</v>
       </c>
       <c r="AU43" s="11" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="AV43" s="11" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="AW43" s="11" t="s">
         <v>199</v>
@@ -10352,7 +10355,7 @@
         <v>207</v>
       </c>
       <c r="AY43" s="11" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="44" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -10429,10 +10432,10 @@
         <v>216</v>
       </c>
       <c r="Z44" s="11" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="AA44" s="11" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="AB44" s="11">
         <v>2</v>
@@ -10465,7 +10468,7 @@
         <v>233</v>
       </c>
       <c r="AP44" s="11" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="AR44" s="11" t="s">
         <v>164</v>
@@ -10477,10 +10480,10 @@
         <v>176</v>
       </c>
       <c r="AU44" s="11" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="AV44" s="11" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="AW44" s="11" t="s">
         <v>205</v>
@@ -10489,7 +10492,7 @@
         <v>208</v>
       </c>
       <c r="AY44" s="11" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="45" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -10566,10 +10569,10 @@
         <v>216</v>
       </c>
       <c r="Z45" s="11" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="AA45" s="11" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="AB45" s="11">
         <v>2</v>
@@ -10599,13 +10602,13 @@
         <v>134</v>
       </c>
       <c r="AM45" s="13" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="AN45" s="11" t="s">
         <v>233</v>
       </c>
       <c r="AP45" s="11" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="AR45" s="11" t="s">
         <v>164</v>
@@ -10617,10 +10620,10 @@
         <v>176</v>
       </c>
       <c r="AU45" s="11" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="AV45" s="11" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="AW45" s="11" t="s">
         <v>199</v>
@@ -10629,7 +10632,7 @@
         <v>208</v>
       </c>
       <c r="AY45" s="11" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="46" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -10706,10 +10709,10 @@
         <v>216</v>
       </c>
       <c r="Z46" s="11" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="AA46" s="11" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="AB46" s="11">
         <v>2</v>
@@ -10739,13 +10742,13 @@
         <v>141</v>
       </c>
       <c r="AM46" s="13" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="AN46" s="11" t="s">
         <v>233</v>
       </c>
       <c r="AP46" s="11" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="AR46" s="11" t="s">
         <v>164</v>
@@ -10757,10 +10760,10 @@
         <v>176</v>
       </c>
       <c r="AU46" s="11" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="AV46" s="11" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="AW46" s="11" t="s">
         <v>199</v>
@@ -10769,7 +10772,7 @@
         <v>208</v>
       </c>
       <c r="AY46" s="11" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="47" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -10846,10 +10849,10 @@
         <v>216</v>
       </c>
       <c r="Z47" s="11" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="AA47" s="11" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="AB47" s="11">
         <v>2</v>
@@ -10879,13 +10882,13 @@
         <v>141</v>
       </c>
       <c r="AM47" s="13" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="AN47" s="11" t="s">
         <v>233</v>
       </c>
       <c r="AP47" s="11" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="AR47" s="11" t="s">
         <v>164</v>
@@ -10897,10 +10900,10 @@
         <v>176</v>
       </c>
       <c r="AU47" s="11" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="AV47" s="11" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="AW47" s="11" t="s">
         <v>199</v>
@@ -10909,7 +10912,7 @@
         <v>207</v>
       </c>
       <c r="AY47" s="11" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="48" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -10986,10 +10989,10 @@
         <v>216</v>
       </c>
       <c r="Z48" s="11" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="AA48" s="11" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="AB48" s="11">
         <v>2</v>
@@ -11022,7 +11025,7 @@
         <v>233</v>
       </c>
       <c r="AP48" s="11" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="AR48" s="11" t="s">
         <v>164</v>
@@ -11034,10 +11037,10 @@
         <v>176</v>
       </c>
       <c r="AU48" s="11" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="AV48" s="11" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="AW48" s="11" t="s">
         <v>205</v>
@@ -11046,7 +11049,7 @@
         <v>208</v>
       </c>
       <c r="AY48" s="11" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="49" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -11123,10 +11126,10 @@
         <v>216</v>
       </c>
       <c r="Z49" s="11" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="AA49" s="11" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="AB49" s="11">
         <v>2</v>
@@ -11156,13 +11159,13 @@
         <v>141</v>
       </c>
       <c r="AM49" s="13" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="AN49" s="11" t="s">
         <v>233</v>
       </c>
       <c r="AP49" s="11" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="AR49" s="11" t="s">
         <v>164</v>
@@ -11174,10 +11177,10 @@
         <v>176</v>
       </c>
       <c r="AU49" s="11" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="AV49" s="11" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="AW49" s="11" t="s">
         <v>199</v>
@@ -11186,7 +11189,7 @@
         <v>208</v>
       </c>
       <c r="AY49" s="11" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="50" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -11263,10 +11266,10 @@
         <v>216</v>
       </c>
       <c r="Z50" s="11" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="AA50" s="11" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="AB50" s="11">
         <v>2</v>
@@ -11296,13 +11299,13 @@
         <v>146</v>
       </c>
       <c r="AM50" s="13" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="AN50" s="11" t="s">
         <v>233</v>
       </c>
       <c r="AP50" s="11" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="AR50" s="11" t="s">
         <v>164</v>
@@ -11314,10 +11317,10 @@
         <v>176</v>
       </c>
       <c r="AU50" s="11" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="AV50" s="11" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="AW50" s="11" t="s">
         <v>199</v>
@@ -11326,7 +11329,7 @@
         <v>208</v>
       </c>
       <c r="AY50" s="11" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="51" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -11403,10 +11406,10 @@
         <v>216</v>
       </c>
       <c r="Z51" s="11" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="AA51" s="11" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="AB51" s="11">
         <v>2</v>
@@ -11436,13 +11439,13 @@
         <v>146</v>
       </c>
       <c r="AM51" s="13" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="AN51" s="11" t="s">
         <v>233</v>
       </c>
       <c r="AP51" s="11" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="AR51" s="11" t="s">
         <v>164</v>
@@ -11454,10 +11457,10 @@
         <v>176</v>
       </c>
       <c r="AU51" s="11" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="AV51" s="11" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="AW51" s="11" t="s">
         <v>199</v>
@@ -11466,7 +11469,7 @@
         <v>207</v>
       </c>
       <c r="AY51" s="11" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="52" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -11543,10 +11546,10 @@
         <v>216</v>
       </c>
       <c r="Z52" s="11" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="AA52" s="11" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="AB52" s="11">
         <v>2</v>
@@ -11579,7 +11582,7 @@
         <v>233</v>
       </c>
       <c r="AP52" s="11" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="AR52" s="11" t="s">
         <v>164</v>
@@ -11591,10 +11594,10 @@
         <v>176</v>
       </c>
       <c r="AU52" s="11" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="AV52" s="11" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="AW52" s="11" t="s">
         <v>205</v>
@@ -11603,7 +11606,7 @@
         <v>208</v>
       </c>
       <c r="AY52" s="11" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="53" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -11680,10 +11683,10 @@
         <v>216</v>
       </c>
       <c r="Z53" s="11" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="AA53" s="11" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="AB53" s="11">
         <v>2</v>
@@ -11713,13 +11716,13 @@
         <v>146</v>
       </c>
       <c r="AM53" s="13" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="AN53" s="11" t="s">
         <v>233</v>
       </c>
       <c r="AP53" s="11" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="AR53" s="11" t="s">
         <v>164</v>
@@ -11731,10 +11734,10 @@
         <v>176</v>
       </c>
       <c r="AU53" s="11" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="AV53" s="11" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="AW53" s="11" t="s">
         <v>199</v>
@@ -11743,7 +11746,7 @@
         <v>208</v>
       </c>
       <c r="AY53" s="11" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="54" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -11820,7 +11823,7 @@
         <v>216</v>
       </c>
       <c r="AA54" s="11" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="AB54" s="11">
         <v>2</v>
@@ -11847,7 +11850,7 @@
         <v>233</v>
       </c>
       <c r="AP54" s="11" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AR54" s="11" t="s">
         <v>164</v>
@@ -11859,7 +11862,7 @@
         <v>176</v>
       </c>
       <c r="AV54" s="11" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AW54" s="11" t="s">
         <v>204</v>
@@ -11868,7 +11871,7 @@
         <v>208</v>
       </c>
       <c r="AY54" s="11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="55" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -11945,7 +11948,7 @@
         <v>80</v>
       </c>
       <c r="AA55" s="11" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="AB55" s="11">
         <v>2</v>
@@ -11972,7 +11975,7 @@
         <v>233</v>
       </c>
       <c r="AP55" s="11" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AR55" s="11" t="s">
         <v>164</v>
@@ -11984,7 +11987,7 @@
         <v>176</v>
       </c>
       <c r="AV55" s="11" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AW55" s="11" t="s">
         <v>204</v>
@@ -11993,7 +11996,7 @@
         <v>208</v>
       </c>
       <c r="AY55" s="11" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="56" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -12070,7 +12073,7 @@
         <v>216</v>
       </c>
       <c r="AA56" s="11" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="AB56" s="11">
         <v>2</v>
@@ -12091,13 +12094,13 @@
         <v>116</v>
       </c>
       <c r="AM56" s="13" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="AN56" s="11" t="s">
         <v>159</v>
       </c>
       <c r="AP56" s="11" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="AR56" s="11" t="s">
         <v>164</v>
@@ -12106,7 +12109,7 @@
         <v>239</v>
       </c>
       <c r="AV56" s="11" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="AW56" s="11" t="s">
         <v>203</v>
@@ -12115,7 +12118,7 @@
         <v>207</v>
       </c>
       <c r="AY56" s="11" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="57" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -12192,7 +12195,7 @@
         <v>216</v>
       </c>
       <c r="AA57" s="11" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="AB57" s="11">
         <v>2</v>
@@ -12213,13 +12216,13 @@
         <v>116</v>
       </c>
       <c r="AM57" s="13" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="AN57" s="11" t="s">
         <v>159</v>
       </c>
       <c r="AP57" s="11" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="AR57" s="11" t="s">
         <v>164</v>
@@ -12231,7 +12234,7 @@
         <v>181</v>
       </c>
       <c r="AV57" s="11" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="AW57" s="11" t="s">
         <v>203</v>
@@ -12240,7 +12243,7 @@
         <v>207</v>
       </c>
       <c r="AY57" s="11" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="58" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -12317,7 +12320,7 @@
         <v>216</v>
       </c>
       <c r="AA58" s="11" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AB58" s="11">
         <v>2</v>
@@ -12365,7 +12368,7 @@
         <v>175</v>
       </c>
       <c r="AV58" s="11" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AW58" s="11" t="s">
         <v>238</v>
@@ -12374,7 +12377,7 @@
         <v>207</v>
       </c>
       <c r="AY58" s="11" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="59" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -12451,7 +12454,7 @@
         <v>72</v>
       </c>
       <c r="AA59" s="11" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AB59" s="11">
         <v>2</v>
@@ -12484,7 +12487,7 @@
         <v>233</v>
       </c>
       <c r="AP59" s="11" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="AR59" s="11" t="s">
         <v>164</v>
@@ -12493,7 +12496,7 @@
         <v>239</v>
       </c>
       <c r="AV59" s="11" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AW59" s="11" t="s">
         <v>238</v>
@@ -12502,7 +12505,7 @@
         <v>207</v>
       </c>
       <c r="AY59" s="11" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="60" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -12579,7 +12582,7 @@
         <v>216</v>
       </c>
       <c r="AA60" s="11" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="AB60" s="11">
         <v>2</v>
@@ -12603,13 +12606,13 @@
         <v>132</v>
       </c>
       <c r="AM60" s="13" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AN60" s="11" t="s">
         <v>231</v>
       </c>
       <c r="AP60" s="11" t="s">
-        <v>507</v>
+        <v>626</v>
       </c>
       <c r="AR60" s="11" t="s">
         <v>150</v>
@@ -12618,13 +12621,16 @@
         <v>197</v>
       </c>
       <c r="AV60" s="11" t="s">
-        <v>611</v>
+        <v>624</v>
       </c>
       <c r="AW60" s="11" t="s">
-        <v>199</v>
+        <v>238</v>
+      </c>
+      <c r="AX60" s="11" t="s">
+        <v>210</v>
       </c>
       <c r="AY60" s="11" t="s">
-        <v>509</v>
+        <v>625</v>
       </c>
     </row>
     <row r="61" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -12701,7 +12707,7 @@
         <v>216</v>
       </c>
       <c r="AA61" s="11" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="AB61" s="11">
         <v>2</v>
@@ -12725,13 +12731,13 @@
         <v>132</v>
       </c>
       <c r="AM61" s="13" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AN61" s="11" t="s">
         <v>231</v>
       </c>
       <c r="AP61" s="11" t="s">
-        <v>507</v>
+        <v>626</v>
       </c>
       <c r="AR61" s="11" t="s">
         <v>150</v>
@@ -12740,13 +12746,16 @@
         <v>170</v>
       </c>
       <c r="AV61" s="11" t="s">
-        <v>611</v>
+        <v>624</v>
       </c>
       <c r="AW61" s="11" t="s">
-        <v>199</v>
+        <v>238</v>
+      </c>
+      <c r="AX61" s="11" t="s">
+        <v>210</v>
       </c>
       <c r="AY61" s="11" t="s">
-        <v>509</v>
+        <v>625</v>
       </c>
     </row>
     <row r="62" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -12820,7 +12829,7 @@
         <v>215</v>
       </c>
       <c r="AA62" s="11" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="AB62" s="11">
         <v>2</v>
@@ -12847,13 +12856,13 @@
         <v>150</v>
       </c>
       <c r="AM62" s="13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AN62" s="11" t="s">
         <v>233</v>
       </c>
       <c r="AP62" s="11" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="AR62" s="11" t="s">
         <v>164</v>
@@ -12865,7 +12874,7 @@
         <v>176</v>
       </c>
       <c r="AV62" s="11" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="AW62" s="11" t="s">
         <v>213</v>
@@ -12874,7 +12883,7 @@
         <v>207</v>
       </c>
       <c r="AY62" s="11" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="63" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -12948,7 +12957,7 @@
         <v>215</v>
       </c>
       <c r="AA63" s="11" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="AB63" s="11">
         <v>2</v>
@@ -12975,13 +12984,13 @@
         <v>150</v>
       </c>
       <c r="AM63" s="13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AN63" s="11" t="s">
         <v>233</v>
       </c>
       <c r="AP63" s="11" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="AR63" s="11" t="s">
         <v>164</v>
@@ -12990,7 +12999,7 @@
         <v>168</v>
       </c>
       <c r="AV63" s="11" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="AW63" s="11" t="s">
         <v>213</v>
@@ -12999,7 +13008,7 @@
         <v>207</v>
       </c>
       <c r="AY63" s="11" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="64" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -13073,7 +13082,7 @@
         <v>69</v>
       </c>
       <c r="AA64" s="11" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="AB64" s="11">
         <v>2</v>
@@ -13094,13 +13103,13 @@
         <v>116</v>
       </c>
       <c r="AM64" s="13" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="AN64" s="11" t="s">
         <v>159</v>
       </c>
       <c r="AP64" s="11" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="AR64" s="11" t="s">
         <v>164</v>
@@ -13112,7 +13121,7 @@
         <v>176</v>
       </c>
       <c r="AV64" s="11" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="AW64" s="11" t="s">
         <v>203</v>
@@ -13121,7 +13130,7 @@
         <v>207</v>
       </c>
       <c r="AY64" s="11" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="65" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -13195,7 +13204,7 @@
         <v>69</v>
       </c>
       <c r="AA65" s="11" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="AB65" s="11">
         <v>2</v>
@@ -13216,13 +13225,13 @@
         <v>116</v>
       </c>
       <c r="AM65" s="13" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="AN65" s="11" t="s">
         <v>159</v>
       </c>
       <c r="AP65" s="11" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="AR65" s="11" t="s">
         <v>164</v>
@@ -13234,7 +13243,7 @@
         <v>181</v>
       </c>
       <c r="AV65" s="11" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="AW65" s="11" t="s">
         <v>203</v>
@@ -13243,7 +13252,7 @@
         <v>207</v>
       </c>
       <c r="AY65" s="11" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="66" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -13320,7 +13329,7 @@
         <v>216</v>
       </c>
       <c r="AA66" s="11" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="AB66" s="11">
         <v>2</v>
@@ -13347,7 +13356,7 @@
         <v>233</v>
       </c>
       <c r="AP66" s="11" t="s">
-        <v>600</v>
+        <v>621</v>
       </c>
       <c r="AR66" s="11" t="s">
         <v>164</v>
@@ -13359,7 +13368,7 @@
         <v>176</v>
       </c>
       <c r="AV66" s="11" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="AW66" s="11" t="s">
         <v>238</v>
@@ -13368,7 +13377,7 @@
         <v>207</v>
       </c>
       <c r="AY66" s="11" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="67" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -13376,16 +13385,16 @@
         <v>477</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="C67" s="12" t="s">
         <v>242</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="F67" s="12">
         <v>2000</v>
@@ -13400,19 +13409,19 @@
         <v>268</v>
       </c>
       <c r="J67" s="12" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="K67" s="12" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="L67" s="12" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="M67" s="12" t="s">
         <v>244</v>
       </c>
       <c r="N67" s="12" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="O67" s="12" t="s">
         <v>245</v>
@@ -13427,25 +13436,25 @@
         <v>21</v>
       </c>
       <c r="T67" s="11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="U67" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="V67" s="11" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="W67" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="X67" s="11" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="Y67" s="11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AA67" s="11" t="s">
-        <v>527</v>
+        <v>597</v>
       </c>
       <c r="AB67" s="11">
         <v>2</v>
@@ -13472,7 +13481,7 @@
         <v>233</v>
       </c>
       <c r="AP67" s="11" t="s">
-        <v>514</v>
+        <v>622</v>
       </c>
       <c r="AR67" s="11" t="s">
         <v>164</v>
@@ -13483,20 +13492,17 @@
       <c r="AT67" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="AU67" s="13" t="s">
-        <v>518</v>
-      </c>
       <c r="AV67" s="11" t="s">
-        <v>519</v>
+        <v>594</v>
       </c>
       <c r="AW67" s="11" t="s">
         <v>238</v>
       </c>
       <c r="AX67" s="11" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AY67" s="11" t="s">
-        <v>534</v>
+        <v>623</v>
       </c>
     </row>
     <row r="68" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -13561,19 +13567,19 @@
         <v>42</v>
       </c>
       <c r="V68" s="11" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="W68" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="X68" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Y68" s="11" t="s">
         <v>215</v>
       </c>
       <c r="AA68" s="11" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="AB68" s="11">
         <v>2</v>
@@ -13588,7 +13594,7 @@
         <v>247</v>
       </c>
       <c r="AH68" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AI68" s="11" t="s">
         <v>120</v>
@@ -13600,7 +13606,7 @@
         <v>233</v>
       </c>
       <c r="AP68" s="11" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="AR68" s="11" t="s">
         <v>164</v>
@@ -13612,19 +13618,19 @@
         <v>175</v>
       </c>
       <c r="AU68" s="13" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="AV68" s="11" t="s">
-        <v>619</v>
+        <v>516</v>
       </c>
       <c r="AW68" s="11" t="s">
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="AX68" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AY68" s="11" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="69" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -13701,7 +13707,7 @@
         <v>215</v>
       </c>
       <c r="AA69" s="11" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="AB69" s="11">
         <v>2</v>
@@ -13728,7 +13734,7 @@
         <v>233</v>
       </c>
       <c r="AP69" s="11" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="AR69" s="11" t="s">
         <v>164</v>
@@ -13740,19 +13746,19 @@
         <v>175</v>
       </c>
       <c r="AU69" s="13" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="AV69" s="11" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="AW69" s="11" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AX69" s="11" t="s">
         <v>208</v>
       </c>
       <c r="AY69" s="11" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="70" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -13760,76 +13766,76 @@
         <v>477</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="C70" s="12" t="s">
         <v>242</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="F70" s="12">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="G70" s="12" t="s">
-        <v>443</v>
+        <v>256</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>311</v>
+        <v>273</v>
       </c>
       <c r="I70" s="12" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="J70" s="12" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="K70" s="12" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="L70" s="12" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="M70" s="12" t="s">
         <v>244</v>
       </c>
       <c r="N70" s="12" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="O70" s="12" t="s">
         <v>245</v>
       </c>
       <c r="P70" s="12" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="Q70" s="12" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="R70" s="12" t="s">
         <v>21</v>
       </c>
       <c r="T70" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U70" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V70" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="W70" s="11" t="s">
         <v>43</v>
       </c>
       <c r="X70" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Y70" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AA70" s="11" t="s">
-        <v>501</v>
+        <v>525</v>
       </c>
       <c r="AB70" s="11">
         <v>2</v>
@@ -13841,25 +13847,22 @@
         <v>3</v>
       </c>
       <c r="AG70" s="12" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="AH70" s="11" t="s">
         <v>110</v>
       </c>
       <c r="AI70" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="AJ70" s="11" t="s">
-        <v>139</v>
+        <v>120</v>
+      </c>
+      <c r="AL70" s="11" t="s">
+        <v>141</v>
       </c>
       <c r="AN70" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AO70" s="11" t="s">
-        <v>162</v>
+        <v>233</v>
       </c>
       <c r="AP70" s="11" t="s">
-        <v>480</v>
+        <v>511</v>
       </c>
       <c r="AR70" s="11" t="s">
         <v>164</v>
@@ -13867,17 +13870,23 @@
       <c r="AS70" s="11" t="s">
         <v>239</v>
       </c>
+      <c r="AT70" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="AU70" s="13" t="s">
+        <v>515</v>
+      </c>
       <c r="AV70" s="11" t="s">
-        <v>529</v>
+        <v>614</v>
       </c>
       <c r="AW70" s="11" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AX70" s="11" t="s">
         <v>208</v>
       </c>
       <c r="AY70" s="11" t="s">
-        <v>510</v>
+        <v>530</v>
       </c>
     </row>
     <row r="71" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -13954,7 +13963,7 @@
         <v>216</v>
       </c>
       <c r="AA71" s="11" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AB71" s="11">
         <v>2</v>
@@ -13975,7 +13984,7 @@
         <v>220</v>
       </c>
       <c r="AJ71" s="11" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="AN71" s="11" t="s">
         <v>232</v>
@@ -13993,7 +14002,7 @@
         <v>239</v>
       </c>
       <c r="AV71" s="11" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="AW71" s="11" t="s">
         <v>199</v>
@@ -14002,7 +14011,7 @@
         <v>208</v>
       </c>
       <c r="AY71" s="11" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="72" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -14079,7 +14088,7 @@
         <v>216</v>
       </c>
       <c r="AA72" s="11" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AB72" s="11">
         <v>2</v>
@@ -14100,7 +14109,7 @@
         <v>220</v>
       </c>
       <c r="AJ72" s="11" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="AN72" s="11" t="s">
         <v>232</v>
@@ -14118,7 +14127,7 @@
         <v>239</v>
       </c>
       <c r="AV72" s="11" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="AW72" s="11" t="s">
         <v>199</v>
@@ -14127,7 +14136,7 @@
         <v>208</v>
       </c>
       <c r="AY72" s="11" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="73" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -14135,43 +14144,43 @@
         <v>477</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="C73" s="12" t="s">
         <v>242</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="F73" s="12">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="G73" s="12" t="s">
-        <v>256</v>
+        <v>443</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>451</v>
+        <v>311</v>
       </c>
       <c r="I73" s="12" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="J73" s="12" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="K73" s="12" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="L73" s="12" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="M73" s="12" t="s">
         <v>244</v>
       </c>
       <c r="N73" s="12" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="O73" s="12" t="s">
         <v>245</v>
@@ -14186,22 +14195,25 @@
         <v>21</v>
       </c>
       <c r="T73" s="11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="U73" s="11" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="V73" s="11" t="s">
-        <v>54</v>
+        <v>59</v>
+      </c>
+      <c r="W73" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="X73" s="11" t="s">
-        <v>214</v>
+        <v>55</v>
       </c>
       <c r="Y73" s="11" t="s">
         <v>216</v>
       </c>
       <c r="AA73" s="11" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AB73" s="11">
         <v>2</v>
@@ -14213,28 +14225,25 @@
         <v>3</v>
       </c>
       <c r="AG73" s="12" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="AH73" s="11" t="s">
         <v>110</v>
       </c>
       <c r="AI73" s="11" t="s">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="AJ73" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="AL73" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="AM73" s="13" t="s">
-        <v>511</v>
+        <v>145</v>
       </c>
       <c r="AN73" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AO73" s="11" t="s">
+        <v>162</v>
       </c>
       <c r="AP73" s="11" t="s">
-        <v>514</v>
+        <v>480</v>
       </c>
       <c r="AR73" s="11" t="s">
         <v>164</v>
@@ -14242,20 +14251,17 @@
       <c r="AS73" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="AT73" s="11" t="s">
-        <v>176</v>
-      </c>
       <c r="AV73" s="11" t="s">
-        <v>512</v>
+        <v>526</v>
       </c>
       <c r="AW73" s="11" t="s">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="AX73" s="11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AY73" s="11" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
     </row>
     <row r="74" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -14263,43 +14269,43 @@
         <v>477</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="C74" s="12" t="s">
         <v>242</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="F74" s="12">
-        <v>1976</v>
+        <v>1994</v>
       </c>
       <c r="G74" s="12" t="s">
         <v>256</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="I74" s="12" t="s">
         <v>251</v>
       </c>
       <c r="J74" s="12" t="s">
-        <v>372</v>
+        <v>452</v>
       </c>
       <c r="K74" s="12" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="L74" s="12" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="M74" s="12" t="s">
         <v>244</v>
       </c>
       <c r="N74" s="12" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="O74" s="12" t="s">
         <v>245</v>
@@ -14320,16 +14326,16 @@
         <v>46</v>
       </c>
       <c r="V74" s="11" t="s">
-        <v>59</v>
+        <v>54</v>
+      </c>
+      <c r="X74" s="11" t="s">
+        <v>214</v>
       </c>
       <c r="Y74" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z74" s="11" t="s">
-        <v>603</v>
+        <v>216</v>
       </c>
       <c r="AA74" s="11" t="s">
-        <v>605</v>
+        <v>500</v>
       </c>
       <c r="AB74" s="11">
         <v>2</v>
@@ -14338,28 +14344,31 @@
         <v>2</v>
       </c>
       <c r="AD74" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG74" s="12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AH74" s="11" t="s">
         <v>110</v>
       </c>
       <c r="AI74" s="11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AJ74" s="11" t="s">
-        <v>130</v>
+        <v>140</v>
+      </c>
+      <c r="AL74" s="11" t="s">
+        <v>150</v>
       </c>
       <c r="AM74" s="13" t="s">
-        <v>596</v>
+        <v>508</v>
       </c>
       <c r="AN74" s="11" t="s">
         <v>233</v>
       </c>
       <c r="AP74" s="11" t="s">
-        <v>606</v>
+        <v>511</v>
       </c>
       <c r="AR74" s="11" t="s">
         <v>164</v>
@@ -14371,16 +14380,16 @@
         <v>176</v>
       </c>
       <c r="AV74" s="11" t="s">
-        <v>604</v>
+        <v>509</v>
       </c>
       <c r="AW74" s="11" t="s">
-        <v>200</v>
+        <v>113</v>
       </c>
       <c r="AX74" s="11" t="s">
         <v>207</v>
       </c>
       <c r="AY74" s="11" t="s">
-        <v>607</v>
+        <v>510</v>
       </c>
     </row>
     <row r="75" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -14388,25 +14397,25 @@
         <v>477</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="C75" s="12" t="s">
         <v>242</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="F75" s="12">
-        <v>2006</v>
+        <v>1976</v>
       </c>
       <c r="G75" s="12" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="H75" s="12" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="I75" s="12" t="s">
         <v>251</v>
@@ -14415,16 +14424,16 @@
         <v>372</v>
       </c>
       <c r="K75" s="12" t="s">
-        <v>328</v>
+        <v>460</v>
       </c>
       <c r="L75" s="12" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="M75" s="12" t="s">
         <v>244</v>
       </c>
       <c r="N75" s="12" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="O75" s="12" t="s">
         <v>245</v>
@@ -14439,22 +14448,22 @@
         <v>21</v>
       </c>
       <c r="T75" s="11" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="U75" s="11" t="s">
         <v>46</v>
       </c>
       <c r="V75" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="X75" s="11" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Y75" s="11" t="s">
-        <v>215</v>
+        <v>113</v>
+      </c>
+      <c r="Z75" s="11" t="s">
+        <v>599</v>
       </c>
       <c r="AA75" s="11" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="AB75" s="11">
         <v>2</v>
@@ -14463,22 +14472,28 @@
         <v>2</v>
       </c>
       <c r="AD75" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG75" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AH75" s="11" t="s">
         <v>110</v>
       </c>
       <c r="AI75" s="11" t="s">
-        <v>220</v>
+        <v>117</v>
+      </c>
+      <c r="AJ75" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM75" s="13" t="s">
+        <v>593</v>
       </c>
       <c r="AN75" s="11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AP75" s="11" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="AR75" s="11" t="s">
         <v>164</v>
@@ -14486,17 +14501,20 @@
       <c r="AS75" s="11" t="s">
         <v>239</v>
       </c>
+      <c r="AT75" s="11" t="s">
+        <v>176</v>
+      </c>
       <c r="AV75" s="11" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="AW75" s="11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AX75" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AY75" s="11" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
     </row>
     <row r="76" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -14570,7 +14588,7 @@
         <v>215</v>
       </c>
       <c r="AA76" s="11" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="AB76" s="11">
         <v>2</v>
@@ -14594,7 +14612,7 @@
         <v>232</v>
       </c>
       <c r="AP76" s="11" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="AR76" s="11" t="s">
         <v>164</v>
@@ -14603,16 +14621,16 @@
         <v>239</v>
       </c>
       <c r="AV76" s="11" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="AW76" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AX76" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AY76" s="11" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
     </row>
     <row r="77" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -14686,7 +14704,7 @@
         <v>215</v>
       </c>
       <c r="AA77" s="11" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="AB77" s="11">
         <v>2</v>
@@ -14710,7 +14728,7 @@
         <v>232</v>
       </c>
       <c r="AP77" s="11" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="AR77" s="11" t="s">
         <v>164</v>
@@ -14719,16 +14737,16 @@
         <v>239</v>
       </c>
       <c r="AV77" s="11" t="s">
-        <v>622</v>
+        <v>591</v>
       </c>
       <c r="AW77" s="11" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="AX77" s="11" t="s">
         <v>209</v>
       </c>
       <c r="AY77" s="11" t="s">
-        <v>621</v>
+        <v>592</v>
       </c>
     </row>
     <row r="78" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -14802,7 +14820,7 @@
         <v>215</v>
       </c>
       <c r="AA78" s="11" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="AB78" s="11">
         <v>2</v>
@@ -14820,16 +14838,13 @@
         <v>110</v>
       </c>
       <c r="AI78" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ78" s="11" t="s">
-        <v>144</v>
+        <v>220</v>
       </c>
       <c r="AN78" s="11" t="s">
         <v>232</v>
       </c>
       <c r="AP78" s="11" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="AR78" s="11" t="s">
         <v>164</v>
@@ -14838,16 +14853,16 @@
         <v>239</v>
       </c>
       <c r="AV78" s="11" t="s">
-        <v>592</v>
+        <v>616</v>
       </c>
       <c r="AW78" s="11" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="AX78" s="11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AY78" s="11" t="s">
-        <v>593</v>
+        <v>615</v>
       </c>
     </row>
     <row r="79" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -14921,7 +14936,7 @@
         <v>215</v>
       </c>
       <c r="AA79" s="11" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="AB79" s="11">
         <v>2</v>
@@ -14948,7 +14963,7 @@
         <v>232</v>
       </c>
       <c r="AP79" s="11" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="AR79" s="11" t="s">
         <v>164</v>
@@ -14957,16 +14972,16 @@
         <v>239</v>
       </c>
       <c r="AV79" s="11" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="AW79" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AX79" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AY79" s="11" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
     </row>
     <row r="80" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -15040,7 +15055,7 @@
         <v>215</v>
       </c>
       <c r="AA80" s="11" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="AB80" s="11">
         <v>2</v>
@@ -15067,7 +15082,7 @@
         <v>232</v>
       </c>
       <c r="AP80" s="11" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="AR80" s="11" t="s">
         <v>164</v>
@@ -15076,16 +15091,16 @@
         <v>239</v>
       </c>
       <c r="AV80" s="11" t="s">
-        <v>622</v>
+        <v>591</v>
       </c>
       <c r="AW80" s="11" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="AX80" s="11" t="s">
         <v>209</v>
       </c>
       <c r="AY80" s="11" t="s">
-        <v>621</v>
+        <v>592</v>
       </c>
     </row>
     <row r="81" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -15093,41 +15108,43 @@
         <v>477</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="C81" s="12" t="s">
         <v>242</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="F81" s="12">
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="G81" s="12" t="s">
-        <v>466</v>
+        <v>243</v>
       </c>
       <c r="H81" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="I81" s="12"/>
+        <v>472</v>
+      </c>
+      <c r="I81" s="12" t="s">
+        <v>251</v>
+      </c>
       <c r="J81" s="12" t="s">
-        <v>251</v>
+        <v>372</v>
       </c>
       <c r="K81" s="12" t="s">
-        <v>257</v>
+        <v>328</v>
       </c>
       <c r="L81" s="12" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="M81" s="12" t="s">
         <v>244</v>
       </c>
       <c r="N81" s="12" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="O81" s="12" t="s">
         <v>245</v>
@@ -15135,21 +15152,20 @@
       <c r="P81" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="Q81" s="12"/>
+      <c r="Q81" s="12" t="s">
+        <v>244</v>
+      </c>
       <c r="R81" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T81" s="11" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="U81" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="V81" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W81" s="11" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="X81" s="11" t="s">
         <v>55</v>
@@ -15158,7 +15174,7 @@
         <v>215</v>
       </c>
       <c r="AA81" s="11" t="s">
-        <v>526</v>
+        <v>587</v>
       </c>
       <c r="AB81" s="11">
         <v>2</v>
@@ -15170,28 +15186,22 @@
         <v>3</v>
       </c>
       <c r="AG81" s="12" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AH81" s="11" t="s">
         <v>110</v>
       </c>
       <c r="AI81" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AJ81" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="AL81" s="11" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AN81" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="AO81" s="11" t="s">
-        <v>160</v>
-      </c>
       <c r="AP81" s="11" t="s">
-        <v>480</v>
+        <v>588</v>
       </c>
       <c r="AR81" s="11" t="s">
         <v>164</v>
@@ -15199,20 +15209,17 @@
       <c r="AS81" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="AT81" s="11" t="s">
-        <v>176</v>
-      </c>
       <c r="AV81" s="11" t="s">
-        <v>499</v>
+        <v>616</v>
       </c>
       <c r="AW81" s="11" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="AX81" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AY81" s="11" t="s">
-        <v>500</v>
+        <v>615</v>
       </c>
     </row>
     <row r="82" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -15285,7 +15292,7 @@
         <v>215</v>
       </c>
       <c r="AA82" s="11" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="AB82" s="11">
         <v>2</v>
@@ -15297,13 +15304,19 @@
         <v>3</v>
       </c>
       <c r="AG82" s="12" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="AH82" s="11" t="s">
         <v>110</v>
       </c>
       <c r="AI82" s="11" t="s">
-        <v>117</v>
+        <v>120</v>
+      </c>
+      <c r="AJ82" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL82" s="11" t="s">
+        <v>141</v>
       </c>
       <c r="AN82" s="11" t="s">
         <v>232</v>
@@ -15324,7 +15337,7 @@
         <v>176</v>
       </c>
       <c r="AV82" s="11" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AW82" s="11" t="s">
         <v>199</v>
@@ -15333,12 +15346,133 @@
         <v>210</v>
       </c>
       <c r="AY82" s="11" t="s">
-        <v>500</v>
+        <v>499</v>
+      </c>
+    </row>
+    <row r="83" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="E83" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="F83" s="12">
+        <v>2012</v>
+      </c>
+      <c r="G83" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="H83" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="I83" s="12"/>
+      <c r="J83" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="K83" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="L83" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="M83" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="N83" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="O83" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="P83" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q83" s="12"/>
+      <c r="R83" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="T83" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="U83" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="V83" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="W83" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="X83" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y83" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA83" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="AB83" s="11">
+        <v>2</v>
+      </c>
+      <c r="AC83" s="11">
+        <v>2</v>
+      </c>
+      <c r="AD83" s="11">
+        <v>3</v>
+      </c>
+      <c r="AG83" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="AH83" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI83" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="AN83" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="AO83" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AP83" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="AR83" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="AS83" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="AT83" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="AV83" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="AW83" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="AX83" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="AY83" s="11" t="s">
+        <v>499</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AY82">
-    <sortCondition ref="B2:B82"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AY83">
+    <sortCondition ref="B2:B83"/>
   </sortState>
   <mergeCells count="7">
     <mergeCell ref="AR1:AU1"/>
@@ -15358,7 +15492,7 @@
       <formula1>Fishery_type</formula1>
     </dataValidation>
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="Q3:Q1048576" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS3:AT1048576 AO3:AO1048576 AJ3:AK1048576" xr:uid="{E3465DE4-B915-4C62-9316-EABEC40DC1E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ3:AK1048576 AO3:AO1048576 AS3:AT1048576" xr:uid="{E3465DE4-B915-4C62-9316-EABEC40DC1E6}">
       <formula1>INDIRECT(AI3)</formula1>
     </dataValidation>
   </dataValidations>
@@ -15372,13 +15506,13 @@
           <x14:formula1>
             <xm:f>Validation!$R$3:$R$9</xm:f>
           </x14:formula1>
-          <xm:sqref>S83:S1048576 AG3:AG82</xm:sqref>
+          <xm:sqref>S84:S1048576 AG3:AG83</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FD092EEC-9635-4A23-B39A-38C3C681ED3E}">
           <x14:formula1>
             <xm:f>Validation!$AK$3:$AK$7</xm:f>
           </x14:formula1>
-          <xm:sqref>AM59 AL3:AL58 AL63:AL1048576</xm:sqref>
+          <xm:sqref>AL63:AL1048576 AL3:AL58 AM59</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{16FDFCD7-4CD9-4F70-9E07-7559EBA53348}">
           <x14:formula1>
@@ -17593,14 +17727,14 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Festjens.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Festjens.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D1D2E4-42F0-46FE-B82A-2EF4B5B4609F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF963576-E6F1-4BBF-B543-7F6DBB61D4B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4650" yWindow="-21720" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -2388,7 +2388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3651" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3651" uniqueCount="629">
   <si>
     <t>SearchID</t>
   </si>
@@ -4367,9 +4367,6 @@
     </r>
   </si>
   <si>
-    <t>SST data _ plankton data _ cod data</t>
-  </si>
-  <si>
     <t>For production, both sand and gravel habitats showed fast recovery (less than 2 years) throughout most of the area, whereas a small fraction of the area recovered after about 7 years. Mud habitat recovered within 4 years. A large fraction of the muddy sand habitat recovered in about 2 years, whereas the majority of this habitat had recovered after 5 years. The areas that recovered most slowly were sand and gravel areas in the northwestern North Sea. Recovery trajectories
 for the biomass state indicator were similar to those for the production indicator, but recovery generally took twice as long.</t>
   </si>
@@ -4423,6 +4420,15 @@
   </si>
   <si>
     <t>litter ingestion</t>
+  </si>
+  <si>
+    <t>Continuous Plankton Recorder</t>
+  </si>
+  <si>
+    <t>ICES stock assessment database</t>
+  </si>
+  <si>
+    <t>Continuous Plankton Recorder _ ICES stock assessment database</t>
   </si>
 </sst>
 </file>
@@ -4928,31 +4934,31 @@
   <dimension ref="A1:AY83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AH3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="V5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AP84" sqref="AP84"/>
+      <selection pane="bottomRight" activeCell="AB87" sqref="AB87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.453125" customWidth="1"/>
-    <col min="20" max="20" width="18.1796875" customWidth="1"/>
-    <col min="25" max="26" width="32.81640625" customWidth="1"/>
-    <col min="35" max="36" width="17.81640625" customWidth="1"/>
-    <col min="37" max="37" width="18.81640625" customWidth="1"/>
-    <col min="38" max="38" width="19.1796875" customWidth="1"/>
-    <col min="39" max="39" width="17.81640625" customWidth="1"/>
-    <col min="40" max="40" width="14.1796875" customWidth="1"/>
-    <col min="41" max="42" width="15.81640625" customWidth="1"/>
-    <col min="43" max="43" width="15.453125" customWidth="1"/>
-    <col min="47" max="47" width="15.1796875" customWidth="1"/>
-    <col min="48" max="48" width="18.81640625" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" customWidth="1"/>
+    <col min="20" max="20" width="18.140625" customWidth="1"/>
+    <col min="25" max="26" width="32.85546875" customWidth="1"/>
+    <col min="35" max="36" width="17.85546875" customWidth="1"/>
+    <col min="37" max="37" width="18.85546875" customWidth="1"/>
+    <col min="38" max="38" width="19.140625" customWidth="1"/>
+    <col min="39" max="39" width="17.85546875" customWidth="1"/>
+    <col min="40" max="40" width="14.140625" customWidth="1"/>
+    <col min="41" max="42" width="15.85546875" customWidth="1"/>
+    <col min="43" max="43" width="15.42578125" customWidth="1"/>
+    <col min="47" max="47" width="15.140625" customWidth="1"/>
+    <col min="48" max="48" width="18.85546875" customWidth="1"/>
     <col min="49" max="49" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>476</v>
       </c>
@@ -5021,7 +5027,7 @@
       <c r="AX1" s="15"/>
       <c r="AY1" s="15"/>
     </row>
-    <row r="2" spans="1:51" s="2" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:51" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>68</v>
       </c>
@@ -5173,7 +5179,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>477</v>
       </c>
@@ -5304,7 +5310,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="4" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>477</v>
       </c>
@@ -5435,7 +5441,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="5" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>477</v>
       </c>
@@ -5503,7 +5509,7 @@
         <v>113</v>
       </c>
       <c r="Z5" s="11" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="AA5" s="11" t="s">
         <v>517</v>
@@ -5557,7 +5563,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="6" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>477</v>
       </c>
@@ -5625,7 +5631,7 @@
         <v>113</v>
       </c>
       <c r="Z6" s="11" t="s">
-        <v>608</v>
+        <v>627</v>
       </c>
       <c r="AA6" s="11" t="s">
         <v>517</v>
@@ -5676,7 +5682,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="7" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>477</v>
       </c>
@@ -5744,7 +5750,7 @@
         <v>113</v>
       </c>
       <c r="Z7" s="11" t="s">
-        <v>608</v>
+        <v>628</v>
       </c>
       <c r="AA7" s="11" t="s">
         <v>517</v>
@@ -5789,7 +5795,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="8" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>477</v>
       </c>
@@ -5857,7 +5863,7 @@
         <v>113</v>
       </c>
       <c r="Z8" s="11" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="AA8" s="11" t="s">
         <v>517</v>
@@ -5902,7 +5908,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="9" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>477</v>
       </c>
@@ -6033,7 +6039,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="10" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>477</v>
       </c>
@@ -6164,7 +6170,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="11" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>477</v>
       </c>
@@ -6295,7 +6301,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="12" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>477</v>
       </c>
@@ -6417,7 +6423,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="13" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>477</v>
       </c>
@@ -6539,7 +6545,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="14" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>477</v>
       </c>
@@ -6661,7 +6667,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="15" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>477</v>
       </c>
@@ -6780,7 +6786,7 @@
         <v>527</v>
       </c>
       <c r="AV15" s="11" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AW15" s="11" t="s">
         <v>199</v>
@@ -6792,7 +6798,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="16" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>477</v>
       </c>
@@ -6905,7 +6911,7 @@
         <v>480</v>
       </c>
       <c r="AQ16" s="11" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AR16" s="11" t="s">
         <v>164</v>
@@ -6930,7 +6936,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="17" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>477</v>
       </c>
@@ -7070,7 +7076,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="18" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>477</v>
       </c>
@@ -7204,7 +7210,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="19" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>477</v>
       </c>
@@ -7338,7 +7344,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="20" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>477</v>
       </c>
@@ -7460,10 +7466,10 @@
         <v>208</v>
       </c>
       <c r="AY20" s="11" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
-    <row r="21" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>477</v>
       </c>
@@ -7585,10 +7591,10 @@
         <v>207</v>
       </c>
       <c r="AY21" s="11" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
-    <row r="22" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>477</v>
       </c>
@@ -7683,7 +7689,7 @@
         <v>232</v>
       </c>
       <c r="AP22" s="11" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AR22" s="11" t="s">
         <v>164</v>
@@ -7692,7 +7698,7 @@
         <v>239</v>
       </c>
       <c r="AV22" s="11" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AW22" s="11" t="s">
         <v>199</v>
@@ -7704,7 +7710,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="23" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>477</v>
       </c>
@@ -7799,7 +7805,7 @@
         <v>232</v>
       </c>
       <c r="AP23" s="11" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AR23" s="11" t="s">
         <v>164</v>
@@ -7808,7 +7814,7 @@
         <v>240</v>
       </c>
       <c r="AV23" s="11" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AW23" s="11" t="s">
         <v>199</v>
@@ -7820,7 +7826,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="24" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>477</v>
       </c>
@@ -7915,7 +7921,7 @@
         <v>232</v>
       </c>
       <c r="AP24" s="11" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AR24" s="11" t="s">
         <v>164</v>
@@ -7927,7 +7933,7 @@
         <v>181</v>
       </c>
       <c r="AV24" s="11" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AW24" s="11" t="s">
         <v>199</v>
@@ -7939,7 +7945,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="25" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>477</v>
       </c>
@@ -8052,7 +8058,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="26" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>477</v>
       </c>
@@ -8180,7 +8186,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="27" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>477</v>
       </c>
@@ -8308,7 +8314,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="28" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>477</v>
       </c>
@@ -8436,7 +8442,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="29" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>477</v>
       </c>
@@ -8564,7 +8570,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="30" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>477</v>
       </c>
@@ -8692,7 +8698,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="31" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>477</v>
       </c>
@@ -8820,7 +8826,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="32" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>477</v>
       </c>
@@ -8948,7 +8954,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="33" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>477</v>
       </c>
@@ -9076,7 +9082,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="34" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>477</v>
       </c>
@@ -9190,7 +9196,7 @@
       </c>
       <c r="AU34" s="13"/>
       <c r="AV34" s="11" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AW34" s="11" t="s">
         <v>204</v>
@@ -9199,10 +9205,10 @@
         <v>209</v>
       </c>
       <c r="AY34" s="11" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
-    <row r="35" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>477</v>
       </c>
@@ -9315,7 +9321,7 @@
         <v>176</v>
       </c>
       <c r="AV35" s="11" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AW35" s="11" t="s">
         <v>204</v>
@@ -9324,10 +9330,10 @@
         <v>209</v>
       </c>
       <c r="AY35" s="11" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
-    <row r="36" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>477</v>
       </c>
@@ -9440,7 +9446,7 @@
         <v>176</v>
       </c>
       <c r="AV36" s="11" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AW36" s="11" t="s">
         <v>204</v>
@@ -9449,10 +9455,10 @@
         <v>209</v>
       </c>
       <c r="AY36" s="11" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
-    <row r="37" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>477</v>
       </c>
@@ -9565,7 +9571,7 @@
         <v>176</v>
       </c>
       <c r="AV37" s="11" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AW37" s="11" t="s">
         <v>204</v>
@@ -9574,10 +9580,10 @@
         <v>209</v>
       </c>
       <c r="AY37" s="11" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
-    <row r="38" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>477</v>
       </c>
@@ -9691,7 +9697,7 @@
       </c>
       <c r="AU38" s="13"/>
       <c r="AV38" s="11" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AW38" s="11" t="s">
         <v>199</v>
@@ -9700,10 +9706,10 @@
         <v>209</v>
       </c>
       <c r="AY38" s="11" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
-    <row r="39" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>477</v>
       </c>
@@ -9816,7 +9822,7 @@
         <v>176</v>
       </c>
       <c r="AV39" s="11" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AW39" s="11" t="s">
         <v>199</v>
@@ -9825,10 +9831,10 @@
         <v>209</v>
       </c>
       <c r="AY39" s="11" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
-    <row r="40" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>477</v>
       </c>
@@ -9941,7 +9947,7 @@
         <v>176</v>
       </c>
       <c r="AV40" s="11" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AW40" s="11" t="s">
         <v>199</v>
@@ -9950,10 +9956,10 @@
         <v>209</v>
       </c>
       <c r="AY40" s="11" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
-    <row r="41" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>477</v>
       </c>
@@ -10066,7 +10072,7 @@
         <v>176</v>
       </c>
       <c r="AV41" s="11" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AW41" s="11" t="s">
         <v>199</v>
@@ -10075,10 +10081,10 @@
         <v>209</v>
       </c>
       <c r="AY41" s="11" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
-    <row r="42" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>477</v>
       </c>
@@ -10218,7 +10224,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="43" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>477</v>
       </c>
@@ -10358,7 +10364,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="44" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>477</v>
       </c>
@@ -10495,7 +10501,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="45" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>477</v>
       </c>
@@ -10635,7 +10641,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="46" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>477</v>
       </c>
@@ -10775,7 +10781,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="47" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>477</v>
       </c>
@@ -10915,7 +10921,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="48" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>477</v>
       </c>
@@ -11052,7 +11058,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="49" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>477</v>
       </c>
@@ -11192,7 +11198,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="50" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>477</v>
       </c>
@@ -11332,7 +11338,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="51" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>477</v>
       </c>
@@ -11472,7 +11478,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="52" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>477</v>
       </c>
@@ -11609,7 +11615,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="53" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>477</v>
       </c>
@@ -11749,7 +11755,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="54" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>477</v>
       </c>
@@ -11874,7 +11880,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="55" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>477</v>
       </c>
@@ -11999,7 +12005,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="56" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>477</v>
       </c>
@@ -12121,7 +12127,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="57" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>477</v>
       </c>
@@ -12246,7 +12252,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="58" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>477</v>
       </c>
@@ -12380,7 +12386,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="59" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>477</v>
       </c>
@@ -12487,7 +12493,7 @@
         <v>233</v>
       </c>
       <c r="AP59" s="11" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AR59" s="11" t="s">
         <v>164</v>
@@ -12508,7 +12514,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="60" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
         <v>477</v>
       </c>
@@ -12612,7 +12618,7 @@
         <v>231</v>
       </c>
       <c r="AP60" s="11" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AR60" s="11" t="s">
         <v>150</v>
@@ -12621,7 +12627,7 @@
         <v>197</v>
       </c>
       <c r="AV60" s="11" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AW60" s="11" t="s">
         <v>238</v>
@@ -12630,10 +12636,10 @@
         <v>210</v>
       </c>
       <c r="AY60" s="11" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
-    <row r="61" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
         <v>477</v>
       </c>
@@ -12737,7 +12743,7 @@
         <v>231</v>
       </c>
       <c r="AP61" s="11" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AR61" s="11" t="s">
         <v>150</v>
@@ -12746,7 +12752,7 @@
         <v>170</v>
       </c>
       <c r="AV61" s="11" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AW61" s="11" t="s">
         <v>238</v>
@@ -12755,10 +12761,10 @@
         <v>210</v>
       </c>
       <c r="AY61" s="11" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
-    <row r="62" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
         <v>477</v>
       </c>
@@ -12886,7 +12892,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="63" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
         <v>477</v>
       </c>
@@ -13011,7 +13017,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="64" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
         <v>477</v>
       </c>
@@ -13133,7 +13139,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="65" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
         <v>477</v>
       </c>
@@ -13255,7 +13261,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="66" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
         <v>477</v>
       </c>
@@ -13356,7 +13362,7 @@
         <v>233</v>
       </c>
       <c r="AP66" s="11" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AR66" s="11" t="s">
         <v>164</v>
@@ -13380,7 +13386,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="67" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
         <v>477</v>
       </c>
@@ -13481,7 +13487,7 @@
         <v>233</v>
       </c>
       <c r="AP67" s="11" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AR67" s="11" t="s">
         <v>164</v>
@@ -13502,10 +13508,10 @@
         <v>209</v>
       </c>
       <c r="AY67" s="11" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
-    <row r="68" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
         <v>477</v>
       </c>
@@ -13633,7 +13639,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="69" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
         <v>477</v>
       </c>
@@ -13749,7 +13755,7 @@
         <v>515</v>
       </c>
       <c r="AV69" s="11" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AW69" s="11" t="s">
         <v>199</v>
@@ -13761,7 +13767,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="70" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
         <v>477</v>
       </c>
@@ -13877,7 +13883,7 @@
         <v>515</v>
       </c>
       <c r="AV70" s="11" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AW70" s="11" t="s">
         <v>205</v>
@@ -13889,7 +13895,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="71" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
         <v>477</v>
       </c>
@@ -14014,7 +14020,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="72" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
         <v>477</v>
       </c>
@@ -14139,7 +14145,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="73" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
         <v>477</v>
       </c>
@@ -14264,7 +14270,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="74" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
         <v>477</v>
       </c>
@@ -14392,7 +14398,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="75" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
         <v>477</v>
       </c>
@@ -14517,7 +14523,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="76" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
         <v>477</v>
       </c>
@@ -14633,7 +14639,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="77" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
         <v>477</v>
       </c>
@@ -14749,7 +14755,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="78" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
         <v>477</v>
       </c>
@@ -14853,7 +14859,7 @@
         <v>239</v>
       </c>
       <c r="AV78" s="11" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AW78" s="11" t="s">
         <v>206</v>
@@ -14862,10 +14868,10 @@
         <v>209</v>
       </c>
       <c r="AY78" s="11" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
-    <row r="79" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
         <v>477</v>
       </c>
@@ -14984,7 +14990,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="80" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
         <v>477</v>
       </c>
@@ -15103,7 +15109,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="81" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
         <v>477</v>
       </c>
@@ -15210,7 +15216,7 @@
         <v>239</v>
       </c>
       <c r="AV81" s="11" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AW81" s="11" t="s">
         <v>206</v>
@@ -15219,10 +15225,10 @@
         <v>209</v>
       </c>
       <c r="AY81" s="11" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
-    <row r="82" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
         <v>477</v>
       </c>
@@ -15349,7 +15355,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="83" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
         <v>477</v>
       </c>
@@ -15606,17 +15612,17 @@
       <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="19" max="19" width="32.1796875" customWidth="1"/>
-    <col min="23" max="23" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.140625" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="25" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="25" customWidth="1"/>
-    <col min="32" max="32" width="14.81640625" customWidth="1"/>
-    <col min="33" max="33" width="26.1796875" customWidth="1"/>
+    <col min="32" max="32" width="14.85546875" customWidth="1"/>
+    <col min="33" max="33" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>11</v>
       </c>
@@ -15682,7 +15688,7 @@
       <c r="AW1" s="8"/>
       <c r="AX1" s="8"/>
     </row>
-    <row r="2" spans="1:50" ht="87" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:50" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -15834,7 +15840,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="Q3" t="s">
         <v>21</v>
       </c>
@@ -15891,7 +15897,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="Q4" t="s">
         <v>22</v>
       </c>
@@ -15948,7 +15954,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="R5" t="s">
         <v>83</v>
       </c>
@@ -16004,7 +16010,7 @@
       </c>
       <c r="AX5" s="7"/>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:50" ht="30" x14ac:dyDescent="0.25">
       <c r="R6" t="s">
         <v>84</v>
       </c>
@@ -16049,7 +16055,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="R7" t="s">
         <v>85</v>
       </c>
@@ -16091,7 +16097,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="R8" t="s">
         <v>86</v>
       </c>
@@ -16129,7 +16135,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="R9" t="s">
         <v>87</v>
       </c>
@@ -16164,7 +16170,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="S10" t="s">
         <v>33</v>
       </c>
@@ -16196,7 +16202,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="S11" t="s">
         <v>32</v>
       </c>
@@ -16231,7 +16237,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="S12" t="s">
         <v>30</v>
       </c>
@@ -16263,7 +16269,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="S13" t="s">
         <v>79</v>
       </c>
@@ -16298,7 +16304,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="S14" t="s">
         <v>31</v>
       </c>
@@ -16327,7 +16333,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="S15" t="s">
         <v>35</v>
       </c>
@@ -16356,7 +16362,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="S16" t="s">
         <v>34</v>
       </c>
@@ -16376,7 +16382,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="17" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AM17" t="s">
         <v>162</v>
       </c>
@@ -16384,22 +16390,22 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="18" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AQ18" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="19" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AQ19" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="22" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AH22" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="23" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AH23" s="6" t="s">
         <v>115</v>
       </c>
@@ -16434,7 +16440,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="24" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AH24" t="s">
         <v>129</v>
       </c>
@@ -16460,7 +16466,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="25" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AH25" t="s">
         <v>137</v>
       </c>
@@ -16483,7 +16489,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="26" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="26" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AJ26" t="s">
         <v>144</v>
       </c>
@@ -16494,7 +16500,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="27" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AJ27" t="s">
         <v>147</v>
       </c>
@@ -16505,7 +16511,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="28" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AJ28" t="s">
         <v>149</v>
       </c>
@@ -16513,12 +16519,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="29" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AQ29" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="30" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AH30" s="5" t="s">
         <v>151</v>
       </c>
@@ -16541,7 +16547,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="31" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="31" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AH31" s="6" t="s">
         <v>129</v>
       </c>
@@ -16567,7 +16573,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="32" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="32" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AH32" t="s">
         <v>153</v>
       </c>
@@ -16593,7 +16599,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="33" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AH33" t="s">
         <v>155</v>
       </c>
@@ -16613,7 +16619,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="34" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AI34" t="s">
         <v>157</v>
       </c>
@@ -16627,7 +16633,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="35" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="35" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AI35" t="s">
         <v>113</v>
       </c>
@@ -16641,7 +16647,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="36" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AU36" t="s">
         <v>211</v>
       </c>
@@ -16649,10 +16655,10 @@
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="37" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AL37" s="5"/>
     </row>
-    <row r="38" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="38" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AL38" s="6"/>
       <c r="AM38" s="6"/>
       <c r="AN38" s="6"/>
@@ -16680,38 +16686,38 @@
       <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.54296875" customWidth="1"/>
-    <col min="9" max="9" width="17.1796875" customWidth="1"/>
-    <col min="10" max="10" width="14.81640625" customWidth="1"/>
-    <col min="13" max="13" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
     <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.54296875" customWidth="1"/>
-    <col min="17" max="17" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.81640625" customWidth="1"/>
-    <col min="19" max="19" width="17.81640625" customWidth="1"/>
-    <col min="20" max="20" width="19.1796875" customWidth="1"/>
-    <col min="21" max="21" width="17.81640625" customWidth="1"/>
-    <col min="22" max="22" width="18.81640625" customWidth="1"/>
-    <col min="26" max="26" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.5703125" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.85546875" customWidth="1"/>
+    <col min="19" max="19" width="17.85546875" customWidth="1"/>
+    <col min="20" max="20" width="19.140625" customWidth="1"/>
+    <col min="21" max="21" width="17.85546875" customWidth="1"/>
+    <col min="22" max="22" width="18.85546875" customWidth="1"/>
+    <col min="26" max="26" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="28.54296875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.453125" customWidth="1"/>
-    <col min="30" max="30" width="15.1796875" customWidth="1"/>
-    <col min="31" max="31" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.81640625" customWidth="1"/>
-    <col min="33" max="33" width="12.54296875" customWidth="1"/>
+    <col min="28" max="28" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" customWidth="1"/>
+    <col min="30" max="30" width="15.140625" customWidth="1"/>
+    <col min="31" max="31" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.85546875" customWidth="1"/>
+    <col min="33" max="33" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>12</v>
       </c>
@@ -16758,7 +16764,7 @@
       <c r="AF1" s="15"/>
       <c r="AG1" s="15"/>
     </row>
-    <row r="2" spans="1:33" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
@@ -16859,7 +16865,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -16925,7 +16931,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -16976,7 +16982,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -17030,7 +17036,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -17072,7 +17078,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -17117,7 +17123,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -17155,7 +17161,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -17193,7 +17199,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>33</v>
       </c>
@@ -17228,7 +17234,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>32</v>
       </c>
@@ -17260,7 +17266,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>30</v>
       </c>
@@ -17292,7 +17298,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>79</v>
       </c>
@@ -17321,7 +17327,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>31</v>
       </c>
@@ -17344,7 +17350,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>35</v>
       </c>
@@ -17370,7 +17376,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>34</v>
       </c>
@@ -17387,7 +17393,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="17" spans="17:28" x14ac:dyDescent="0.25">
       <c r="Q17" t="s">
         <v>119</v>
       </c>
@@ -17398,7 +17404,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="18" spans="17:28" x14ac:dyDescent="0.25">
       <c r="Q18" t="s">
         <v>120</v>
       </c>
@@ -17412,7 +17418,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="19" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R19" t="s">
         <v>152</v>
       </c>
@@ -17426,7 +17432,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="20" spans="17:28" x14ac:dyDescent="0.25">
       <c r="S20" t="s">
         <v>156</v>
       </c>
@@ -17437,7 +17443,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="21" spans="17:28" x14ac:dyDescent="0.25">
       <c r="S21" t="s">
         <v>228</v>
       </c>
@@ -17451,7 +17457,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="22" spans="17:28" x14ac:dyDescent="0.25">
       <c r="S22" t="s">
         <v>113</v>
       </c>
@@ -17462,7 +17468,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="23" spans="17:28" x14ac:dyDescent="0.25">
       <c r="Q23" t="s">
         <v>127</v>
       </c>
@@ -17476,7 +17482,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="24" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R24" t="s">
         <v>141</v>
       </c>
@@ -17484,7 +17490,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="25" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R25" t="s">
         <v>146</v>
       </c>
@@ -17492,7 +17498,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="26" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R26" t="s">
         <v>148</v>
       </c>
@@ -17500,7 +17506,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="27" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R27" t="s">
         <v>150</v>
       </c>
@@ -17514,7 +17520,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="28" spans="17:28" x14ac:dyDescent="0.25">
       <c r="Q28" t="s">
         <v>122</v>
       </c>
@@ -17525,7 +17531,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="29" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="29" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R29" t="s">
         <v>142</v>
       </c>
@@ -17536,7 +17542,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="30" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="30" spans="17:28" x14ac:dyDescent="0.25">
       <c r="Q30" t="s">
         <v>123</v>
       </c>
@@ -17547,7 +17553,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="31" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R31" t="s">
         <v>143</v>
       </c>
@@ -17555,7 +17561,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="32" spans="17:28" x14ac:dyDescent="0.25">
       <c r="Q32" t="s">
         <v>128</v>
       </c>
@@ -17563,12 +17569,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="26:26" x14ac:dyDescent="0.35">
+    <row r="33" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z33" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="34" spans="26:26" x14ac:dyDescent="0.35">
+    <row r="34" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z34" t="s">
         <v>150</v>
       </c>
@@ -17597,12 +17603,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="125e2131eddd38cce17ebc9527d7a9d7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="553f2d8843fd2aa64b81f9e8c63a6619">
     <xsd:element name="properties">
@@ -17716,6 +17716,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>
@@ -17725,21 +17731,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDF5CC58-C8DC-4B0B-B85F-BEEEE1EBC9AF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17753,4 +17744,19 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>